--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TUD_MSC\sem_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{827FEA0A-5985-4916-801F-295C96E3FFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88B8B6-007F-4FC6-A429-E627008A7333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
+    <workbookView xWindow="6140" yWindow="0" windowWidth="13150" windowHeight="10890" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>survey contact</t>
   </si>
@@ -63,16 +63,63 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>O'Mahony Pike Dublin</t>
+  </si>
+  <si>
+    <t>info@omp.ie</t>
+  </si>
+  <si>
+    <t>+35312027400</t>
+  </si>
+  <si>
+    <t>Architect</t>
+  </si>
+  <si>
+    <t>Sheridan Woods Dublin</t>
+  </si>
+  <si>
+    <t>info@sheridanwoods.ie</t>
+  </si>
+  <si>
+    <t>+35314791789</t>
+  </si>
+  <si>
+    <t>Urban Architecture Dublin</t>
+  </si>
+  <si>
+    <t>hello@urbanAC.ie</t>
+  </si>
+  <si>
+    <t>+35312544488</t>
+  </si>
+  <si>
+    <t>Brennan Furlong Dublin</t>
+  </si>
+  <si>
+    <t>studio@brennanfurlong.ie</t>
+  </si>
+  <si>
+    <t>+35318747410</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -95,13 +142,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -434,13 +485,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
-  <dimension ref="B1:K3"/>
+  <dimension ref="B1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
@@ -479,7 +536,67 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{6A2820EB-51E8-43AE-B6D1-21E9F583390C}"/>
+    <hyperlink ref="C7" r:id="rId2" xr:uid="{DC5457CA-8319-4A7F-A1F2-46E085F48996}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TUD_MSC\sem_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88B8B6-007F-4FC6-A429-E627008A7333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B452F3BC-91C2-40F3-8D58-CE56FAED260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6140" yWindow="0" windowWidth="13150" windowHeight="10890" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
@@ -36,35 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>survey contact</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>first email</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>second email</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
     <t>O'Mahony Pike Dublin</t>
   </si>
   <si>
@@ -102,14 +78,190 @@
   </si>
   <si>
     <t>+35318747410</t>
+  </si>
+  <si>
+    <t>MOLA Dublin</t>
+  </si>
+  <si>
+    <t>mail@mola.ie</t>
+  </si>
+  <si>
+    <t>+35312183900</t>
+  </si>
+  <si>
+    <t>Scott Tallon Walker Architects Dublin</t>
+  </si>
+  <si>
+    <t>mail@stwarchitects.com</t>
+  </si>
+  <si>
+    <t>+35316693000</t>
+  </si>
+  <si>
+    <t>Scott Tallon Walker Architects Cork</t>
+  </si>
+  <si>
+    <t>Scott Tallon Walker Architects Galway</t>
+  </si>
+  <si>
+    <t>cork@stwarchitects.com</t>
+  </si>
+  <si>
+    <t>+353214320744</t>
+  </si>
+  <si>
+    <t>galway@stwarchitects.com</t>
+  </si>
+  <si>
+    <t>+35391564881</t>
+  </si>
+  <si>
+    <t>Brady Shipman Martin Dublin &amp; Cork</t>
+  </si>
+  <si>
+    <t>mail@bradyshipmanmartin.com</t>
+  </si>
+  <si>
+    <t>+35312081900</t>
+  </si>
+  <si>
+    <t>David Duignan Meath</t>
+  </si>
+  <si>
+    <t>davidduignanc@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>+353868581179</t>
+  </si>
+  <si>
+    <t>AJ Murphy Tipperary</t>
+  </si>
+  <si>
+    <t>ajmprojectplan@gmail.com</t>
+  </si>
+  <si>
+    <t>+353872864279</t>
+  </si>
+  <si>
+    <t>Ruxton Architectural Services Monaghan</t>
+  </si>
+  <si>
+    <t>info@ruxtonarchitectural.com</t>
+  </si>
+  <si>
+    <t>+353868041690</t>
+  </si>
+  <si>
+    <t>info@mhplanning.ie</t>
+  </si>
+  <si>
+    <t>+35318044477</t>
+  </si>
+  <si>
+    <t>McCutcheon Halley CPC Dublin &amp; Cork</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>First email</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>Second email</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Party Pros Dublin</t>
+  </si>
+  <si>
+    <t>hello@partypros.ie</t>
+  </si>
+  <si>
+    <t>+35314370667</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>Olivia Buckley International</t>
+  </si>
+  <si>
+    <t>studio@oliviabuckley.com</t>
+  </si>
+  <si>
+    <t>+35361596994</t>
+  </si>
+  <si>
+    <t>info@grooveyard.ie</t>
+  </si>
+  <si>
+    <t>+35312020836</t>
+  </si>
+  <si>
+    <t>Grooveyard Dublin</t>
+  </si>
+  <si>
+    <t>Grooveyard Galway</t>
+  </si>
+  <si>
+    <t>+35391556608</t>
+  </si>
+  <si>
+    <t>Gotcha Covered Dubiln</t>
+  </si>
+  <si>
+    <t>events@gotchacovered.ie</t>
+  </si>
+  <si>
+    <t>+35312841337</t>
+  </si>
+  <si>
+    <t>Sharon McMeel Wedding Planner</t>
+  </si>
+  <si>
+    <t>sharon@sharonmcmeel.ie</t>
+  </si>
+  <si>
+    <t>+353868524800</t>
+  </si>
+  <si>
+    <t>Inspired Events</t>
+  </si>
+  <si>
+    <t>hello@rachelwalsh.ie</t>
+  </si>
+  <si>
+    <t>+353868298706</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -144,12 +296,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -485,17 +638,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
-  <dimension ref="B1:K7"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,97 +659,323 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" t="s">
-        <v>4</v>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>12</v>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1" xr:uid="{6A2820EB-51E8-43AE-B6D1-21E9F583390C}"/>
     <hyperlink ref="C7" r:id="rId2" xr:uid="{DC5457CA-8319-4A7F-A1F2-46E085F48996}"/>
+    <hyperlink ref="C16" r:id="rId3" xr:uid="{84589412-EC92-4A4F-B234-9CDBD7EE2233}"/>
+    <hyperlink ref="C20" r:id="rId4" xr:uid="{59E4998A-642C-4750-A0E5-41D8A136C58F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TUD_MSC\sem_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B452F3BC-91C2-40F3-8D58-CE56FAED260B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41C4F75-6282-4D00-AC8E-934C47B2F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6140" yWindow="0" windowWidth="13150" windowHeight="10890" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
-    <t>survey contact</t>
-  </si>
-  <si>
     <t>O'Mahony Pike Dublin</t>
   </si>
   <si>
@@ -173,15 +170,9 @@
     <t>Type</t>
   </si>
   <si>
-    <t>First email</t>
-  </si>
-  <si>
     <t>Response</t>
   </si>
   <si>
-    <t>Second email</t>
-  </si>
-  <si>
     <t>Call</t>
   </si>
   <si>
@@ -246,13 +237,22 @@
   </si>
   <si>
     <t>+353868298706</t>
+  </si>
+  <si>
+    <t>Survey Contact</t>
+  </si>
+  <si>
+    <t>1st email</t>
+  </si>
+  <si>
+    <t>2nd email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,16 +276,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -293,16 +307,163 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -319,6 +480,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -649,326 +827,567 @@
     <col min="2" max="2" width="33.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>0</v>
+    <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="K3" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11"/>
+      <c r="J5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11"/>
+      <c r="J14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="E17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="C18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" t="s">
+      <c r="E18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
+      <c r="E19" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
+      <c r="C21" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" t="s">
+      <c r="E21" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" t="s">
+      <c r="E22" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>52</v>
-      </c>
+      <c r="E23" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TUD_MSC\sem_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Documentation\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41C4F75-6282-4D00-AC8E-934C47B2F5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D0117A-5675-4204-B0C2-6B17C8E2027D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
@@ -818,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="4" t="b">
@@ -909,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="10" t="b">
@@ -935,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6" t="b">
@@ -961,7 +961,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="10" t="b">
@@ -987,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="F8" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="10" t="b">
@@ -1013,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="10" t="b">
@@ -1039,7 +1039,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="10" t="b">
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="10" t="b">
@@ -1091,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="10" t="b">
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="F13" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="10" t="b">
@@ -1143,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="F14" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="10" t="b">
@@ -1169,7 +1169,7 @@
         <v>3</v>
       </c>
       <c r="F15" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="10" t="b">
@@ -1195,7 +1195,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="10" t="b">
@@ -1221,7 +1221,7 @@
         <v>49</v>
       </c>
       <c r="F17" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="10" t="b">
@@ -1247,7 +1247,7 @@
         <v>49</v>
       </c>
       <c r="F18" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="10" t="b">
@@ -1273,7 +1273,7 @@
         <v>49</v>
       </c>
       <c r="F19" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="10" t="b">
@@ -1299,7 +1299,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="10" t="b">
@@ -1325,7 +1325,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="10" t="b">
@@ -1351,7 +1351,7 @@
         <v>49</v>
       </c>
       <c r="F22" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="10" t="b">
@@ -1377,7 +1377,7 @@
         <v>49</v>
       </c>
       <c r="F23" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="8" t="b">

--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Documentation\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D0117A-5675-4204-B0C2-6B17C8E2027D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A650BA7-19EF-4319-B525-6087DEBDFC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>O'Mahony Pike Dublin</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>2nd email</t>
+  </si>
+  <si>
+    <t>Mailbox not found</t>
+  </si>
+  <si>
+    <t>Bounced, unauthorized sender (me)</t>
   </si>
 </sst>
 </file>
@@ -818,8 +824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -828,6 +834,7 @@
     <col min="3" max="3" width="26.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.1796875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1067,9 +1074,11 @@
       <c r="F11" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>71</v>
+      </c>
       <c r="H11" s="10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="10" t="b">
@@ -1119,7 +1128,9 @@
       <c r="F13" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11" t="s">
+        <v>70</v>
+      </c>
       <c r="H13" s="10" t="b">
         <v>0</v>
       </c>

--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Documentation\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A650BA7-19EF-4319-B525-6087DEBDFC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF1A7C3-CE4A-4099-A065-AEFA22A77AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
   <si>
     <t>O'Mahony Pike Dublin</t>
   </si>
@@ -252,6 +252,135 @@
   </si>
   <si>
     <t>Bounced, unauthorized sender (me)</t>
+  </si>
+  <si>
+    <t>Office Public Works - General</t>
+  </si>
+  <si>
+    <t>info@opw.ie</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>+353469422000</t>
+  </si>
+  <si>
+    <t>Dublin City Council - Planning Dept</t>
+  </si>
+  <si>
+    <t>planning@dublincity.ie</t>
+  </si>
+  <si>
+    <t>+35312222149</t>
+  </si>
+  <si>
+    <t>customerservices@dublincity.ie</t>
+  </si>
+  <si>
+    <t>+3531222 2222</t>
+  </si>
+  <si>
+    <t>South Dublin City Council - Planning Dept</t>
+  </si>
+  <si>
+    <t>planningdept@sdublincoco.ie</t>
+  </si>
+  <si>
+    <t>+35314149000</t>
+  </si>
+  <si>
+    <t>South Dublin City Council - Customer Care</t>
+  </si>
+  <si>
+    <t>Dublin City Council - Customer Care</t>
+  </si>
+  <si>
+    <t>info@sdublincoco.ie</t>
+  </si>
+  <si>
+    <t>Fingal County Council - General Inquiries</t>
+  </si>
+  <si>
+    <t>customercareunit@fingal.ie</t>
+  </si>
+  <si>
+    <t>+35318905000</t>
+  </si>
+  <si>
+    <t>Fingal County Council - Community Dev</t>
+  </si>
+  <si>
+    <t>community@fingal.ie</t>
+  </si>
+  <si>
+    <t>+35318905500</t>
+  </si>
+  <si>
+    <t>Fingal County Council - Operations</t>
+  </si>
+  <si>
+    <t>casmuloparea@fingal.ie</t>
+  </si>
+  <si>
+    <t>howmaloparea@fingal.ie</t>
+  </si>
+  <si>
+    <t>balswooparea@fingal.ie</t>
+  </si>
+  <si>
+    <t>Fingal County Council - Libraries</t>
+  </si>
+  <si>
+    <t>librariesHQ@fingal.ie</t>
+  </si>
+  <si>
+    <t>+35318905520</t>
+  </si>
+  <si>
+    <t>Fingal County Council - Planning</t>
+  </si>
+  <si>
+    <t>planning@fingal.ie</t>
+  </si>
+  <si>
+    <t>+35318905541</t>
+  </si>
+  <si>
+    <t>Fingal County Council - Architects</t>
+  </si>
+  <si>
+    <t>architects.department@fingal.ie</t>
+  </si>
+  <si>
+    <t>+35318905050</t>
+  </si>
+  <si>
+    <t>Dun Laighaire-Rathdown City Council - General</t>
+  </si>
+  <si>
+    <t>info@dlrcoco.ie</t>
+  </si>
+  <si>
+    <t>+35312054700</t>
+  </si>
+  <si>
+    <t>Dun Laighaire-Rathdown City Council - HR</t>
+  </si>
+  <si>
+    <t>hr@dlrcoco.ie</t>
+  </si>
+  <si>
+    <t>+35312054854</t>
+  </si>
+  <si>
+    <t>Dun Laighaire-Rathdown City Council - Communications</t>
+  </si>
+  <si>
+    <t>commsoffice@dlrcoco.ie</t>
+  </si>
+  <si>
+    <t>+35312047090</t>
   </si>
 </sst>
 </file>
@@ -305,7 +434,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -359,17 +488,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -433,23 +551,21 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
           <xfpb:xfComplement i="0"/>
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <extLst>
         <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
@@ -457,7 +573,6 @@
         </ext>
       </extLst>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -469,6 +584,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -822,57 +946,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
-  <dimension ref="B1:K23"/>
+  <dimension ref="B1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="33.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -886,21 +1012,21 @@
       <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7"/>
+      <c r="F4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="15"/>
       <c r="H4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="15"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
@@ -912,21 +1038,21 @@
       <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11"/>
+      <c r="F5" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16"/>
+      <c r="J5" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="16"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
@@ -938,21 +1064,21 @@
       <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7"/>
+      <c r="F6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
@@ -964,21 +1090,21 @@
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11"/>
+      <c r="F7" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
@@ -990,21 +1116,21 @@
       <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="11"/>
+      <c r="F8" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
@@ -1016,21 +1142,21 @@
       <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="11"/>
+      <c r="F9" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
@@ -1042,21 +1168,21 @@
       <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11"/>
+      <c r="F10" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
@@ -1068,23 +1194,25 @@
       <c r="D11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11"/>
+      <c r="H11" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
@@ -1096,21 +1224,21 @@
       <c r="D12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11"/>
-      <c r="J12" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="11"/>
+      <c r="F12" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
@@ -1122,23 +1250,25 @@
       <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="F13" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11"/>
+      <c r="H13" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="16"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
@@ -1150,21 +1280,21 @@
       <c r="D14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="11"/>
+      <c r="F14" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
@@ -1176,21 +1306,21 @@
       <c r="D15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11"/>
+      <c r="F15" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
@@ -1202,21 +1332,21 @@
       <c r="D16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11"/>
+      <c r="F16" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
@@ -1228,21 +1358,21 @@
       <c r="D17" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11"/>
+      <c r="F17" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="16"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
@@ -1254,21 +1384,21 @@
       <c r="D18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="11"/>
+      <c r="F18" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="16"/>
+      <c r="H18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
@@ -1280,21 +1410,21 @@
       <c r="D19" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="11"/>
+      <c r="F19" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
@@ -1306,21 +1436,21 @@
       <c r="D20" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11"/>
+      <c r="F20" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
@@ -1332,21 +1462,21 @@
       <c r="D21" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11"/>
+      <c r="F21" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="16"/>
+      <c r="H21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
@@ -1358,21 +1488,21 @@
       <c r="D22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="11"/>
+      <c r="F22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
@@ -1384,21 +1514,385 @@
       <c r="D23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9"/>
+      <c r="F23" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17"/>
+      <c r="J23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="17"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="17"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="17"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="17"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="17"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="17"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="17"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="17"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="17"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="17"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="17"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="17"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="17"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="17"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="17"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1406,6 +1900,13 @@
     <hyperlink ref="C7" r:id="rId2" xr:uid="{DC5457CA-8319-4A7F-A1F2-46E085F48996}"/>
     <hyperlink ref="C16" r:id="rId3" xr:uid="{84589412-EC92-4A4F-B234-9CDBD7EE2233}"/>
     <hyperlink ref="C20" r:id="rId4" xr:uid="{59E4998A-642C-4750-A0E5-41D8A136C58F}"/>
+    <hyperlink ref="C25" r:id="rId5" xr:uid="{1CC2B260-7198-4FF4-AD7C-505DD9CACD01}"/>
+    <hyperlink ref="C22" r:id="rId6" xr:uid="{E2A6E4AA-BDBC-49F9-9B4E-066CB02688EF}"/>
+    <hyperlink ref="C28" r:id="rId7" xr:uid="{53861621-E8DE-42E6-AFA7-9D2273A385B6}"/>
+    <hyperlink ref="C30" r:id="rId8" xr:uid="{FD1EFA78-5EAC-4F82-98A2-2635F2F9158E}"/>
+    <hyperlink ref="C31" r:id="rId9" xr:uid="{D5F2B9E0-0AC2-4F5C-A68E-B3B50DAECAB5}"/>
+    <hyperlink ref="C36" r:id="rId10" xr:uid="{6561EF92-F0A8-4740-88F2-8E1E885B8FC1}"/>
+    <hyperlink ref="C24" r:id="rId11" xr:uid="{736BB623-6FC1-439A-9179-EF09E3959C88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Documentation\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF1A7C3-CE4A-4099-A065-AEFA22A77AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F5B01E-26D8-4E22-97F3-B30F948520E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
   <si>
     <t>O'Mahony Pike Dublin</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>+35312047090</t>
+  </si>
+  <si>
+    <t>"We do not engage in surveys of this nature"</t>
   </si>
 </sst>
 </file>
@@ -434,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -534,48 +537,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,14 +564,64 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -948,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -966,933 +995,935 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="4" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="15"/>
+      <c r="F4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16"/>
+      <c r="F5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="5" t="b">
+      <c r="F6" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="5" t="b">
+      <c r="H6" s="14" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="15"/>
-      <c r="J6" s="5" t="b">
+      <c r="J6" s="14" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="15"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16"/>
+      <c r="F7" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16"/>
+      <c r="F8" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16"/>
+      <c r="F9" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16"/>
+      <c r="F10" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16"/>
+      <c r="J11" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="8" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16"/>
+      <c r="F12" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="16"/>
+      <c r="J13" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="13"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="8" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="16"/>
+      <c r="F14" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="8" t="s">
         <v>36</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="16"/>
+      <c r="F15" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="16"/>
+      <c r="F16" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="8" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="16"/>
-      <c r="H17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="16"/>
+      <c r="F17" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F18" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="16"/>
+      <c r="F18" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="8" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="16"/>
-      <c r="H19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="16"/>
+      <c r="F19" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="13"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="16"/>
+      <c r="F20" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="13"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="8" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16"/>
+      <c r="F21" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="8" t="s">
         <v>63</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="16"/>
-      <c r="H22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="16"/>
+      <c r="F22" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="K22" s="13"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="8" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="6" t="b">
+      <c r="F23" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G23" s="17"/>
-      <c r="H23" s="6" t="b">
+      <c r="H23" s="16" t="b">
         <v>0</v>
       </c>
       <c r="I23" s="17"/>
-      <c r="J23" s="6" t="b">
+      <c r="J23" s="16" t="b">
         <v>0</v>
       </c>
       <c r="K23" s="17"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="6" t="b">
+      <c r="F24" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G24" s="17"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="16"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="16"/>
       <c r="K24" s="17"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="8" t="s">
         <v>78</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="6" t="b">
+      <c r="F25" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="16"/>
       <c r="K25" s="17"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="8" t="s">
         <v>80</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="6" t="b">
+      <c r="F26" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="16"/>
       <c r="K26" s="17"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="8" t="s">
         <v>83</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="6" t="b">
+      <c r="F27" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G27" s="17"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="16"/>
       <c r="K27" s="17"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="8" t="s">
         <v>83</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="6" t="b">
+      <c r="F28" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G28" s="17"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="16"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="16"/>
       <c r="K28" s="17"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="6" t="b">
+      <c r="F29" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G29" s="17"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="16"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="16"/>
       <c r="K29" s="17"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="8" t="s">
         <v>92</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F30" s="6" t="b">
+      <c r="F30" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G30" s="17"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="16"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="16"/>
       <c r="K30" s="17"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="6" t="b">
+      <c r="F31" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G31" s="17"/>
-      <c r="H31" s="6"/>
+      <c r="H31" s="16"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="6"/>
+      <c r="J31" s="16"/>
       <c r="K31" s="17"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="6" t="b">
+      <c r="F32" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="6"/>
+      <c r="H32" s="16"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="6"/>
+      <c r="J32" s="16"/>
       <c r="K32" s="17"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F33" s="6" t="b">
+      <c r="F33" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G33" s="17"/>
-      <c r="H33" s="6"/>
+      <c r="H33" s="16"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="6"/>
+      <c r="J33" s="16"/>
       <c r="K33" s="17"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="8" t="s">
         <v>99</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="6" t="b">
+      <c r="F34" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G34" s="17"/>
-      <c r="H34" s="6"/>
+      <c r="H34" s="16"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="6"/>
+      <c r="J34" s="16"/>
       <c r="K34" s="17"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
+    <row r="35" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B35" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="17"/>
-      <c r="H35" s="6"/>
+      <c r="F35" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H35" s="16"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="6"/>
+      <c r="J35" s="16"/>
       <c r="K35" s="17"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="8" t="s">
         <v>105</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="6" t="b">
+      <c r="F36" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G36" s="17"/>
-      <c r="H36" s="6"/>
+      <c r="H36" s="16"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="6"/>
+      <c r="J36" s="16"/>
       <c r="K36" s="17"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="8" t="s">
         <v>108</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="6" t="b">
+      <c r="F37" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G37" s="17"/>
-      <c r="H37" s="6"/>
+      <c r="H37" s="16"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="6"/>
+      <c r="J37" s="16"/>
       <c r="K37" s="17"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="8" t="s">
         <v>111</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F38" s="6" t="b">
+      <c r="F38" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G38" s="17"/>
-      <c r="H38" s="6"/>
+      <c r="H38" s="16"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="6"/>
+      <c r="J38" s="16"/>
       <c r="K38" s="17"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="8" t="s">
         <v>114</v>
       </c>
       <c r="E39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="6" t="b">
+      <c r="F39" s="16" t="b">
         <v>1</v>
       </c>
       <c r="G39" s="17"/>
-      <c r="H39" s="6"/>
+      <c r="H39" s="16"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="6"/>
+      <c r="J39" s="16"/>
       <c r="K39" s="17"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B40" s="1"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Documentation\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F5B01E-26D8-4E22-97F3-B30F948520E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D5F078-0B44-49CE-B67D-DAAB06808E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
   <si>
     <t>O'Mahony Pike Dublin</t>
   </si>
@@ -384,6 +384,9 @@
   </si>
   <si>
     <t>"We do not engage in surveys of this nature"</t>
+  </si>
+  <si>
+    <t>Positive response, email has been forwarded to relevant department for proper attention</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +436,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -622,6 +631,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -977,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
   <dimension ref="B1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1603,7 +1623,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B26" s="6" t="s">
         <v>85</v>
       </c>
@@ -1619,7 +1639,9 @@
       <c r="F26" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="G26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>116</v>
+      </c>
       <c r="H26" s="16"/>
       <c r="I26" s="17"/>
       <c r="J26" s="16"/>
@@ -1820,10 +1842,10 @@
       <c r="G35" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="17"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="6" t="s">

--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Documentation\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D5F078-0B44-49CE-B67D-DAAB06808E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207726FC-F793-4BA7-ABB1-64D2AD6D7024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Survey contact" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +35,67 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Anais Blenet</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{7A17A61A-8378-4F37-B1A4-81FFF18F206A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anais Blenet:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sent on Monday 28 &amp; Tuesday 29/10/2024
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{204FB4FA-E96B-46E0-B380-558383386AB3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Anais Blenet:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+sent on 31/10/2024</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="117">
   <si>
     <t>O'Mahony Pike Dublin</t>
   </si>
@@ -239,9 +298,6 @@
     <t>+353868298706</t>
   </si>
   <si>
-    <t>Survey Contact</t>
-  </si>
-  <si>
     <t>1st email</t>
   </si>
   <si>
@@ -387,13 +443,16 @@
   </si>
   <si>
     <t>Positive response, email has been forwarded to relevant department for proper attention</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -418,12 +477,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -562,9 +626,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -642,6 +705,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -994,18 +1063,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
-  <dimension ref="B1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
+  <dimension ref="B1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
     <col min="2" max="2" width="46.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
@@ -1014,953 +1086,1041 @@
     <col min="11" max="11" width="32.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+      <c r="H11" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10" t="b">
+      <c r="F12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10" t="b">
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12" t="b">
+      <c r="F14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="12" t="b">
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14" t="b">
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="14" t="b">
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12" t="b">
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="12" t="b">
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="12"/>
+      <c r="J19" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="12" t="b">
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="12" t="b">
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13"/>
-      <c r="J10" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="H13" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="13"/>
-      <c r="J14" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13"/>
-      <c r="J19" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="13"/>
-      <c r="H22" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K22" s="13"/>
+      <c r="C22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="16"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="B23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="17"/>
+      <c r="F23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="17"/>
-    </row>
-    <row r="26" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
+      <c r="B25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="17"/>
+      <c r="D26" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="16"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B27" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="17"/>
+      <c r="B27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="16"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="17"/>
+      <c r="B28" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="16"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="17"/>
+      <c r="E29" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="16"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
+      <c r="C30" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="16"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="17"/>
+      <c r="B31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="16"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B32" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="17"/>
+      <c r="C32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B33" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="18"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B34" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="17"/>
-    </row>
-    <row r="35" spans="2:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="B35" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D35" s="8" t="s">
+      <c r="B34" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="20"/>
+      <c r="C34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="16"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="16"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="16"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B36" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="17"/>
+      <c r="B36" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="16"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B37" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="17"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
+      <c r="B37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B38" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="16" t="b">
-        <v>1</v>
-      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="17"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="17"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="17"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{6A2820EB-51E8-43AE-B6D1-21E9F583390C}"/>
-    <hyperlink ref="C7" r:id="rId2" xr:uid="{DC5457CA-8319-4A7F-A1F2-46E085F48996}"/>
-    <hyperlink ref="C16" r:id="rId3" xr:uid="{84589412-EC92-4A4F-B234-9CDBD7EE2233}"/>
-    <hyperlink ref="C20" r:id="rId4" xr:uid="{59E4998A-642C-4750-A0E5-41D8A136C58F}"/>
-    <hyperlink ref="C25" r:id="rId5" xr:uid="{1CC2B260-7198-4FF4-AD7C-505DD9CACD01}"/>
-    <hyperlink ref="C22" r:id="rId6" xr:uid="{E2A6E4AA-BDBC-49F9-9B4E-066CB02688EF}"/>
-    <hyperlink ref="C28" r:id="rId7" xr:uid="{53861621-E8DE-42E6-AFA7-9D2273A385B6}"/>
-    <hyperlink ref="C30" r:id="rId8" xr:uid="{FD1EFA78-5EAC-4F82-98A2-2635F2F9158E}"/>
-    <hyperlink ref="C31" r:id="rId9" xr:uid="{D5F2B9E0-0AC2-4F5C-A68E-B3B50DAECAB5}"/>
-    <hyperlink ref="C36" r:id="rId10" xr:uid="{6561EF92-F0A8-4740-88F2-8E1E885B8FC1}"/>
-    <hyperlink ref="C24" r:id="rId11" xr:uid="{736BB623-6FC1-439A-9179-EF09E3959C88}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{6A2820EB-51E8-43AE-B6D1-21E9F583390C}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{DC5457CA-8319-4A7F-A1F2-46E085F48996}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{84589412-EC92-4A4F-B234-9CDBD7EE2233}"/>
+    <hyperlink ref="C18" r:id="rId4" xr:uid="{59E4998A-642C-4750-A0E5-41D8A136C58F}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{1CC2B260-7198-4FF4-AD7C-505DD9CACD01}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{E2A6E4AA-BDBC-49F9-9B4E-066CB02688EF}"/>
+    <hyperlink ref="C26" r:id="rId7" xr:uid="{53861621-E8DE-42E6-AFA7-9D2273A385B6}"/>
+    <hyperlink ref="C28" r:id="rId8" xr:uid="{FD1EFA78-5EAC-4F82-98A2-2635F2F9158E}"/>
+    <hyperlink ref="C29" r:id="rId9" xr:uid="{D5F2B9E0-0AC2-4F5C-A68E-B3B50DAECAB5}"/>
+    <hyperlink ref="C34" r:id="rId10" xr:uid="{6561EF92-F0A8-4740-88F2-8E1E885B8FC1}"/>
+    <hyperlink ref="C22" r:id="rId11" xr:uid="{736BB623-6FC1-439A-9179-EF09E3959C88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Documentation\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207726FC-F793-4BA7-ABB1-64D2AD6D7024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E34529D-C05D-48B7-A58E-E401632C1EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
   <sheets>
-    <sheet name="Survey contact" sheetId="1" r:id="rId1"/>
+    <sheet name="Survey contact general" sheetId="1" r:id="rId1"/>
+    <sheet name="Survey contact councillors" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +62,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-sent on Monday 28 &amp; Tuesday 29/10/2024
+sent on Monday 28 &amp; Tuesday 29/10/2024 (blue) and Thursday 31/10/2024 (green)
 </t>
         </r>
       </text>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="486">
   <si>
     <t>O'Mahony Pike Dublin</t>
   </si>
@@ -446,6 +447,1113 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Offaly County Council - General</t>
+  </si>
+  <si>
+    <t>customerservices@offalycoco.ie</t>
+  </si>
+  <si>
+    <t>+353579346800</t>
+  </si>
+  <si>
+    <t>communications@offalycoco.ie</t>
+  </si>
+  <si>
+    <t>Offaly County Council - Communications</t>
+  </si>
+  <si>
+    <t>birrmd@offalycoco.ie</t>
+  </si>
+  <si>
+    <t>edenderrymd@offalycoco.ie</t>
+  </si>
+  <si>
+    <t>tullamoremd@offalycoco.ie</t>
+  </si>
+  <si>
+    <t>Offaly County Council - Birr Municipal district</t>
+  </si>
+  <si>
+    <t>Offaly County Council - Edenderry Municipal district</t>
+  </si>
+  <si>
+    <t>Offaly County Council - Tullamore Municipal district</t>
+  </si>
+  <si>
+    <t>+353579124900</t>
+  </si>
+  <si>
+    <t>+353469731256</t>
+  </si>
+  <si>
+    <t>+353579352470</t>
+  </si>
+  <si>
+    <t>planning@offalycoco.ie</t>
+  </si>
+  <si>
+    <t>Offaly County Council - Planning</t>
+  </si>
+  <si>
+    <t>+353579357414</t>
+  </si>
+  <si>
+    <t>Tipperary County Councellors - Andy Moloney</t>
+  </si>
+  <si>
+    <t>andy.moloney@cllr.tipperarycoco.ie</t>
+  </si>
+  <si>
+    <t>+353863609110</t>
+  </si>
+  <si>
+    <t>david.dunne@cllr.tipperarycoco.ie</t>
+  </si>
+  <si>
+    <t>+353863476317</t>
+  </si>
+  <si>
+    <t>Tipperary County Councellors - David Dunne</t>
+  </si>
+  <si>
+    <t>annemarie.ryanshiner@cllr.tipperarycoco.ie</t>
+  </si>
+  <si>
+    <t>Tipperary County Councellors - Anne Marie Ryan (Shiner)</t>
+  </si>
+  <si>
+    <t>+353873802825</t>
+  </si>
+  <si>
+    <t>declan.burgess@cllr.tipperarycoco.ie</t>
+  </si>
+  <si>
+    <t>Tipperary County Councellors - Declan Burgess</t>
+  </si>
+  <si>
+    <t>+353867330454</t>
+  </si>
+  <si>
+    <t>phyll.bugler@cllr.tipperarycoco.ie</t>
+  </si>
+  <si>
+    <t>+353872807655</t>
+  </si>
+  <si>
+    <t>Tipperary County Councellors - Dr Phyll Bugler</t>
+  </si>
+  <si>
+    <t>eddie.moran@cllr.tipperarycoco.ie</t>
+  </si>
+  <si>
+    <t>+353862484363</t>
+  </si>
+  <si>
+    <t>Tipperary County Councellors - Eddie Moran</t>
+  </si>
+  <si>
+    <t>fiona.bonfield@cllr.tipperarycoco.ie</t>
+  </si>
+  <si>
+    <t>+353861670863</t>
+  </si>
+  <si>
+    <t>Tipperary County Councellors - Fiona Bonfield</t>
+  </si>
+  <si>
+    <t>imelda.goldsboro@cllr.tipperarycoco.ie</t>
+  </si>
+  <si>
+    <t>+353872444819</t>
+  </si>
+  <si>
+    <t>Tipperary County Councellors - Imelda Goldsboro</t>
+  </si>
+  <si>
+    <t>jim.ryan@cllr.tipperarycoco.ie</t>
+  </si>
+  <si>
+    <t>+353877043785</t>
+  </si>
+  <si>
+    <t>Tipperary County Councellors - Jim Ryan</t>
+  </si>
+  <si>
+    <t>joe.hannigan@cllr.tipperarycoco.ie</t>
+  </si>
+  <si>
+    <t>+353872566157</t>
+  </si>
+  <si>
+    <t>Tipperary County Councellors - Joe Hannigan</t>
+  </si>
+  <si>
+    <t>john.carroll@cllr.tipperarycoco.ie</t>
+  </si>
+  <si>
+    <t>+353868041893</t>
+  </si>
+  <si>
+    <t>Tipperary County Councellors - John Carroll</t>
+  </si>
+  <si>
+    <t>john.crosse@cllr.tipperarycoco.ie</t>
+  </si>
+  <si>
+    <t>+353879165851</t>
+  </si>
+  <si>
+    <t>Tipperary County Councellors - John Crosse</t>
+  </si>
+  <si>
+    <t>Kilkenny County Council - County Hall</t>
+  </si>
+  <si>
+    <t>secretar@kilkennycoco.ie</t>
+  </si>
+  <si>
+    <t>+353567794000</t>
+  </si>
+  <si>
+    <t>Kilkenny County Council - Community &amp; Enterprise</t>
+  </si>
+  <si>
+    <t>info@kilkennycdb.ie</t>
+  </si>
+  <si>
+    <t>+353567794920</t>
+  </si>
+  <si>
+    <t>Kilkenny County Council - Environment</t>
+  </si>
+  <si>
+    <t>environment@kilkennycoco.ie</t>
+  </si>
+  <si>
+    <t>+353567794470</t>
+  </si>
+  <si>
+    <t>Kilkenny County Council - HR</t>
+  </si>
+  <si>
+    <t>hr@kilkennycoco.ie</t>
+  </si>
+  <si>
+    <t>+353567794155</t>
+  </si>
+  <si>
+    <t>planning@kilkennycoco.ie</t>
+  </si>
+  <si>
+    <t>Kilkenny County Council - Planning</t>
+  </si>
+  <si>
+    <t>+353567794010</t>
+  </si>
+  <si>
+    <t>Wexford County Council - General</t>
+  </si>
+  <si>
+    <t>customerservice@wexfordcoco.ie</t>
+  </si>
+  <si>
+    <t>+353539196000</t>
+  </si>
+  <si>
+    <t>planning@wexfordcoco.ie</t>
+  </si>
+  <si>
+    <t>Wexford County Council - Planning</t>
+  </si>
+  <si>
+    <t>+353539196101</t>
+  </si>
+  <si>
+    <t>pip.breen@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353868139817</t>
+  </si>
+  <si>
+    <t>ger.carthy@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353876255934</t>
+  </si>
+  <si>
+    <t>patrick.barden@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353862658175</t>
+  </si>
+  <si>
+    <t>nicky.boland@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353861578885</t>
+  </si>
+  <si>
+    <t>aidan.browne@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353877753097</t>
+  </si>
+  <si>
+    <t>cathal.byrne@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353539270018</t>
+  </si>
+  <si>
+    <t>jim.codd@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353876107083</t>
+  </si>
+  <si>
+    <t>anthony.donohoe@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353877736083</t>
+  </si>
+  <si>
+    <t>john.dwyer@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353872969065</t>
+  </si>
+  <si>
+    <t>mary.farrell@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353872740679</t>
+  </si>
+  <si>
+    <t>john.fleming@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353872036069</t>
+  </si>
+  <si>
+    <t>tom.forde@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353858421627</t>
+  </si>
+  <si>
+    <t>paddy.kavanagh@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353872785273</t>
+  </si>
+  <si>
+    <t>pat.kehoe@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353876683067</t>
+  </si>
+  <si>
+    <t>leonard.kelly@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353872419069</t>
+  </si>
+  <si>
+    <t>donal.kenny@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353872453187</t>
+  </si>
+  <si>
+    <t>garry.laffan@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353877878417</t>
+  </si>
+  <si>
+    <t>george.lawlor@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353868164128</t>
+  </si>
+  <si>
+    <t>darragh.mcdonald@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353833350462</t>
+  </si>
+  <si>
+    <t>lisa.mcdonald@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353879184034</t>
+  </si>
+  <si>
+    <t>bamurphy@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353876736966</t>
+  </si>
+  <si>
+    <t>bridin.murphy@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353877881963</t>
+  </si>
+  <si>
+    <t>marty.murphy@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353876550127</t>
+  </si>
+  <si>
+    <t>fionntan.osuilleabhain@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353876013877</t>
+  </si>
+  <si>
+    <t>aoiferose.obrien@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353897012429</t>
+  </si>
+  <si>
+    <t>john.orourke@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353868420609</t>
+  </si>
+  <si>
+    <t>jackser.owens@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353876989033</t>
+  </si>
+  <si>
+    <t>raymond.shannon@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353851499629</t>
+  </si>
+  <si>
+    <t>michael.sheehan@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353851349020</t>
+  </si>
+  <si>
+    <t>frank.staples@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353862305050</t>
+  </si>
+  <si>
+    <t>robbie.staples@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353851955292</t>
+  </si>
+  <si>
+    <t>joe.sullivan@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353872416375</t>
+  </si>
+  <si>
+    <t>catherine.walsh@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353866086560</t>
+  </si>
+  <si>
+    <t>oliver.walsh@wexfordmcc.ie</t>
+  </si>
+  <si>
+    <t>+353876322667</t>
+  </si>
+  <si>
+    <t>breege.cosgrave@wexfordcoco.ie</t>
+  </si>
+  <si>
+    <t>Wexford County Council - Head of Enterprise &amp; Eco Dev</t>
+  </si>
+  <si>
+    <t>+353539196023</t>
+  </si>
+  <si>
+    <t>angela.lawless@wexfordcoco.ie</t>
+  </si>
+  <si>
+    <t>Wexford County Council - EDO</t>
+  </si>
+  <si>
+    <t>+353539196558</t>
+  </si>
+  <si>
+    <t>billy.byrne@wexfordcoco.ie</t>
+  </si>
+  <si>
+    <t>Wexford County Council - Tourism Dev Officer</t>
+  </si>
+  <si>
+    <t>+353539196556</t>
+  </si>
+  <si>
+    <t>Wexford County Council - Communications</t>
+  </si>
+  <si>
+    <t>communications@wexfordcoco.ie</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>Tipperary</t>
+  </si>
+  <si>
+    <t>Wexford</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Pip Breen</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Ger Carthy</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Pat Barden</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Nicky Boland</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Aidan Browne</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Cathal Byrne</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Jim Codd</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Anthony Donohoe</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - John Dwyer</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Mary Farrell</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - John Flemming</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Tom Forde</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Paddy Kavanagh</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Pat Kehoe</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Leonard Kelly</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Donal Kenny</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Garry Laffan</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - George Lawlor</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Darragh McDonald</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Lisa McDonald</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Barbara Anne Murphy</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Bridin Murphy</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Marty Murphy</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Fionntàn Ò Sùilleabhàin</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Aoife Rose O'Brien</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - John O'Rourke</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Jackser Owens</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Raymond Shannon</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Michael Sheehan</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Frank Staples</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Robbie Staples</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Joe Sullivan</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Catherine Biddy Walsh</t>
+  </si>
+  <si>
+    <t>Wexford County Councellors - Oliver Walsh</t>
+  </si>
+  <si>
+    <t>caroline.horan@wexfordcoco.ie</t>
+  </si>
+  <si>
+    <t>+35353 9196387</t>
+  </si>
+  <si>
+    <t>Wexford County Council - Accessibility 1</t>
+  </si>
+  <si>
+    <t>Wexford County Council - Accessibility 2</t>
+  </si>
+  <si>
+    <t>michael.drea@wexfordcoco.ie</t>
+  </si>
+  <si>
+    <t>Kerry County Council - General</t>
+  </si>
+  <si>
+    <t>info@kerrycoco.ie</t>
+  </si>
+  <si>
+    <t>+353667183500</t>
+  </si>
+  <si>
+    <t>Kerry County Council - Planning</t>
+  </si>
+  <si>
+    <t>Kerry County Council - Operations</t>
+  </si>
+  <si>
+    <t>Kerry County Council - Press office</t>
+  </si>
+  <si>
+    <t>plan@kerrycoco.ie</t>
+  </si>
+  <si>
+    <t>roads@kerrycoco.ie</t>
+  </si>
+  <si>
+    <t>pressofficer@kerrycoco.ie</t>
+  </si>
+  <si>
+    <t>+353667183582</t>
+  </si>
+  <si>
+    <t>+353667183588</t>
+  </si>
+  <si>
+    <t>+353667183826</t>
+  </si>
+  <si>
+    <t>Kerry County Council - Districts</t>
+  </si>
+  <si>
+    <t>killorglinao@kerrycoco.ie</t>
+  </si>
+  <si>
+    <t>killarneymunicipaldistrict@kerrycoco.ie</t>
+  </si>
+  <si>
+    <t>listowelao@kerrycoco.ie</t>
+  </si>
+  <si>
+    <t>traleemunicipaldistrict@kerrycoco.ie</t>
+  </si>
+  <si>
+    <t>+353669761123</t>
+  </si>
+  <si>
+    <t>+353646631046</t>
+  </si>
+  <si>
+    <t>+3536821245</t>
+  </si>
+  <si>
+    <t>+353667191300</t>
+  </si>
+  <si>
+    <t>Waterford County Council - General</t>
+  </si>
+  <si>
+    <t>contact@waterfordcouncil.ie</t>
+  </si>
+  <si>
+    <t>+353818102020</t>
+  </si>
+  <si>
+    <t>planning@waterfordcouncil.ie</t>
+  </si>
+  <si>
+    <t>Waterford County Council - Planning</t>
+  </si>
+  <si>
+    <t>Clare County Council - General</t>
+  </si>
+  <si>
+    <t>customerservices@clarecoco.ie</t>
+  </si>
+  <si>
+    <t>+353656821616</t>
+  </si>
+  <si>
+    <t>arts@clarecoco.ie</t>
+  </si>
+  <si>
+    <t>+353656899091</t>
+  </si>
+  <si>
+    <t>pmoadmin@clarecoco.ie</t>
+  </si>
+  <si>
+    <t>Clare County Council - Capital Dept</t>
+  </si>
+  <si>
+    <t>+353656866147</t>
+  </si>
+  <si>
+    <t>Clare County Council - Art Dept</t>
+  </si>
+  <si>
+    <t>ajones@clarecoco.ie</t>
+  </si>
+  <si>
+    <t>Clare County Council - IT Dept</t>
+  </si>
+  <si>
+    <t>planoff@clarecoco.ie</t>
+  </si>
+  <si>
+    <t>Clare County Council - Planning Dept</t>
+  </si>
+  <si>
+    <t>+353656846232</t>
+  </si>
+  <si>
+    <t>enviroff@clarecoco.ie</t>
+  </si>
+  <si>
+    <t>Clare County Council - Environment Dept</t>
+  </si>
+  <si>
+    <t>tourism@clarecoco.ie</t>
+  </si>
+  <si>
+    <t>Clare County Council - Tourism Dept</t>
+  </si>
+  <si>
+    <t>ennismunicipaldistrict@clarecoco.ie</t>
+  </si>
+  <si>
+    <t>killaloemunicipaldistrict@clarecoco.ie</t>
+  </si>
+  <si>
+    <t>+35361640815</t>
+  </si>
+  <si>
+    <t>shannonmunicipaldistrict@clarecoco.ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+35361362319 </t>
+  </si>
+  <si>
+    <t>ennistymon@clarecoco.ie</t>
+  </si>
+  <si>
+    <t>+353657071017</t>
+  </si>
+  <si>
+    <t>westclaremd@clarecoco.ie</t>
+  </si>
+  <si>
+    <t>+353659051047</t>
+  </si>
+  <si>
+    <t>Clare County Council - Districts</t>
+  </si>
+  <si>
+    <t>Limerick County Council - General</t>
+  </si>
+  <si>
+    <t>customerservices@limerick.ie</t>
+  </si>
+  <si>
+    <t>+35361556000</t>
+  </si>
+  <si>
+    <t>Longford County Council - General</t>
+  </si>
+  <si>
+    <t>customerservices@longfordcoco.ie</t>
+  </si>
+  <si>
+    <t>+353433343300</t>
+  </si>
+  <si>
+    <t>Longford County Council - LCDC</t>
+  </si>
+  <si>
+    <t>lcdc@longfordcoco.ie</t>
+  </si>
+  <si>
+    <t>+353433343307</t>
+  </si>
+  <si>
+    <t>hrhumanresources@longfordcoco.ie</t>
+  </si>
+  <si>
+    <t>Longford County Council - HR</t>
+  </si>
+  <si>
+    <t>+353433343396</t>
+  </si>
+  <si>
+    <t>artsoffice@longfordcoco.ie</t>
+  </si>
+  <si>
+    <t>Longford County Council - Arts</t>
+  </si>
+  <si>
+    <t>+353433333410</t>
+  </si>
+  <si>
+    <t>tourism@longfordcoco.ie</t>
+  </si>
+  <si>
+    <t>Longford County Council - Tourism</t>
+  </si>
+  <si>
+    <t>+353433343509</t>
+  </si>
+  <si>
+    <t>planning@longfordcoco.ie</t>
+  </si>
+  <si>
+    <t>Longford County Council - Planning</t>
+  </si>
+  <si>
+    <t>+353433343409</t>
+  </si>
+  <si>
+    <t>Leitrim County Council - General</t>
+  </si>
+  <si>
+    <t>customerservices@leitrimcoco.ie</t>
+  </si>
+  <si>
+    <t>+353719620005</t>
+  </si>
+  <si>
+    <t>info@ldco.ie</t>
+  </si>
+  <si>
+    <t>Leitrim County Council - Economic Development</t>
+  </si>
+  <si>
+    <t>+353719650496</t>
+  </si>
+  <si>
+    <t>jobs@leitrimcoco.ie</t>
+  </si>
+  <si>
+    <t>Leitrim County Council - HR</t>
+  </si>
+  <si>
+    <t>+353719650460</t>
+  </si>
+  <si>
+    <t>info@leitrimtourism.com</t>
+  </si>
+  <si>
+    <t>Leitrim County Council - Tourism</t>
+  </si>
+  <si>
+    <t>+353719623274</t>
+  </si>
+  <si>
+    <t>planning@leitrimcoco.ie</t>
+  </si>
+  <si>
+    <t>Leitrim County Council - Planning</t>
+  </si>
+  <si>
+    <t>+353719650450</t>
+  </si>
+  <si>
+    <t>Cavan County Council - General</t>
+  </si>
+  <si>
+    <t>info@cavancoco.ie</t>
+  </si>
+  <si>
+    <t>+353494378300</t>
+  </si>
+  <si>
+    <t>community@cavancoco.ie</t>
+  </si>
+  <si>
+    <t>Cavan County Council - Community</t>
+  </si>
+  <si>
+    <t>artsoffice@cavancoco.ie</t>
+  </si>
+  <si>
+    <t>Cavan County Council - Arts</t>
+  </si>
+  <si>
+    <t>+353494378548</t>
+  </si>
+  <si>
+    <t>localenterprise@cavancoco.ie</t>
+  </si>
+  <si>
+    <t>Cavan County Council - Economic Dev</t>
+  </si>
+  <si>
+    <t>+353494377200</t>
+  </si>
+  <si>
+    <t>environ@cavancoco.ie</t>
+  </si>
+  <si>
+    <t>Cavan County Council - Environment</t>
+  </si>
+  <si>
+    <t>+353494378486</t>
+  </si>
+  <si>
+    <t>plan@cavancoco.ie</t>
+  </si>
+  <si>
+    <t>Cavan County Council - Planning</t>
+  </si>
+  <si>
+    <t>Louth County Council - General</t>
+  </si>
+  <si>
+    <t>info@louthcoco.ie</t>
+  </si>
+  <si>
+    <t>+353429335457</t>
+  </si>
+  <si>
+    <t>tourism@louthcoco.ie</t>
+  </si>
+  <si>
+    <t>Louth County Council - Tourism</t>
+  </si>
+  <si>
+    <t>planning@louthcoco.ie</t>
+  </si>
+  <si>
+    <t>Louth County Council - Planning</t>
+  </si>
+  <si>
+    <t>dscsupervisors@louthcoco.ie</t>
+  </si>
+  <si>
+    <t>Louth County Council - Sports</t>
+  </si>
+  <si>
+    <t>+353429392897</t>
+  </si>
+  <si>
+    <t>Donegal County Council - General</t>
+  </si>
+  <si>
+    <t>info@donegalcoco.ie</t>
+  </si>
+  <si>
+    <t>+353749153900</t>
+  </si>
+  <si>
+    <t>frances.friel@donegalcoco.ie</t>
+  </si>
+  <si>
+    <t>Donegal County Council - Communications Officer</t>
+  </si>
+  <si>
+    <t>archivist@donegalcoco.ie</t>
+  </si>
+  <si>
+    <t>Donegal County Council - Archives</t>
+  </si>
+  <si>
+    <t>suzanneBogan@donegalcoco.ie</t>
+  </si>
+  <si>
+    <t>Donegal County Council - Environment</t>
+  </si>
+  <si>
+    <t>Cork County Council - General</t>
+  </si>
+  <si>
+    <t>customercare@corkcoco.ie</t>
+  </si>
+  <si>
+    <t>+353214276891</t>
+  </si>
+  <si>
+    <t>planninginfo@corkcoco.ie</t>
+  </si>
+  <si>
+    <t>Cork County Council - Planning</t>
+  </si>
+  <si>
+    <t>communications.office@corkcoco.ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cork County Council - Communications </t>
+  </si>
+  <si>
+    <t>+353214285452</t>
+  </si>
+  <si>
+    <t>westcorkmd@corkcoco.ie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cork County Council - Districts </t>
+  </si>
+  <si>
+    <t>+353238833380</t>
+  </si>
+  <si>
+    <t>bandonkinsalemd@corkcoco.ie</t>
+  </si>
+  <si>
+    <t>+353214772154</t>
+  </si>
+  <si>
+    <t>carrigalinemd@corkcoco.ie</t>
+  </si>
+  <si>
+    <t>cobhmd@corkcoco.ie</t>
+  </si>
+  <si>
+    <t>+353214811307</t>
+  </si>
+  <si>
+    <t>eastcorkmd@corkcoco.ie</t>
+  </si>
+  <si>
+    <t>+3532492926</t>
+  </si>
+  <si>
+    <t>fermoymd@corkcoco.ie</t>
+  </si>
+  <si>
+    <t>+3532531155</t>
+  </si>
+  <si>
+    <t>kanturkmallow.md@corkcoco.ie</t>
+  </si>
+  <si>
+    <t>+3532221123</t>
+  </si>
+  <si>
+    <t>macroommd@corkcoco.ie</t>
+  </si>
+  <si>
+    <t>+3532641545</t>
+  </si>
+  <si>
+    <t>Galway County Council - General</t>
+  </si>
+  <si>
+    <t>customerservices@galwaycoco.ie</t>
+  </si>
+  <si>
+    <t>+35391509000</t>
+  </si>
+  <si>
+    <t>planning@galwaycoco.ie</t>
+  </si>
+  <si>
+    <t>+35391509043</t>
+  </si>
+  <si>
+    <t>Galway County Council - Planning</t>
+  </si>
+  <si>
+    <t>Environment@galwaycoco.ie</t>
+  </si>
+  <si>
+    <t>Galway County Council - Environment</t>
+  </si>
+  <si>
+    <t>roads@galwaycoco.ie</t>
+  </si>
+  <si>
+    <t>Galway County Council - Roads</t>
+  </si>
+  <si>
+    <t>+35391509309</t>
+  </si>
+  <si>
+    <t>communitygrants@galwaycoco.ie</t>
+  </si>
+  <si>
+    <t>+35391509521</t>
+  </si>
+  <si>
+    <t>Galway County Council - Community</t>
+  </si>
+  <si>
+    <t>mayoarts@mayococo.ie</t>
+  </si>
+  <si>
+    <t>+353949064000</t>
+  </si>
+  <si>
+    <t>Environment@mayococo.ie</t>
+  </si>
+  <si>
+    <t>Planning@mayococo.ie</t>
+  </si>
+  <si>
+    <t>+353949047204</t>
+  </si>
+  <si>
+    <t>Mayo County Council - Arts</t>
+  </si>
+  <si>
+    <t>Mayo County Council - Environment</t>
+  </si>
+  <si>
+    <t>Mayo County Council - Planning</t>
+  </si>
+  <si>
+    <t>Sligo County Council - General</t>
+  </si>
+  <si>
+    <t>info@sligococo.ie</t>
+  </si>
+  <si>
+    <t>+353719111111</t>
   </si>
 </sst>
 </file>
@@ -490,7 +1598,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +1614,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,7 +1746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -647,39 +1767,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -706,12 +1793,99 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1064,18 +2238,6787 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
-  <dimension ref="B1:K38"/>
+  <dimension ref="B1:K456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.54296875" customWidth="1"/>
     <col min="2" max="2" width="46.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="21"/>
+      <c r="J2" s="19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="21"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H3" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H4" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="23"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="23"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K8" s="23"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J9" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K9" s="23"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K10" s="23"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K11" s="23"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K12" s="23"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K13" s="23"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B14" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K14" s="23"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K15" s="23"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B16" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K16" s="23"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H19" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="23"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="K20" s="23"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" s="27"/>
+      <c r="J21" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="27"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="27"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="27"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" s="27"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="13"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B25" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" s="27"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="27"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H26" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" s="27"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B27" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" s="27"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="27"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B28" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" s="27"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="27"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" s="27"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="27"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" s="27"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="27"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H31" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" s="27"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="27"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" s="27"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="27"/>
+    </row>
+    <row r="33" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="13"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="27"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="27"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="27"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="27"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="27"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="27"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="27"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="27"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B38" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="33"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="35"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B39" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="35"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B40" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="35"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B41" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="35"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B42" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="35"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B43" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="33"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="35"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B44" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="33"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="35"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B45" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="33"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="35"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B46" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="33"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="35"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B47" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="33"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="35"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B48" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="33"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="35"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="33"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="35"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B50" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>188</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>190</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="33"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="35"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B51" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>259</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F51" s="33"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="35"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B52" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52" s="33"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="35"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B53" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="E53" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53" s="33"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="35"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B54" s="29" t="s">
+        <v>268</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" s="33"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="35"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B55" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E55" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="33"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="35"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B56" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="35"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B57" s="29" t="s">
+        <v>312</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="33"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="35"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B58" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="E58" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F58" s="33"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="35"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B59" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="E59" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" s="33"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="35"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B60" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="E60" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="33"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="33"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="35"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B61" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>329</v>
+      </c>
+      <c r="E61" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F61" s="33"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="33"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="35"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B62" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="D62" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="33"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="33"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="35"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B63" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>331</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F63" s="33"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="35"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B64" s="29" t="s">
+        <v>324</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>328</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F64" s="33"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="33"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="35"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B65" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F65" s="33"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="33"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="35"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B66" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D66" s="14"/>
+      <c r="E66" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="33"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="35"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B67" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D67" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" s="33"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="35"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B68" s="29" t="s">
+        <v>346</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>341</v>
+      </c>
+      <c r="D68" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="33"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="35"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B69" s="29" t="s">
+        <v>344</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="D69" s="31" t="s">
+        <v>345</v>
+      </c>
+      <c r="E69" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="33"/>
+      <c r="G69" s="34"/>
+      <c r="H69" s="33"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="35"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B70" s="29" t="s">
+        <v>348</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="D70" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E70" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" s="33"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="33"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="35"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B71" s="29" t="s">
+        <v>350</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="D71" s="31" t="s">
+        <v>351</v>
+      </c>
+      <c r="E71" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" s="33"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="35"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B72" s="29" t="s">
+        <v>353</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="33"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="35"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B73" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>354</v>
+      </c>
+      <c r="D73" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E73" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" s="33"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="33"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="35"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B74" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="D74" s="31" t="s">
+        <v>340</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F74" s="33"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="35"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B75" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>357</v>
+      </c>
+      <c r="D75" s="31" t="s">
+        <v>358</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F75" s="33"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="35"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B76" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="D76" s="31" t="s">
+        <v>360</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" s="33"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="33"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="35"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B77" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="D77" s="31" t="s">
+        <v>362</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" s="33"/>
+      <c r="G77" s="34"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="35"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B78" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>364</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="33"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="35"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B79" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="D79" s="31" t="s">
+        <v>368</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F79" s="33"/>
+      <c r="G79" s="34"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="35"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B80" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="D80" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F80" s="33"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="33"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="35"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B81" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D81" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" s="33"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="33"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="35"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B82" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D82" s="31" t="s">
+        <v>377</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" s="33"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="33"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="35"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B83" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>378</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F83" s="33"/>
+      <c r="G83" s="34"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="35"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B84" s="29" t="s">
+        <v>382</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F84" s="33"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="35"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B85" s="29" t="s">
+        <v>385</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>384</v>
+      </c>
+      <c r="D85" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F85" s="33"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="33"/>
+      <c r="I85" s="35"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="35"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B86" s="29" t="s">
+        <v>387</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>388</v>
+      </c>
+      <c r="D86" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="E86" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F86" s="33"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="35"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B87" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>390</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="33"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="33"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="35"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B88" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>393</v>
+      </c>
+      <c r="D88" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="E88" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="33"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="33"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="35"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B89" s="29" t="s">
+        <v>397</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="D89" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89" s="33"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="33"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="35"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B90" s="29" t="s">
+        <v>400</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>399</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F90" s="33"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="35"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B91" s="29" t="s">
+        <v>402</v>
+      </c>
+      <c r="C91" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="E91" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F91" s="33"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="33"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="35"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B92" s="29" t="s">
+        <v>406</v>
+      </c>
+      <c r="C92" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="E92" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F92" s="33"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="33"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="35"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B93" s="29" t="s">
+        <v>408</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>407</v>
+      </c>
+      <c r="D93" s="31" t="s">
+        <v>409</v>
+      </c>
+      <c r="E93" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F93" s="33"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="33"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="35"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B94" s="29" t="s">
+        <v>411</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="D94" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="E94" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F94" s="33"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="33"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="35"/>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B95" s="29" t="s">
+        <v>414</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="E95" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F95" s="33"/>
+      <c r="G95" s="34"/>
+      <c r="H95" s="33"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="35"/>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B96" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="C96" s="30" t="s">
+        <v>416</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="E96" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F96" s="33"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="33"/>
+      <c r="I96" s="35"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="35"/>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B97" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="C97" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="E97" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F97" s="33"/>
+      <c r="G97" s="34"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="35"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="35"/>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B98" s="29" t="s">
+        <v>422</v>
+      </c>
+      <c r="C98" s="30" t="s">
+        <v>421</v>
+      </c>
+      <c r="D98" s="14"/>
+      <c r="E98" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F98" s="33"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="33"/>
+      <c r="I98" s="35"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="35"/>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B99" s="29" t="s">
+        <v>424</v>
+      </c>
+      <c r="C99" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D99" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="E99" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F99" s="33"/>
+      <c r="G99" s="34"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="35"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="35"/>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B100" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>427</v>
+      </c>
+      <c r="E100" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F100" s="33"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="35"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="35"/>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B101" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="C101" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F101" s="33"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="33"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="35"/>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B102" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="C102" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="E102" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F102" s="33"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="33"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="35"/>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B103" s="29" t="s">
+        <v>434</v>
+      </c>
+      <c r="C103" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F103" s="33"/>
+      <c r="G103" s="34"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="35"/>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B104" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>435</v>
+      </c>
+      <c r="D104" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="E104" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F104" s="33"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="33"/>
+      <c r="I104" s="35"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="35"/>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B105" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="C105" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="D105" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F105" s="33"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="33"/>
+      <c r="I105" s="35"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="35"/>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B106" s="29" t="s">
+        <v>441</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>440</v>
+      </c>
+      <c r="D106" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F106" s="33"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="33"/>
+      <c r="I106" s="35"/>
+      <c r="J106" s="33"/>
+      <c r="K106" s="35"/>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B107" s="29" t="s">
+        <v>443</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>442</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>444</v>
+      </c>
+      <c r="E107" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F107" s="33"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="33"/>
+      <c r="I107" s="35"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="35"/>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B108" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>445</v>
+      </c>
+      <c r="D108" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F108" s="33"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="33"/>
+      <c r="I108" s="35"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="35"/>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B109" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C109" s="30" t="s">
+        <v>448</v>
+      </c>
+      <c r="D109" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F109" s="33"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="33"/>
+      <c r="I109" s="35"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="35"/>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B110" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F110" s="33"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="33"/>
+      <c r="I110" s="35"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="35"/>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B111" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="D111" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F111" s="33"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="33"/>
+      <c r="I111" s="35"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="35"/>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B112" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F112" s="33"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="33"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="35"/>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B113" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>455</v>
+      </c>
+      <c r="D113" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="E113" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F113" s="33"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="33"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="35"/>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B114" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="D114" s="31" t="s">
+        <v>458</v>
+      </c>
+      <c r="E114" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F114" s="33"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="35"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="35"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B115" s="29" t="s">
+        <v>446</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="D115" s="31" t="s">
+        <v>460</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F115" s="33"/>
+      <c r="G115" s="34"/>
+      <c r="H115" s="33"/>
+      <c r="I115" s="35"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="35"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B116" s="29" t="s">
+        <v>461</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="D116" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="E116" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F116" s="33"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="33"/>
+      <c r="I116" s="35"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="35"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B117" s="29" t="s">
+        <v>466</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="E117" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F117" s="33"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="33"/>
+      <c r="I117" s="35"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="35"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B118" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>467</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="E118" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F118" s="33"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="33"/>
+      <c r="I118" s="35"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="35"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B119" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="E119" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F119" s="33"/>
+      <c r="G119" s="34"/>
+      <c r="H119" s="33"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="35"/>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B120" s="29" t="s">
+        <v>474</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>472</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>473</v>
+      </c>
+      <c r="E120" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F120" s="33"/>
+      <c r="G120" s="34"/>
+      <c r="H120" s="33"/>
+      <c r="I120" s="35"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="35"/>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B121" s="29" t="s">
+        <v>480</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>475</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F121" s="33"/>
+      <c r="G121" s="34"/>
+      <c r="H121" s="33"/>
+      <c r="I121" s="35"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="35"/>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B122" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>476</v>
+      </c>
+      <c r="E122" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F122" s="33"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="35"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="35"/>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B123" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>478</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>479</v>
+      </c>
+      <c r="E123" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F123" s="33"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="33"/>
+      <c r="I123" s="35"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="35"/>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B124" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="D124" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="E124" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F124" s="33"/>
+      <c r="G124" s="34"/>
+      <c r="H124" s="33"/>
+      <c r="I124" s="35"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="35"/>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B125" s="5"/>
+      <c r="C125" s="6"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="8"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="10"/>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B126" s="5"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="10"/>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B127" s="5"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="10"/>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B128" s="5"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="10"/>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B129" s="5"/>
+      <c r="C129" s="6"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="10"/>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B130" s="5"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="10"/>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B131" s="5"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="11"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="10"/>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B132" s="5"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="11"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="10"/>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="9"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="9"/>
+      <c r="K133" s="10"/>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B134" s="5"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="9"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="9"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="9"/>
+      <c r="K134" s="10"/>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B135" s="5"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="9"/>
+      <c r="G135" s="11"/>
+      <c r="H135" s="9"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="9"/>
+      <c r="K135" s="10"/>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B136" s="5"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="11"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="10"/>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B137" s="5"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="10"/>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B138" s="5"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="9"/>
+      <c r="G138" s="11"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="9"/>
+      <c r="K138" s="10"/>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B139" s="5"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="9"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="9"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="9"/>
+      <c r="K139" s="10"/>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B140" s="5"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="9"/>
+      <c r="K140" s="10"/>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B141" s="5"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="9"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="10"/>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B142" s="5"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="11"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="10"/>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B143" s="5"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="9"/>
+      <c r="G143" s="11"/>
+      <c r="H143" s="9"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="9"/>
+      <c r="K143" s="10"/>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B144" s="5"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="9"/>
+      <c r="K144" s="10"/>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B145" s="5"/>
+      <c r="C145" s="6"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="9"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="9"/>
+      <c r="K145" s="10"/>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B146" s="5"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="11"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="10"/>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B147" s="5"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="9"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="9"/>
+      <c r="K147" s="10"/>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B148" s="5"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="8"/>
+      <c r="F148" s="9"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="9"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="9"/>
+      <c r="K148" s="10"/>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B149" s="5"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="9"/>
+      <c r="G149" s="11"/>
+      <c r="H149" s="9"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="9"/>
+      <c r="K149" s="10"/>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B150" s="5"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="8"/>
+      <c r="F150" s="9"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="9"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="9"/>
+      <c r="K150" s="10"/>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B151" s="5"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="9"/>
+      <c r="G151" s="11"/>
+      <c r="H151" s="9"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="9"/>
+      <c r="K151" s="10"/>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B152" s="5"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="8"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="9"/>
+      <c r="K152" s="10"/>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B153" s="5"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="8"/>
+      <c r="F153" s="9"/>
+      <c r="G153" s="11"/>
+      <c r="H153" s="9"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="9"/>
+      <c r="K153" s="10"/>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B154" s="5"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="8"/>
+      <c r="F154" s="9"/>
+      <c r="G154" s="11"/>
+      <c r="H154" s="9"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="9"/>
+      <c r="K154" s="10"/>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B155" s="5"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="7"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="9"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="9"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="9"/>
+      <c r="K155" s="10"/>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B156" s="5"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="7"/>
+      <c r="E156" s="8"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="9"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="9"/>
+      <c r="K156" s="10"/>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B157" s="5"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="7"/>
+      <c r="E157" s="8"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="11"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="9"/>
+      <c r="K157" s="10"/>
+    </row>
+    <row r="158" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B158" s="5"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="8"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="9"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="9"/>
+      <c r="K158" s="10"/>
+    </row>
+    <row r="159" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B159" s="5"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="9"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="9"/>
+      <c r="K159" s="10"/>
+    </row>
+    <row r="160" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B160" s="5"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="8"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="9"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="9"/>
+      <c r="K160" s="10"/>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B161" s="5"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="8"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="9"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="9"/>
+      <c r="K161" s="10"/>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B162" s="5"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="8"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="11"/>
+      <c r="H162" s="9"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="9"/>
+      <c r="K162" s="10"/>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B163" s="5"/>
+      <c r="C163" s="6"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="11"/>
+      <c r="H163" s="9"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="9"/>
+      <c r="K163" s="10"/>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B164" s="5"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="8"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="11"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="10"/>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B165" s="5"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="7"/>
+      <c r="E165" s="8"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="11"/>
+      <c r="H165" s="9"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="10"/>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B166" s="5"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="8"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="11"/>
+      <c r="H166" s="9"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="9"/>
+      <c r="K166" s="10"/>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B167" s="5"/>
+      <c r="C167" s="6"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="8"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="11"/>
+      <c r="H167" s="9"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="9"/>
+      <c r="K167" s="10"/>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B168" s="5"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="11"/>
+      <c r="H168" s="9"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="9"/>
+      <c r="K168" s="10"/>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B169" s="5"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="8"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="11"/>
+      <c r="H169" s="9"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="9"/>
+      <c r="K169" s="10"/>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B170" s="5"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="8"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="11"/>
+      <c r="H170" s="9"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="9"/>
+      <c r="K170" s="10"/>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B171" s="5"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="8"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="9"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="9"/>
+      <c r="K171" s="10"/>
+    </row>
+    <row r="172" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B172" s="5"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="8"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="11"/>
+      <c r="H172" s="9"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="9"/>
+      <c r="K172" s="10"/>
+    </row>
+    <row r="173" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B173" s="5"/>
+      <c r="C173" s="6"/>
+      <c r="D173" s="7"/>
+      <c r="E173" s="8"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="9"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="9"/>
+      <c r="K173" s="10"/>
+    </row>
+    <row r="174" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B174" s="5"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="7"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="9"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="9"/>
+      <c r="K174" s="10"/>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B175" s="5"/>
+      <c r="C175" s="6"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="8"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="11"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="9"/>
+      <c r="K175" s="10"/>
+    </row>
+    <row r="176" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B176" s="5"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="9"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="9"/>
+      <c r="K176" s="10"/>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B177" s="5"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="8"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="11"/>
+      <c r="H177" s="9"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="9"/>
+      <c r="K177" s="10"/>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B178" s="5"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="8"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="9"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="9"/>
+      <c r="K178" s="10"/>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B179" s="5"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="8"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="9"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="9"/>
+      <c r="K179" s="10"/>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B180" s="5"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="8"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="9"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="9"/>
+      <c r="K180" s="10"/>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B181" s="5"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="8"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="11"/>
+      <c r="H181" s="9"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="9"/>
+      <c r="K181" s="10"/>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B182" s="5"/>
+      <c r="C182" s="6"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="8"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="9"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="9"/>
+      <c r="K182" s="10"/>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B183" s="5"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="8"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="11"/>
+      <c r="H183" s="9"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="9"/>
+      <c r="K183" s="10"/>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B184" s="5"/>
+      <c r="C184" s="6"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="8"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="9"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="9"/>
+      <c r="K184" s="10"/>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B185" s="5"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="11"/>
+      <c r="H185" s="9"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="9"/>
+      <c r="K185" s="10"/>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B186" s="5"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="8"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="10"/>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B187" s="5"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="8"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="9"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="9"/>
+      <c r="K187" s="10"/>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B188" s="5"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="8"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="11"/>
+      <c r="H188" s="9"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="9"/>
+      <c r="K188" s="10"/>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B189" s="5"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="8"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="9"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="9"/>
+      <c r="K189" s="10"/>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B190" s="5"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="8"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="11"/>
+      <c r="H190" s="9"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="9"/>
+      <c r="K190" s="10"/>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B191" s="5"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="8"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="9"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="9"/>
+      <c r="K191" s="10"/>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B192" s="5"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="8"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="11"/>
+      <c r="H192" s="9"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="9"/>
+      <c r="K192" s="10"/>
+    </row>
+    <row r="193" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B193" s="5"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="9"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="9"/>
+      <c r="K193" s="10"/>
+    </row>
+    <row r="194" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B194" s="5"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="11"/>
+      <c r="H194" s="9"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="9"/>
+      <c r="K194" s="10"/>
+    </row>
+    <row r="195" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B195" s="5"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="8"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="11"/>
+      <c r="H195" s="9"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="9"/>
+      <c r="K195" s="10"/>
+    </row>
+    <row r="196" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B196" s="5"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="9"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="9"/>
+      <c r="K196" s="10"/>
+    </row>
+    <row r="197" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B197" s="5"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="11"/>
+      <c r="H197" s="9"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="9"/>
+      <c r="K197" s="10"/>
+    </row>
+    <row r="198" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B198" s="5"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="11"/>
+      <c r="H198" s="9"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="9"/>
+      <c r="K198" s="10"/>
+    </row>
+    <row r="199" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B199" s="5"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="8"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="11"/>
+      <c r="H199" s="9"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="9"/>
+      <c r="K199" s="10"/>
+    </row>
+    <row r="200" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B200" s="5"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="8"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="11"/>
+      <c r="H200" s="9"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="9"/>
+      <c r="K200" s="10"/>
+    </row>
+    <row r="201" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B201" s="5"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="8"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="9"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="9"/>
+      <c r="K201" s="10"/>
+    </row>
+    <row r="202" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B202" s="5"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="9"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="9"/>
+      <c r="K202" s="10"/>
+    </row>
+    <row r="203" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B203" s="5"/>
+      <c r="C203" s="6"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="8"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="11"/>
+      <c r="H203" s="9"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="9"/>
+      <c r="K203" s="10"/>
+    </row>
+    <row r="204" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B204" s="5"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="11"/>
+      <c r="H204" s="9"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="9"/>
+      <c r="K204" s="10"/>
+    </row>
+    <row r="205" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B205" s="5"/>
+      <c r="C205" s="6"/>
+      <c r="D205" s="7"/>
+      <c r="E205" s="8"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="9"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="9"/>
+      <c r="K205" s="10"/>
+    </row>
+    <row r="206" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B206" s="5"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="7"/>
+      <c r="E206" s="8"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="9"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="9"/>
+      <c r="K206" s="10"/>
+    </row>
+    <row r="207" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B207" s="5"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="7"/>
+      <c r="E207" s="8"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="11"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="9"/>
+      <c r="K207" s="10"/>
+    </row>
+    <row r="208" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B208" s="5"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="7"/>
+      <c r="E208" s="8"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="11"/>
+      <c r="H208" s="9"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="9"/>
+      <c r="K208" s="10"/>
+    </row>
+    <row r="209" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B209" s="5"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="7"/>
+      <c r="E209" s="8"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="11"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="10"/>
+      <c r="J209" s="9"/>
+      <c r="K209" s="10"/>
+    </row>
+    <row r="210" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B210" s="5"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="7"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="9"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="9"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="10"/>
+    </row>
+    <row r="211" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B211" s="5"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="7"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="9"/>
+      <c r="G211" s="11"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="10"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="10"/>
+    </row>
+    <row r="212" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B212" s="5"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="7"/>
+      <c r="E212" s="8"/>
+      <c r="F212" s="9"/>
+      <c r="G212" s="11"/>
+      <c r="H212" s="9"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="9"/>
+      <c r="K212" s="10"/>
+    </row>
+    <row r="213" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B213" s="5"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="8"/>
+      <c r="F213" s="9"/>
+      <c r="G213" s="11"/>
+      <c r="H213" s="9"/>
+      <c r="I213" s="10"/>
+      <c r="J213" s="9"/>
+      <c r="K213" s="10"/>
+    </row>
+    <row r="214" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B214" s="5"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="8"/>
+      <c r="F214" s="9"/>
+      <c r="G214" s="11"/>
+      <c r="H214" s="9"/>
+      <c r="I214" s="10"/>
+      <c r="J214" s="9"/>
+      <c r="K214" s="10"/>
+    </row>
+    <row r="215" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B215" s="5"/>
+      <c r="C215" s="6"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="8"/>
+      <c r="F215" s="9"/>
+      <c r="G215" s="11"/>
+      <c r="H215" s="9"/>
+      <c r="I215" s="10"/>
+      <c r="J215" s="9"/>
+      <c r="K215" s="10"/>
+    </row>
+    <row r="216" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B216" s="5"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="7"/>
+      <c r="E216" s="8"/>
+      <c r="F216" s="9"/>
+      <c r="G216" s="11"/>
+      <c r="H216" s="9"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="9"/>
+      <c r="K216" s="10"/>
+    </row>
+    <row r="217" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B217" s="5"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="8"/>
+      <c r="F217" s="9"/>
+      <c r="G217" s="11"/>
+      <c r="H217" s="9"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="9"/>
+      <c r="K217" s="10"/>
+    </row>
+    <row r="218" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B218" s="5"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="8"/>
+      <c r="F218" s="9"/>
+      <c r="G218" s="11"/>
+      <c r="H218" s="9"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="9"/>
+      <c r="K218" s="10"/>
+    </row>
+    <row r="219" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B219" s="5"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="8"/>
+      <c r="F219" s="9"/>
+      <c r="G219" s="11"/>
+      <c r="H219" s="9"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="9"/>
+      <c r="K219" s="10"/>
+    </row>
+    <row r="220" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B220" s="5"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="9"/>
+      <c r="G220" s="11"/>
+      <c r="H220" s="9"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="9"/>
+      <c r="K220" s="10"/>
+    </row>
+    <row r="221" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B221" s="5"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="8"/>
+      <c r="F221" s="9"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="9"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="9"/>
+      <c r="K221" s="10"/>
+    </row>
+    <row r="222" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B222" s="5"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="8"/>
+      <c r="F222" s="9"/>
+      <c r="G222" s="11"/>
+      <c r="H222" s="9"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="9"/>
+      <c r="K222" s="10"/>
+    </row>
+    <row r="223" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B223" s="5"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="8"/>
+      <c r="F223" s="9"/>
+      <c r="G223" s="11"/>
+      <c r="H223" s="9"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="9"/>
+      <c r="K223" s="10"/>
+    </row>
+    <row r="224" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B224" s="5"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="8"/>
+      <c r="F224" s="9"/>
+      <c r="G224" s="11"/>
+      <c r="H224" s="9"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="9"/>
+      <c r="K224" s="10"/>
+    </row>
+    <row r="225" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B225" s="5"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="8"/>
+      <c r="F225" s="9"/>
+      <c r="G225" s="11"/>
+      <c r="H225" s="9"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="9"/>
+      <c r="K225" s="10"/>
+    </row>
+    <row r="226" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B226" s="5"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="8"/>
+      <c r="F226" s="9"/>
+      <c r="G226" s="11"/>
+      <c r="H226" s="9"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="9"/>
+      <c r="K226" s="10"/>
+    </row>
+    <row r="227" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B227" s="5"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="8"/>
+      <c r="F227" s="9"/>
+      <c r="G227" s="11"/>
+      <c r="H227" s="9"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="9"/>
+      <c r="K227" s="10"/>
+    </row>
+    <row r="228" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B228" s="5"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="8"/>
+      <c r="F228" s="9"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="9"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="9"/>
+      <c r="K228" s="10"/>
+    </row>
+    <row r="229" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B229" s="5"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="8"/>
+      <c r="F229" s="9"/>
+      <c r="G229" s="11"/>
+      <c r="H229" s="9"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="9"/>
+      <c r="K229" s="10"/>
+    </row>
+    <row r="230" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B230" s="5"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="8"/>
+      <c r="F230" s="9"/>
+      <c r="G230" s="11"/>
+      <c r="H230" s="9"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="9"/>
+      <c r="K230" s="10"/>
+    </row>
+    <row r="231" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B231" s="5"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="8"/>
+      <c r="F231" s="9"/>
+      <c r="G231" s="11"/>
+      <c r="H231" s="9"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="9"/>
+      <c r="K231" s="10"/>
+    </row>
+    <row r="232" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B232" s="5"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="8"/>
+      <c r="F232" s="9"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="9"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="9"/>
+      <c r="K232" s="10"/>
+    </row>
+    <row r="233" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B233" s="5"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="8"/>
+      <c r="F233" s="9"/>
+      <c r="G233" s="11"/>
+      <c r="H233" s="9"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="9"/>
+      <c r="K233" s="10"/>
+    </row>
+    <row r="234" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B234" s="5"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="8"/>
+      <c r="F234" s="9"/>
+      <c r="G234" s="11"/>
+      <c r="H234" s="9"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="9"/>
+      <c r="K234" s="10"/>
+    </row>
+    <row r="235" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B235" s="5"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="8"/>
+      <c r="F235" s="9"/>
+      <c r="G235" s="11"/>
+      <c r="H235" s="9"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="9"/>
+      <c r="K235" s="10"/>
+    </row>
+    <row r="236" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B236" s="5"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="9"/>
+      <c r="G236" s="11"/>
+      <c r="H236" s="9"/>
+      <c r="I236" s="10"/>
+      <c r="J236" s="9"/>
+      <c r="K236" s="10"/>
+    </row>
+    <row r="237" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B237" s="5"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="8"/>
+      <c r="F237" s="9"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="9"/>
+      <c r="I237" s="10"/>
+      <c r="J237" s="9"/>
+      <c r="K237" s="10"/>
+    </row>
+    <row r="238" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B238" s="5"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="8"/>
+      <c r="F238" s="9"/>
+      <c r="G238" s="11"/>
+      <c r="H238" s="9"/>
+      <c r="I238" s="10"/>
+      <c r="J238" s="9"/>
+      <c r="K238" s="10"/>
+    </row>
+    <row r="239" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B239" s="5"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="8"/>
+      <c r="F239" s="9"/>
+      <c r="G239" s="11"/>
+      <c r="H239" s="9"/>
+      <c r="I239" s="10"/>
+      <c r="J239" s="9"/>
+      <c r="K239" s="10"/>
+    </row>
+    <row r="240" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B240" s="5"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="8"/>
+      <c r="F240" s="9"/>
+      <c r="G240" s="11"/>
+      <c r="H240" s="9"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="9"/>
+      <c r="K240" s="10"/>
+    </row>
+    <row r="241" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B241" s="5"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="9"/>
+      <c r="G241" s="11"/>
+      <c r="H241" s="9"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="9"/>
+      <c r="K241" s="10"/>
+    </row>
+    <row r="242" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B242" s="5"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="8"/>
+      <c r="F242" s="9"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="9"/>
+      <c r="I242" s="10"/>
+      <c r="J242" s="9"/>
+      <c r="K242" s="10"/>
+    </row>
+    <row r="243" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B243" s="5"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="8"/>
+      <c r="F243" s="9"/>
+      <c r="G243" s="11"/>
+      <c r="H243" s="9"/>
+      <c r="I243" s="10"/>
+      <c r="J243" s="9"/>
+      <c r="K243" s="10"/>
+    </row>
+    <row r="244" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B244" s="5"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="8"/>
+      <c r="F244" s="9"/>
+      <c r="G244" s="11"/>
+      <c r="H244" s="9"/>
+      <c r="I244" s="10"/>
+      <c r="J244" s="9"/>
+      <c r="K244" s="10"/>
+    </row>
+    <row r="245" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B245" s="5"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="7"/>
+      <c r="E245" s="8"/>
+      <c r="F245" s="9"/>
+      <c r="G245" s="11"/>
+      <c r="H245" s="9"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="9"/>
+      <c r="K245" s="10"/>
+    </row>
+    <row r="246" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B246" s="5"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="8"/>
+      <c r="F246" s="9"/>
+      <c r="G246" s="11"/>
+      <c r="H246" s="9"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="9"/>
+      <c r="K246" s="10"/>
+    </row>
+    <row r="247" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B247" s="5"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="8"/>
+      <c r="F247" s="9"/>
+      <c r="G247" s="11"/>
+      <c r="H247" s="9"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="9"/>
+      <c r="K247" s="10"/>
+    </row>
+    <row r="248" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B248" s="5"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="7"/>
+      <c r="E248" s="8"/>
+      <c r="F248" s="9"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="9"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="9"/>
+      <c r="K248" s="10"/>
+    </row>
+    <row r="249" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B249" s="5"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="7"/>
+      <c r="E249" s="8"/>
+      <c r="F249" s="9"/>
+      <c r="G249" s="11"/>
+      <c r="H249" s="9"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="9"/>
+      <c r="K249" s="10"/>
+    </row>
+    <row r="250" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B250" s="5"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="7"/>
+      <c r="E250" s="8"/>
+      <c r="F250" s="9"/>
+      <c r="G250" s="11"/>
+      <c r="H250" s="9"/>
+      <c r="I250" s="10"/>
+      <c r="J250" s="9"/>
+      <c r="K250" s="10"/>
+    </row>
+    <row r="251" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B251" s="5"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="8"/>
+      <c r="F251" s="9"/>
+      <c r="G251" s="11"/>
+      <c r="H251" s="9"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="9"/>
+      <c r="K251" s="10"/>
+    </row>
+    <row r="252" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B252" s="5"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="7"/>
+      <c r="E252" s="8"/>
+      <c r="F252" s="9"/>
+      <c r="G252" s="11"/>
+      <c r="H252" s="9"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="9"/>
+      <c r="K252" s="10"/>
+    </row>
+    <row r="253" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B253" s="5"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="7"/>
+      <c r="E253" s="8"/>
+      <c r="F253" s="9"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="9"/>
+      <c r="I253" s="10"/>
+      <c r="J253" s="9"/>
+      <c r="K253" s="10"/>
+    </row>
+    <row r="254" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B254" s="5"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="8"/>
+      <c r="F254" s="9"/>
+      <c r="G254" s="11"/>
+      <c r="H254" s="9"/>
+      <c r="I254" s="10"/>
+      <c r="J254" s="9"/>
+      <c r="K254" s="10"/>
+    </row>
+    <row r="255" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B255" s="5"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="7"/>
+      <c r="E255" s="8"/>
+      <c r="F255" s="9"/>
+      <c r="G255" s="11"/>
+      <c r="H255" s="9"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="9"/>
+      <c r="K255" s="10"/>
+    </row>
+    <row r="256" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B256" s="5"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="7"/>
+      <c r="E256" s="8"/>
+      <c r="F256" s="9"/>
+      <c r="G256" s="11"/>
+      <c r="H256" s="9"/>
+      <c r="I256" s="10"/>
+      <c r="J256" s="9"/>
+      <c r="K256" s="10"/>
+    </row>
+    <row r="257" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B257" s="5"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="7"/>
+      <c r="E257" s="8"/>
+      <c r="F257" s="9"/>
+      <c r="G257" s="11"/>
+      <c r="H257" s="9"/>
+      <c r="I257" s="10"/>
+      <c r="J257" s="9"/>
+      <c r="K257" s="10"/>
+    </row>
+    <row r="258" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B258" s="5"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="7"/>
+      <c r="E258" s="8"/>
+      <c r="F258" s="9"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="9"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="9"/>
+      <c r="K258" s="10"/>
+    </row>
+    <row r="259" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B259" s="5"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="7"/>
+      <c r="E259" s="8"/>
+      <c r="F259" s="9"/>
+      <c r="G259" s="11"/>
+      <c r="H259" s="9"/>
+      <c r="I259" s="10"/>
+      <c r="J259" s="9"/>
+      <c r="K259" s="10"/>
+    </row>
+    <row r="260" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B260" s="5"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="8"/>
+      <c r="F260" s="9"/>
+      <c r="G260" s="11"/>
+      <c r="H260" s="9"/>
+      <c r="I260" s="10"/>
+      <c r="J260" s="9"/>
+      <c r="K260" s="10"/>
+    </row>
+    <row r="261" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B261" s="5"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="8"/>
+      <c r="F261" s="9"/>
+      <c r="G261" s="11"/>
+      <c r="H261" s="9"/>
+      <c r="I261" s="10"/>
+      <c r="J261" s="9"/>
+      <c r="K261" s="10"/>
+    </row>
+    <row r="262" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B262" s="5"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="8"/>
+      <c r="F262" s="9"/>
+      <c r="G262" s="11"/>
+      <c r="H262" s="9"/>
+      <c r="I262" s="10"/>
+      <c r="J262" s="9"/>
+      <c r="K262" s="10"/>
+    </row>
+    <row r="263" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B263" s="5"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="8"/>
+      <c r="F263" s="9"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="9"/>
+      <c r="I263" s="10"/>
+      <c r="J263" s="9"/>
+      <c r="K263" s="10"/>
+    </row>
+    <row r="264" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B264" s="5"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="8"/>
+      <c r="F264" s="9"/>
+      <c r="G264" s="11"/>
+      <c r="H264" s="9"/>
+      <c r="I264" s="10"/>
+      <c r="J264" s="9"/>
+      <c r="K264" s="10"/>
+    </row>
+    <row r="265" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B265" s="5"/>
+      <c r="C265" s="6"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="8"/>
+      <c r="F265" s="9"/>
+      <c r="G265" s="11"/>
+      <c r="H265" s="9"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="9"/>
+      <c r="K265" s="10"/>
+    </row>
+    <row r="266" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B266" s="5"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="7"/>
+      <c r="E266" s="8"/>
+      <c r="F266" s="9"/>
+      <c r="G266" s="11"/>
+      <c r="H266" s="9"/>
+      <c r="I266" s="10"/>
+      <c r="J266" s="9"/>
+      <c r="K266" s="10"/>
+    </row>
+    <row r="267" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B267" s="5"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="7"/>
+      <c r="E267" s="8"/>
+      <c r="F267" s="9"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="9"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="9"/>
+      <c r="K267" s="10"/>
+    </row>
+    <row r="268" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B268" s="5"/>
+      <c r="C268" s="6"/>
+      <c r="D268" s="7"/>
+      <c r="E268" s="8"/>
+      <c r="F268" s="9"/>
+      <c r="G268" s="11"/>
+      <c r="H268" s="9"/>
+      <c r="I268" s="10"/>
+      <c r="J268" s="9"/>
+      <c r="K268" s="10"/>
+    </row>
+    <row r="269" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B269" s="5"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="7"/>
+      <c r="E269" s="8"/>
+      <c r="F269" s="9"/>
+      <c r="G269" s="11"/>
+      <c r="H269" s="9"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="9"/>
+      <c r="K269" s="10"/>
+    </row>
+    <row r="270" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B270" s="5"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="8"/>
+      <c r="F270" s="9"/>
+      <c r="G270" s="11"/>
+      <c r="H270" s="9"/>
+      <c r="I270" s="10"/>
+      <c r="J270" s="9"/>
+      <c r="K270" s="10"/>
+    </row>
+    <row r="271" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B271" s="5"/>
+      <c r="C271" s="6"/>
+      <c r="D271" s="7"/>
+      <c r="E271" s="8"/>
+      <c r="F271" s="9"/>
+      <c r="G271" s="11"/>
+      <c r="H271" s="9"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="9"/>
+      <c r="K271" s="10"/>
+    </row>
+    <row r="272" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B272" s="5"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="7"/>
+      <c r="E272" s="8"/>
+      <c r="F272" s="9"/>
+      <c r="G272" s="11"/>
+      <c r="H272" s="9"/>
+      <c r="I272" s="10"/>
+      <c r="J272" s="9"/>
+      <c r="K272" s="10"/>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B273" s="5"/>
+      <c r="C273" s="6"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="8"/>
+      <c r="F273" s="9"/>
+      <c r="G273" s="11"/>
+      <c r="H273" s="9"/>
+      <c r="I273" s="10"/>
+      <c r="J273" s="9"/>
+      <c r="K273" s="10"/>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B274" s="5"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="8"/>
+      <c r="F274" s="9"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="9"/>
+      <c r="I274" s="10"/>
+      <c r="J274" s="9"/>
+      <c r="K274" s="10"/>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B275" s="5"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="7"/>
+      <c r="E275" s="8"/>
+      <c r="F275" s="9"/>
+      <c r="G275" s="11"/>
+      <c r="H275" s="9"/>
+      <c r="I275" s="10"/>
+      <c r="J275" s="9"/>
+      <c r="K275" s="10"/>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B276" s="5"/>
+      <c r="C276" s="6"/>
+      <c r="D276" s="7"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="9"/>
+      <c r="G276" s="11"/>
+      <c r="H276" s="9"/>
+      <c r="I276" s="10"/>
+      <c r="J276" s="9"/>
+      <c r="K276" s="10"/>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B277" s="5"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="7"/>
+      <c r="E277" s="8"/>
+      <c r="F277" s="9"/>
+      <c r="G277" s="11"/>
+      <c r="H277" s="9"/>
+      <c r="I277" s="10"/>
+      <c r="J277" s="9"/>
+      <c r="K277" s="10"/>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B278" s="5"/>
+      <c r="C278" s="6"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="8"/>
+      <c r="F278" s="9"/>
+      <c r="G278" s="11"/>
+      <c r="H278" s="9"/>
+      <c r="I278" s="10"/>
+      <c r="J278" s="9"/>
+      <c r="K278" s="10"/>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B279" s="5"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="7"/>
+      <c r="E279" s="8"/>
+      <c r="F279" s="9"/>
+      <c r="G279" s="11"/>
+      <c r="H279" s="9"/>
+      <c r="I279" s="10"/>
+      <c r="J279" s="9"/>
+      <c r="K279" s="10"/>
+    </row>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B280" s="5"/>
+      <c r="C280" s="6"/>
+      <c r="D280" s="7"/>
+      <c r="E280" s="8"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="11"/>
+      <c r="H280" s="9"/>
+      <c r="I280" s="10"/>
+      <c r="J280" s="9"/>
+      <c r="K280" s="10"/>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B281" s="5"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="7"/>
+      <c r="E281" s="8"/>
+      <c r="F281" s="9"/>
+      <c r="G281" s="11"/>
+      <c r="H281" s="9"/>
+      <c r="I281" s="10"/>
+      <c r="J281" s="9"/>
+      <c r="K281" s="10"/>
+    </row>
+    <row r="282" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B282" s="5"/>
+      <c r="C282" s="6"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="8"/>
+      <c r="F282" s="9"/>
+      <c r="G282" s="11"/>
+      <c r="H282" s="9"/>
+      <c r="I282" s="10"/>
+      <c r="J282" s="9"/>
+      <c r="K282" s="10"/>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B283" s="5"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="8"/>
+      <c r="F283" s="9"/>
+      <c r="G283" s="11"/>
+      <c r="H283" s="9"/>
+      <c r="I283" s="10"/>
+      <c r="J283" s="9"/>
+      <c r="K283" s="10"/>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B284" s="5"/>
+      <c r="C284" s="6"/>
+      <c r="D284" s="7"/>
+      <c r="E284" s="8"/>
+      <c r="F284" s="9"/>
+      <c r="G284" s="11"/>
+      <c r="H284" s="9"/>
+      <c r="I284" s="10"/>
+      <c r="J284" s="9"/>
+      <c r="K284" s="10"/>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B285" s="5"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="7"/>
+      <c r="E285" s="8"/>
+      <c r="F285" s="9"/>
+      <c r="G285" s="11"/>
+      <c r="H285" s="9"/>
+      <c r="I285" s="10"/>
+      <c r="J285" s="9"/>
+      <c r="K285" s="10"/>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B286" s="5"/>
+      <c r="C286" s="6"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="8"/>
+      <c r="F286" s="9"/>
+      <c r="G286" s="11"/>
+      <c r="H286" s="9"/>
+      <c r="I286" s="10"/>
+      <c r="J286" s="9"/>
+      <c r="K286" s="10"/>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B287" s="5"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="7"/>
+      <c r="E287" s="8"/>
+      <c r="F287" s="9"/>
+      <c r="G287" s="11"/>
+      <c r="H287" s="9"/>
+      <c r="I287" s="10"/>
+      <c r="J287" s="9"/>
+      <c r="K287" s="10"/>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B288" s="5"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="7"/>
+      <c r="E288" s="8"/>
+      <c r="F288" s="9"/>
+      <c r="G288" s="11"/>
+      <c r="H288" s="9"/>
+      <c r="I288" s="10"/>
+      <c r="J288" s="9"/>
+      <c r="K288" s="10"/>
+    </row>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B289" s="5"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="7"/>
+      <c r="E289" s="8"/>
+      <c r="F289" s="9"/>
+      <c r="G289" s="11"/>
+      <c r="H289" s="9"/>
+      <c r="I289" s="10"/>
+      <c r="J289" s="9"/>
+      <c r="K289" s="10"/>
+    </row>
+    <row r="290" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B290" s="5"/>
+      <c r="C290" s="6"/>
+      <c r="D290" s="7"/>
+      <c r="E290" s="8"/>
+      <c r="F290" s="9"/>
+      <c r="G290" s="11"/>
+      <c r="H290" s="9"/>
+      <c r="I290" s="10"/>
+      <c r="J290" s="9"/>
+      <c r="K290" s="10"/>
+    </row>
+    <row r="291" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B291" s="5"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="7"/>
+      <c r="E291" s="8"/>
+      <c r="F291" s="9"/>
+      <c r="G291" s="11"/>
+      <c r="H291" s="9"/>
+      <c r="I291" s="10"/>
+      <c r="J291" s="9"/>
+      <c r="K291" s="10"/>
+    </row>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B292" s="5"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="8"/>
+      <c r="F292" s="9"/>
+      <c r="G292" s="11"/>
+      <c r="H292" s="9"/>
+      <c r="I292" s="10"/>
+      <c r="J292" s="9"/>
+      <c r="K292" s="10"/>
+    </row>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B293" s="5"/>
+      <c r="C293" s="6"/>
+      <c r="D293" s="7"/>
+      <c r="E293" s="8"/>
+      <c r="F293" s="9"/>
+      <c r="G293" s="11"/>
+      <c r="H293" s="9"/>
+      <c r="I293" s="10"/>
+      <c r="J293" s="9"/>
+      <c r="K293" s="10"/>
+    </row>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B294" s="5"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="7"/>
+      <c r="E294" s="8"/>
+      <c r="F294" s="9"/>
+      <c r="G294" s="11"/>
+      <c r="H294" s="9"/>
+      <c r="I294" s="10"/>
+      <c r="J294" s="9"/>
+      <c r="K294" s="10"/>
+    </row>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B295" s="5"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="7"/>
+      <c r="E295" s="8"/>
+      <c r="F295" s="9"/>
+      <c r="G295" s="11"/>
+      <c r="H295" s="9"/>
+      <c r="I295" s="10"/>
+      <c r="J295" s="9"/>
+      <c r="K295" s="10"/>
+    </row>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B296" s="5"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="7"/>
+      <c r="E296" s="8"/>
+      <c r="F296" s="9"/>
+      <c r="G296" s="11"/>
+      <c r="H296" s="9"/>
+      <c r="I296" s="10"/>
+      <c r="J296" s="9"/>
+      <c r="K296" s="10"/>
+    </row>
+    <row r="297" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B297" s="5"/>
+      <c r="C297" s="6"/>
+      <c r="D297" s="7"/>
+      <c r="E297" s="8"/>
+      <c r="F297" s="9"/>
+      <c r="G297" s="11"/>
+      <c r="H297" s="9"/>
+      <c r="I297" s="10"/>
+      <c r="J297" s="9"/>
+      <c r="K297" s="10"/>
+    </row>
+    <row r="298" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B298" s="5"/>
+      <c r="C298" s="6"/>
+      <c r="D298" s="7"/>
+      <c r="E298" s="8"/>
+      <c r="F298" s="9"/>
+      <c r="G298" s="11"/>
+      <c r="H298" s="9"/>
+      <c r="I298" s="10"/>
+      <c r="J298" s="9"/>
+      <c r="K298" s="10"/>
+    </row>
+    <row r="299" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B299" s="5"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="7"/>
+      <c r="E299" s="8"/>
+      <c r="F299" s="9"/>
+      <c r="G299" s="11"/>
+      <c r="H299" s="9"/>
+      <c r="I299" s="10"/>
+      <c r="J299" s="9"/>
+      <c r="K299" s="10"/>
+    </row>
+    <row r="300" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B300" s="5"/>
+      <c r="C300" s="6"/>
+      <c r="D300" s="7"/>
+      <c r="E300" s="8"/>
+      <c r="F300" s="9"/>
+      <c r="G300" s="11"/>
+      <c r="H300" s="9"/>
+      <c r="I300" s="10"/>
+      <c r="J300" s="9"/>
+      <c r="K300" s="10"/>
+    </row>
+    <row r="301" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B301" s="5"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="7"/>
+      <c r="E301" s="8"/>
+      <c r="F301" s="9"/>
+      <c r="G301" s="11"/>
+      <c r="H301" s="9"/>
+      <c r="I301" s="10"/>
+      <c r="J301" s="9"/>
+      <c r="K301" s="10"/>
+    </row>
+    <row r="302" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B302" s="5"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="7"/>
+      <c r="E302" s="8"/>
+      <c r="F302" s="9"/>
+      <c r="G302" s="11"/>
+      <c r="H302" s="9"/>
+      <c r="I302" s="10"/>
+      <c r="J302" s="9"/>
+      <c r="K302" s="10"/>
+    </row>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B303" s="5"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="7"/>
+      <c r="E303" s="8"/>
+      <c r="F303" s="9"/>
+      <c r="G303" s="11"/>
+      <c r="H303" s="9"/>
+      <c r="I303" s="10"/>
+      <c r="J303" s="9"/>
+      <c r="K303" s="10"/>
+    </row>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B304" s="5"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="7"/>
+      <c r="E304" s="8"/>
+      <c r="F304" s="9"/>
+      <c r="G304" s="11"/>
+      <c r="H304" s="9"/>
+      <c r="I304" s="10"/>
+      <c r="J304" s="9"/>
+      <c r="K304" s="10"/>
+    </row>
+    <row r="305" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B305" s="5"/>
+      <c r="C305" s="6"/>
+      <c r="D305" s="7"/>
+      <c r="E305" s="8"/>
+      <c r="F305" s="9"/>
+      <c r="G305" s="11"/>
+      <c r="H305" s="9"/>
+      <c r="I305" s="10"/>
+      <c r="J305" s="9"/>
+      <c r="K305" s="10"/>
+    </row>
+    <row r="306" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B306" s="5"/>
+      <c r="C306" s="6"/>
+      <c r="D306" s="7"/>
+      <c r="E306" s="8"/>
+      <c r="F306" s="9"/>
+      <c r="G306" s="11"/>
+      <c r="H306" s="9"/>
+      <c r="I306" s="10"/>
+      <c r="J306" s="9"/>
+      <c r="K306" s="10"/>
+    </row>
+    <row r="307" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B307" s="5"/>
+      <c r="C307" s="6"/>
+      <c r="D307" s="7"/>
+      <c r="E307" s="8"/>
+      <c r="F307" s="9"/>
+      <c r="G307" s="11"/>
+      <c r="H307" s="9"/>
+      <c r="I307" s="10"/>
+      <c r="J307" s="9"/>
+      <c r="K307" s="10"/>
+    </row>
+    <row r="308" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B308" s="5"/>
+      <c r="C308" s="6"/>
+      <c r="D308" s="7"/>
+      <c r="E308" s="8"/>
+      <c r="F308" s="9"/>
+      <c r="G308" s="11"/>
+      <c r="H308" s="9"/>
+      <c r="I308" s="10"/>
+      <c r="J308" s="9"/>
+      <c r="K308" s="10"/>
+    </row>
+    <row r="309" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B309" s="5"/>
+      <c r="C309" s="6"/>
+      <c r="D309" s="7"/>
+      <c r="E309" s="8"/>
+      <c r="F309" s="9"/>
+      <c r="G309" s="11"/>
+      <c r="H309" s="9"/>
+      <c r="I309" s="10"/>
+      <c r="J309" s="9"/>
+      <c r="K309" s="10"/>
+    </row>
+    <row r="310" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B310" s="5"/>
+      <c r="C310" s="6"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="8"/>
+      <c r="F310" s="9"/>
+      <c r="G310" s="11"/>
+      <c r="H310" s="9"/>
+      <c r="I310" s="10"/>
+      <c r="J310" s="9"/>
+      <c r="K310" s="10"/>
+    </row>
+    <row r="311" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B311" s="5"/>
+      <c r="C311" s="6"/>
+      <c r="D311" s="7"/>
+      <c r="E311" s="8"/>
+      <c r="F311" s="9"/>
+      <c r="G311" s="11"/>
+      <c r="H311" s="9"/>
+      <c r="I311" s="10"/>
+      <c r="J311" s="9"/>
+      <c r="K311" s="10"/>
+    </row>
+    <row r="312" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B312" s="5"/>
+      <c r="C312" s="6"/>
+      <c r="D312" s="7"/>
+      <c r="E312" s="8"/>
+      <c r="F312" s="9"/>
+      <c r="G312" s="11"/>
+      <c r="H312" s="9"/>
+      <c r="I312" s="10"/>
+      <c r="J312" s="9"/>
+      <c r="K312" s="10"/>
+    </row>
+    <row r="313" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B313" s="5"/>
+      <c r="C313" s="6"/>
+      <c r="D313" s="7"/>
+      <c r="E313" s="8"/>
+      <c r="F313" s="9"/>
+      <c r="G313" s="11"/>
+      <c r="H313" s="9"/>
+      <c r="I313" s="10"/>
+      <c r="J313" s="9"/>
+      <c r="K313" s="10"/>
+    </row>
+    <row r="314" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B314" s="5"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="7"/>
+      <c r="E314" s="8"/>
+      <c r="F314" s="9"/>
+      <c r="G314" s="11"/>
+      <c r="H314" s="9"/>
+      <c r="I314" s="10"/>
+      <c r="J314" s="9"/>
+      <c r="K314" s="10"/>
+    </row>
+    <row r="315" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B315" s="5"/>
+      <c r="C315" s="6"/>
+      <c r="D315" s="7"/>
+      <c r="E315" s="8"/>
+      <c r="F315" s="9"/>
+      <c r="G315" s="11"/>
+      <c r="H315" s="9"/>
+      <c r="I315" s="10"/>
+      <c r="J315" s="9"/>
+      <c r="K315" s="10"/>
+    </row>
+    <row r="316" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B316" s="5"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="7"/>
+      <c r="E316" s="8"/>
+      <c r="F316" s="9"/>
+      <c r="G316" s="11"/>
+      <c r="H316" s="9"/>
+      <c r="I316" s="10"/>
+      <c r="J316" s="9"/>
+      <c r="K316" s="10"/>
+    </row>
+    <row r="317" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B317" s="5"/>
+      <c r="C317" s="6"/>
+      <c r="D317" s="7"/>
+      <c r="E317" s="8"/>
+      <c r="F317" s="9"/>
+      <c r="G317" s="11"/>
+      <c r="H317" s="9"/>
+      <c r="I317" s="10"/>
+      <c r="J317" s="9"/>
+      <c r="K317" s="10"/>
+    </row>
+    <row r="318" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B318" s="5"/>
+      <c r="C318" s="6"/>
+      <c r="D318" s="7"/>
+      <c r="E318" s="8"/>
+      <c r="F318" s="9"/>
+      <c r="G318" s="11"/>
+      <c r="H318" s="9"/>
+      <c r="I318" s="10"/>
+      <c r="J318" s="9"/>
+      <c r="K318" s="10"/>
+    </row>
+    <row r="319" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B319" s="5"/>
+      <c r="C319" s="6"/>
+      <c r="D319" s="7"/>
+      <c r="E319" s="8"/>
+      <c r="F319" s="9"/>
+      <c r="G319" s="11"/>
+      <c r="H319" s="9"/>
+      <c r="I319" s="10"/>
+      <c r="J319" s="9"/>
+      <c r="K319" s="10"/>
+    </row>
+    <row r="320" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B320" s="5"/>
+      <c r="C320" s="6"/>
+      <c r="D320" s="7"/>
+      <c r="E320" s="8"/>
+      <c r="F320" s="9"/>
+      <c r="G320" s="11"/>
+      <c r="H320" s="9"/>
+      <c r="I320" s="10"/>
+      <c r="J320" s="9"/>
+      <c r="K320" s="10"/>
+    </row>
+    <row r="321" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B321" s="5"/>
+      <c r="C321" s="6"/>
+      <c r="D321" s="7"/>
+      <c r="E321" s="8"/>
+      <c r="F321" s="9"/>
+      <c r="G321" s="11"/>
+      <c r="H321" s="9"/>
+      <c r="I321" s="10"/>
+      <c r="J321" s="9"/>
+      <c r="K321" s="10"/>
+    </row>
+    <row r="322" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B322" s="5"/>
+      <c r="C322" s="6"/>
+      <c r="D322" s="7"/>
+      <c r="E322" s="8"/>
+      <c r="F322" s="9"/>
+      <c r="G322" s="11"/>
+      <c r="H322" s="9"/>
+      <c r="I322" s="10"/>
+      <c r="J322" s="9"/>
+      <c r="K322" s="10"/>
+    </row>
+    <row r="323" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B323" s="5"/>
+      <c r="C323" s="6"/>
+      <c r="D323" s="7"/>
+      <c r="E323" s="8"/>
+      <c r="F323" s="9"/>
+      <c r="G323" s="11"/>
+      <c r="H323" s="9"/>
+      <c r="I323" s="10"/>
+      <c r="J323" s="9"/>
+      <c r="K323" s="10"/>
+    </row>
+    <row r="324" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B324" s="5"/>
+      <c r="C324" s="6"/>
+      <c r="D324" s="7"/>
+      <c r="E324" s="8"/>
+      <c r="F324" s="9"/>
+      <c r="G324" s="11"/>
+      <c r="H324" s="9"/>
+      <c r="I324" s="10"/>
+      <c r="J324" s="9"/>
+      <c r="K324" s="10"/>
+    </row>
+    <row r="325" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B325" s="5"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="7"/>
+      <c r="E325" s="8"/>
+      <c r="F325" s="9"/>
+      <c r="G325" s="11"/>
+      <c r="H325" s="9"/>
+      <c r="I325" s="10"/>
+      <c r="J325" s="9"/>
+      <c r="K325" s="10"/>
+    </row>
+    <row r="326" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B326" s="5"/>
+      <c r="C326" s="6"/>
+      <c r="D326" s="7"/>
+      <c r="E326" s="8"/>
+      <c r="F326" s="9"/>
+      <c r="G326" s="11"/>
+      <c r="H326" s="9"/>
+      <c r="I326" s="10"/>
+      <c r="J326" s="9"/>
+      <c r="K326" s="10"/>
+    </row>
+    <row r="327" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B327" s="5"/>
+      <c r="C327" s="6"/>
+      <c r="D327" s="7"/>
+      <c r="E327" s="8"/>
+      <c r="F327" s="9"/>
+      <c r="G327" s="11"/>
+      <c r="H327" s="9"/>
+      <c r="I327" s="10"/>
+      <c r="J327" s="9"/>
+      <c r="K327" s="10"/>
+    </row>
+    <row r="328" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B328" s="5"/>
+      <c r="C328" s="6"/>
+      <c r="D328" s="7"/>
+      <c r="E328" s="8"/>
+      <c r="F328" s="9"/>
+      <c r="G328" s="11"/>
+      <c r="H328" s="9"/>
+      <c r="I328" s="10"/>
+      <c r="J328" s="9"/>
+      <c r="K328" s="10"/>
+    </row>
+    <row r="329" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B329" s="5"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="7"/>
+      <c r="E329" s="8"/>
+      <c r="F329" s="9"/>
+      <c r="G329" s="11"/>
+      <c r="H329" s="9"/>
+      <c r="I329" s="10"/>
+      <c r="J329" s="9"/>
+      <c r="K329" s="10"/>
+    </row>
+    <row r="330" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B330" s="5"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="7"/>
+      <c r="E330" s="8"/>
+      <c r="F330" s="9"/>
+      <c r="G330" s="11"/>
+      <c r="H330" s="9"/>
+      <c r="I330" s="10"/>
+      <c r="J330" s="9"/>
+      <c r="K330" s="10"/>
+    </row>
+    <row r="331" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B331" s="5"/>
+      <c r="C331" s="6"/>
+      <c r="D331" s="7"/>
+      <c r="E331" s="8"/>
+      <c r="F331" s="9"/>
+      <c r="G331" s="11"/>
+      <c r="H331" s="9"/>
+      <c r="I331" s="10"/>
+      <c r="J331" s="9"/>
+      <c r="K331" s="10"/>
+    </row>
+    <row r="332" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B332" s="5"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="7"/>
+      <c r="E332" s="8"/>
+      <c r="F332" s="9"/>
+      <c r="G332" s="11"/>
+      <c r="H332" s="9"/>
+      <c r="I332" s="10"/>
+      <c r="J332" s="9"/>
+      <c r="K332" s="10"/>
+    </row>
+    <row r="333" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B333" s="5"/>
+      <c r="C333" s="6"/>
+      <c r="D333" s="7"/>
+      <c r="E333" s="8"/>
+      <c r="F333" s="9"/>
+      <c r="G333" s="11"/>
+      <c r="H333" s="9"/>
+      <c r="I333" s="10"/>
+      <c r="J333" s="9"/>
+      <c r="K333" s="10"/>
+    </row>
+    <row r="334" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B334" s="5"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="7"/>
+      <c r="E334" s="8"/>
+      <c r="F334" s="9"/>
+      <c r="G334" s="11"/>
+      <c r="H334" s="9"/>
+      <c r="I334" s="10"/>
+      <c r="J334" s="9"/>
+      <c r="K334" s="10"/>
+    </row>
+    <row r="335" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B335" s="5"/>
+      <c r="C335" s="6"/>
+      <c r="D335" s="7"/>
+      <c r="E335" s="8"/>
+      <c r="F335" s="9"/>
+      <c r="G335" s="11"/>
+      <c r="H335" s="9"/>
+      <c r="I335" s="10"/>
+      <c r="J335" s="9"/>
+      <c r="K335" s="10"/>
+    </row>
+    <row r="336" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B336" s="5"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="7"/>
+      <c r="E336" s="8"/>
+      <c r="F336" s="9"/>
+      <c r="G336" s="11"/>
+      <c r="H336" s="9"/>
+      <c r="I336" s="10"/>
+      <c r="J336" s="9"/>
+      <c r="K336" s="10"/>
+    </row>
+    <row r="337" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B337" s="5"/>
+      <c r="C337" s="6"/>
+      <c r="D337" s="7"/>
+      <c r="E337" s="8"/>
+      <c r="F337" s="9"/>
+      <c r="G337" s="11"/>
+      <c r="H337" s="9"/>
+      <c r="I337" s="10"/>
+      <c r="J337" s="9"/>
+      <c r="K337" s="10"/>
+    </row>
+    <row r="338" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B338" s="5"/>
+      <c r="C338" s="6"/>
+      <c r="D338" s="7"/>
+      <c r="E338" s="8"/>
+      <c r="F338" s="9"/>
+      <c r="G338" s="11"/>
+      <c r="H338" s="9"/>
+      <c r="I338" s="10"/>
+      <c r="J338" s="9"/>
+      <c r="K338" s="10"/>
+    </row>
+    <row r="339" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B339" s="5"/>
+      <c r="C339" s="6"/>
+      <c r="D339" s="7"/>
+      <c r="E339" s="8"/>
+      <c r="F339" s="9"/>
+      <c r="G339" s="11"/>
+      <c r="H339" s="9"/>
+      <c r="I339" s="10"/>
+      <c r="J339" s="9"/>
+      <c r="K339" s="10"/>
+    </row>
+    <row r="340" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B340" s="5"/>
+      <c r="C340" s="6"/>
+      <c r="D340" s="7"/>
+      <c r="E340" s="8"/>
+      <c r="F340" s="9"/>
+      <c r="G340" s="11"/>
+      <c r="H340" s="9"/>
+      <c r="I340" s="10"/>
+      <c r="J340" s="9"/>
+      <c r="K340" s="10"/>
+    </row>
+    <row r="341" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B341" s="5"/>
+      <c r="C341" s="6"/>
+      <c r="D341" s="7"/>
+      <c r="E341" s="8"/>
+      <c r="F341" s="9"/>
+      <c r="G341" s="11"/>
+      <c r="H341" s="9"/>
+      <c r="I341" s="10"/>
+      <c r="J341" s="9"/>
+      <c r="K341" s="10"/>
+    </row>
+    <row r="342" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B342" s="5"/>
+      <c r="C342" s="6"/>
+      <c r="D342" s="7"/>
+      <c r="E342" s="8"/>
+      <c r="F342" s="9"/>
+      <c r="G342" s="11"/>
+      <c r="H342" s="9"/>
+      <c r="I342" s="10"/>
+      <c r="J342" s="9"/>
+      <c r="K342" s="10"/>
+    </row>
+    <row r="343" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B343" s="5"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="7"/>
+      <c r="E343" s="8"/>
+      <c r="F343" s="9"/>
+      <c r="G343" s="11"/>
+      <c r="H343" s="9"/>
+      <c r="I343" s="10"/>
+      <c r="J343" s="9"/>
+      <c r="K343" s="10"/>
+    </row>
+    <row r="344" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B344" s="5"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="7"/>
+      <c r="E344" s="8"/>
+      <c r="F344" s="9"/>
+      <c r="G344" s="11"/>
+      <c r="H344" s="9"/>
+      <c r="I344" s="10"/>
+      <c r="J344" s="9"/>
+      <c r="K344" s="10"/>
+    </row>
+    <row r="345" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B345" s="5"/>
+      <c r="C345" s="6"/>
+      <c r="D345" s="7"/>
+      <c r="E345" s="8"/>
+      <c r="F345" s="9"/>
+      <c r="G345" s="11"/>
+      <c r="H345" s="9"/>
+      <c r="I345" s="10"/>
+      <c r="J345" s="9"/>
+      <c r="K345" s="10"/>
+    </row>
+    <row r="346" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B346" s="5"/>
+      <c r="C346" s="6"/>
+      <c r="D346" s="7"/>
+      <c r="E346" s="8"/>
+      <c r="F346" s="9"/>
+      <c r="G346" s="11"/>
+      <c r="H346" s="9"/>
+      <c r="I346" s="10"/>
+      <c r="J346" s="9"/>
+      <c r="K346" s="10"/>
+    </row>
+    <row r="347" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B347" s="5"/>
+      <c r="C347" s="6"/>
+      <c r="D347" s="7"/>
+      <c r="E347" s="8"/>
+      <c r="F347" s="9"/>
+      <c r="G347" s="11"/>
+      <c r="H347" s="9"/>
+      <c r="I347" s="10"/>
+      <c r="J347" s="9"/>
+      <c r="K347" s="10"/>
+    </row>
+    <row r="348" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B348" s="5"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="7"/>
+      <c r="E348" s="8"/>
+      <c r="F348" s="9"/>
+      <c r="G348" s="11"/>
+      <c r="H348" s="9"/>
+      <c r="I348" s="10"/>
+      <c r="J348" s="9"/>
+      <c r="K348" s="10"/>
+    </row>
+    <row r="349" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B349" s="5"/>
+      <c r="C349" s="6"/>
+      <c r="D349" s="7"/>
+      <c r="E349" s="8"/>
+      <c r="F349" s="9"/>
+      <c r="G349" s="11"/>
+      <c r="H349" s="9"/>
+      <c r="I349" s="10"/>
+      <c r="J349" s="9"/>
+      <c r="K349" s="10"/>
+    </row>
+    <row r="350" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B350" s="5"/>
+      <c r="C350" s="6"/>
+      <c r="D350" s="7"/>
+      <c r="E350" s="8"/>
+      <c r="F350" s="9"/>
+      <c r="G350" s="11"/>
+      <c r="H350" s="9"/>
+      <c r="I350" s="10"/>
+      <c r="J350" s="9"/>
+      <c r="K350" s="10"/>
+    </row>
+    <row r="351" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B351" s="5"/>
+      <c r="C351" s="6"/>
+      <c r="D351" s="7"/>
+      <c r="E351" s="8"/>
+      <c r="F351" s="9"/>
+      <c r="G351" s="11"/>
+      <c r="H351" s="9"/>
+      <c r="I351" s="10"/>
+      <c r="J351" s="9"/>
+      <c r="K351" s="10"/>
+    </row>
+    <row r="352" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B352" s="5"/>
+      <c r="C352" s="6"/>
+      <c r="D352" s="7"/>
+      <c r="E352" s="8"/>
+      <c r="F352" s="9"/>
+      <c r="G352" s="11"/>
+      <c r="H352" s="9"/>
+      <c r="I352" s="10"/>
+      <c r="J352" s="9"/>
+      <c r="K352" s="10"/>
+    </row>
+    <row r="353" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B353" s="5"/>
+      <c r="C353" s="6"/>
+      <c r="D353" s="7"/>
+      <c r="E353" s="8"/>
+      <c r="F353" s="9"/>
+      <c r="G353" s="11"/>
+      <c r="H353" s="9"/>
+      <c r="I353" s="10"/>
+      <c r="J353" s="9"/>
+      <c r="K353" s="10"/>
+    </row>
+    <row r="354" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B354" s="5"/>
+      <c r="C354" s="6"/>
+      <c r="D354" s="7"/>
+      <c r="E354" s="8"/>
+      <c r="F354" s="9"/>
+      <c r="G354" s="11"/>
+      <c r="H354" s="9"/>
+      <c r="I354" s="10"/>
+      <c r="J354" s="9"/>
+      <c r="K354" s="10"/>
+    </row>
+    <row r="355" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B355" s="5"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="7"/>
+      <c r="E355" s="8"/>
+      <c r="F355" s="9"/>
+      <c r="G355" s="11"/>
+      <c r="H355" s="9"/>
+      <c r="I355" s="10"/>
+      <c r="J355" s="9"/>
+      <c r="K355" s="10"/>
+    </row>
+    <row r="356" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B356" s="5"/>
+      <c r="C356" s="6"/>
+      <c r="D356" s="7"/>
+      <c r="E356" s="8"/>
+      <c r="F356" s="9"/>
+      <c r="G356" s="11"/>
+      <c r="H356" s="9"/>
+      <c r="I356" s="10"/>
+      <c r="J356" s="9"/>
+      <c r="K356" s="10"/>
+    </row>
+    <row r="357" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B357" s="5"/>
+      <c r="C357" s="6"/>
+      <c r="D357" s="7"/>
+      <c r="E357" s="8"/>
+      <c r="F357" s="9"/>
+      <c r="G357" s="11"/>
+      <c r="H357" s="9"/>
+      <c r="I357" s="10"/>
+      <c r="J357" s="9"/>
+      <c r="K357" s="10"/>
+    </row>
+    <row r="358" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B358" s="5"/>
+      <c r="C358" s="6"/>
+      <c r="D358" s="7"/>
+      <c r="E358" s="8"/>
+      <c r="F358" s="9"/>
+      <c r="G358" s="11"/>
+      <c r="H358" s="9"/>
+      <c r="I358" s="10"/>
+      <c r="J358" s="9"/>
+      <c r="K358" s="10"/>
+    </row>
+    <row r="359" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B359" s="5"/>
+      <c r="C359" s="6"/>
+      <c r="D359" s="7"/>
+      <c r="E359" s="8"/>
+      <c r="F359" s="9"/>
+      <c r="G359" s="11"/>
+      <c r="H359" s="9"/>
+      <c r="I359" s="10"/>
+      <c r="J359" s="9"/>
+      <c r="K359" s="10"/>
+    </row>
+    <row r="360" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B360" s="5"/>
+      <c r="C360" s="6"/>
+      <c r="D360" s="7"/>
+      <c r="E360" s="8"/>
+      <c r="F360" s="9"/>
+      <c r="G360" s="11"/>
+      <c r="H360" s="9"/>
+      <c r="I360" s="10"/>
+      <c r="J360" s="9"/>
+      <c r="K360" s="10"/>
+    </row>
+    <row r="361" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B361" s="5"/>
+      <c r="C361" s="6"/>
+      <c r="D361" s="7"/>
+      <c r="E361" s="8"/>
+      <c r="F361" s="9"/>
+      <c r="G361" s="11"/>
+      <c r="H361" s="9"/>
+      <c r="I361" s="10"/>
+      <c r="J361" s="9"/>
+      <c r="K361" s="10"/>
+    </row>
+    <row r="362" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B362" s="5"/>
+      <c r="C362" s="6"/>
+      <c r="D362" s="7"/>
+      <c r="E362" s="8"/>
+      <c r="F362" s="9"/>
+      <c r="G362" s="11"/>
+      <c r="H362" s="9"/>
+      <c r="I362" s="10"/>
+      <c r="J362" s="9"/>
+      <c r="K362" s="10"/>
+    </row>
+    <row r="363" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B363" s="5"/>
+      <c r="C363" s="6"/>
+      <c r="D363" s="7"/>
+      <c r="E363" s="8"/>
+      <c r="F363" s="9"/>
+      <c r="G363" s="11"/>
+      <c r="H363" s="9"/>
+      <c r="I363" s="10"/>
+      <c r="J363" s="9"/>
+      <c r="K363" s="10"/>
+    </row>
+    <row r="364" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B364" s="5"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="7"/>
+      <c r="E364" s="8"/>
+      <c r="F364" s="9"/>
+      <c r="G364" s="11"/>
+      <c r="H364" s="9"/>
+      <c r="I364" s="10"/>
+      <c r="J364" s="9"/>
+      <c r="K364" s="10"/>
+    </row>
+    <row r="365" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B365" s="5"/>
+      <c r="C365" s="6"/>
+      <c r="D365" s="7"/>
+      <c r="E365" s="8"/>
+      <c r="F365" s="9"/>
+      <c r="G365" s="11"/>
+      <c r="H365" s="9"/>
+      <c r="I365" s="10"/>
+      <c r="J365" s="9"/>
+      <c r="K365" s="10"/>
+    </row>
+    <row r="366" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B366" s="5"/>
+      <c r="C366" s="6"/>
+      <c r="D366" s="7"/>
+      <c r="E366" s="8"/>
+      <c r="F366" s="9"/>
+      <c r="G366" s="11"/>
+      <c r="H366" s="9"/>
+      <c r="I366" s="10"/>
+      <c r="J366" s="9"/>
+      <c r="K366" s="10"/>
+    </row>
+    <row r="367" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B367" s="5"/>
+      <c r="C367" s="6"/>
+      <c r="D367" s="7"/>
+      <c r="E367" s="8"/>
+      <c r="F367" s="9"/>
+      <c r="G367" s="11"/>
+      <c r="H367" s="9"/>
+      <c r="I367" s="10"/>
+      <c r="J367" s="9"/>
+      <c r="K367" s="10"/>
+    </row>
+    <row r="368" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B368" s="5"/>
+      <c r="C368" s="6"/>
+      <c r="D368" s="7"/>
+      <c r="E368" s="8"/>
+      <c r="F368" s="9"/>
+      <c r="G368" s="11"/>
+      <c r="H368" s="9"/>
+      <c r="I368" s="10"/>
+      <c r="J368" s="9"/>
+      <c r="K368" s="10"/>
+    </row>
+    <row r="369" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B369" s="5"/>
+      <c r="C369" s="6"/>
+      <c r="D369" s="7"/>
+      <c r="E369" s="8"/>
+      <c r="F369" s="9"/>
+      <c r="G369" s="11"/>
+      <c r="H369" s="9"/>
+      <c r="I369" s="10"/>
+      <c r="J369" s="9"/>
+      <c r="K369" s="10"/>
+    </row>
+    <row r="370" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B370" s="5"/>
+      <c r="C370" s="6"/>
+      <c r="D370" s="7"/>
+      <c r="E370" s="8"/>
+      <c r="F370" s="9"/>
+      <c r="G370" s="11"/>
+      <c r="H370" s="9"/>
+      <c r="I370" s="10"/>
+      <c r="J370" s="9"/>
+      <c r="K370" s="10"/>
+    </row>
+    <row r="371" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B371" s="5"/>
+      <c r="C371" s="6"/>
+      <c r="D371" s="7"/>
+      <c r="E371" s="8"/>
+      <c r="F371" s="9"/>
+      <c r="G371" s="11"/>
+      <c r="H371" s="9"/>
+      <c r="I371" s="10"/>
+      <c r="J371" s="9"/>
+      <c r="K371" s="10"/>
+    </row>
+    <row r="372" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B372" s="5"/>
+      <c r="C372" s="6"/>
+      <c r="D372" s="7"/>
+      <c r="E372" s="8"/>
+      <c r="F372" s="9"/>
+      <c r="G372" s="11"/>
+      <c r="H372" s="9"/>
+      <c r="I372" s="10"/>
+      <c r="J372" s="9"/>
+      <c r="K372" s="10"/>
+    </row>
+    <row r="373" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B373" s="5"/>
+      <c r="C373" s="6"/>
+      <c r="D373" s="7"/>
+      <c r="E373" s="8"/>
+      <c r="F373" s="9"/>
+      <c r="G373" s="11"/>
+      <c r="H373" s="9"/>
+      <c r="I373" s="10"/>
+      <c r="J373" s="9"/>
+      <c r="K373" s="10"/>
+    </row>
+    <row r="374" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B374" s="5"/>
+      <c r="C374" s="6"/>
+      <c r="D374" s="7"/>
+      <c r="E374" s="8"/>
+      <c r="F374" s="9"/>
+      <c r="G374" s="11"/>
+      <c r="H374" s="9"/>
+      <c r="I374" s="10"/>
+      <c r="J374" s="9"/>
+      <c r="K374" s="10"/>
+    </row>
+    <row r="375" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B375" s="5"/>
+      <c r="C375" s="6"/>
+      <c r="D375" s="7"/>
+      <c r="E375" s="8"/>
+      <c r="F375" s="9"/>
+      <c r="G375" s="11"/>
+      <c r="H375" s="9"/>
+      <c r="I375" s="10"/>
+      <c r="J375" s="9"/>
+      <c r="K375" s="10"/>
+    </row>
+    <row r="376" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B376" s="5"/>
+      <c r="C376" s="6"/>
+      <c r="D376" s="7"/>
+      <c r="E376" s="8"/>
+      <c r="F376" s="9"/>
+      <c r="G376" s="11"/>
+      <c r="H376" s="9"/>
+      <c r="I376" s="10"/>
+      <c r="J376" s="9"/>
+      <c r="K376" s="10"/>
+    </row>
+    <row r="377" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B377" s="5"/>
+      <c r="C377" s="6"/>
+      <c r="D377" s="7"/>
+      <c r="E377" s="8"/>
+      <c r="F377" s="9"/>
+      <c r="G377" s="11"/>
+      <c r="H377" s="9"/>
+      <c r="I377" s="10"/>
+      <c r="J377" s="9"/>
+      <c r="K377" s="10"/>
+    </row>
+    <row r="378" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B378" s="5"/>
+      <c r="C378" s="6"/>
+      <c r="D378" s="7"/>
+      <c r="E378" s="8"/>
+      <c r="F378" s="9"/>
+      <c r="G378" s="11"/>
+      <c r="H378" s="9"/>
+      <c r="I378" s="10"/>
+      <c r="J378" s="9"/>
+      <c r="K378" s="10"/>
+    </row>
+    <row r="379" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B379" s="5"/>
+      <c r="C379" s="6"/>
+      <c r="D379" s="7"/>
+      <c r="E379" s="8"/>
+      <c r="F379" s="9"/>
+      <c r="G379" s="11"/>
+      <c r="H379" s="9"/>
+      <c r="I379" s="10"/>
+      <c r="J379" s="9"/>
+      <c r="K379" s="10"/>
+    </row>
+    <row r="380" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B380" s="5"/>
+      <c r="C380" s="6"/>
+      <c r="D380" s="7"/>
+      <c r="E380" s="8"/>
+      <c r="F380" s="9"/>
+      <c r="G380" s="11"/>
+      <c r="H380" s="9"/>
+      <c r="I380" s="10"/>
+      <c r="J380" s="9"/>
+      <c r="K380" s="10"/>
+    </row>
+    <row r="381" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B381" s="5"/>
+      <c r="C381" s="6"/>
+      <c r="D381" s="7"/>
+      <c r="E381" s="8"/>
+      <c r="F381" s="9"/>
+      <c r="G381" s="11"/>
+      <c r="H381" s="9"/>
+      <c r="I381" s="10"/>
+      <c r="J381" s="9"/>
+      <c r="K381" s="10"/>
+    </row>
+    <row r="382" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B382" s="5"/>
+      <c r="C382" s="6"/>
+      <c r="D382" s="7"/>
+      <c r="E382" s="8"/>
+      <c r="F382" s="9"/>
+      <c r="G382" s="11"/>
+      <c r="H382" s="9"/>
+      <c r="I382" s="10"/>
+      <c r="J382" s="9"/>
+      <c r="K382" s="10"/>
+    </row>
+    <row r="383" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B383" s="5"/>
+      <c r="C383" s="6"/>
+      <c r="D383" s="7"/>
+      <c r="E383" s="8"/>
+      <c r="F383" s="9"/>
+      <c r="G383" s="11"/>
+      <c r="H383" s="9"/>
+      <c r="I383" s="10"/>
+      <c r="J383" s="9"/>
+      <c r="K383" s="10"/>
+    </row>
+    <row r="384" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B384" s="5"/>
+      <c r="C384" s="6"/>
+      <c r="D384" s="7"/>
+      <c r="E384" s="8"/>
+      <c r="F384" s="9"/>
+      <c r="G384" s="11"/>
+      <c r="H384" s="9"/>
+      <c r="I384" s="10"/>
+      <c r="J384" s="9"/>
+      <c r="K384" s="10"/>
+    </row>
+    <row r="385" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B385" s="5"/>
+      <c r="C385" s="6"/>
+      <c r="D385" s="7"/>
+      <c r="E385" s="8"/>
+      <c r="F385" s="9"/>
+      <c r="G385" s="11"/>
+      <c r="H385" s="9"/>
+      <c r="I385" s="10"/>
+      <c r="J385" s="9"/>
+      <c r="K385" s="10"/>
+    </row>
+    <row r="386" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B386" s="5"/>
+      <c r="C386" s="6"/>
+      <c r="D386" s="7"/>
+      <c r="E386" s="8"/>
+      <c r="F386" s="9"/>
+      <c r="G386" s="11"/>
+      <c r="H386" s="9"/>
+      <c r="I386" s="10"/>
+      <c r="J386" s="9"/>
+      <c r="K386" s="10"/>
+    </row>
+    <row r="387" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B387" s="5"/>
+      <c r="C387" s="6"/>
+      <c r="D387" s="7"/>
+      <c r="E387" s="8"/>
+      <c r="F387" s="9"/>
+      <c r="G387" s="11"/>
+      <c r="H387" s="9"/>
+      <c r="I387" s="10"/>
+      <c r="J387" s="9"/>
+      <c r="K387" s="10"/>
+    </row>
+    <row r="388" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B388" s="5"/>
+      <c r="C388" s="6"/>
+      <c r="D388" s="7"/>
+      <c r="E388" s="8"/>
+      <c r="F388" s="9"/>
+      <c r="G388" s="11"/>
+      <c r="H388" s="9"/>
+      <c r="I388" s="10"/>
+      <c r="J388" s="9"/>
+      <c r="K388" s="10"/>
+    </row>
+    <row r="389" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B389" s="5"/>
+      <c r="C389" s="6"/>
+      <c r="D389" s="7"/>
+      <c r="E389" s="8"/>
+      <c r="F389" s="9"/>
+      <c r="G389" s="11"/>
+      <c r="H389" s="9"/>
+      <c r="I389" s="10"/>
+      <c r="J389" s="9"/>
+      <c r="K389" s="10"/>
+    </row>
+    <row r="390" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B390" s="5"/>
+      <c r="C390" s="6"/>
+      <c r="D390" s="7"/>
+      <c r="E390" s="8"/>
+      <c r="F390" s="9"/>
+      <c r="G390" s="11"/>
+      <c r="H390" s="9"/>
+      <c r="I390" s="10"/>
+      <c r="J390" s="9"/>
+      <c r="K390" s="10"/>
+    </row>
+    <row r="391" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B391" s="5"/>
+      <c r="C391" s="6"/>
+      <c r="D391" s="7"/>
+      <c r="E391" s="8"/>
+      <c r="F391" s="9"/>
+      <c r="G391" s="11"/>
+      <c r="H391" s="9"/>
+      <c r="I391" s="10"/>
+      <c r="J391" s="9"/>
+      <c r="K391" s="10"/>
+    </row>
+    <row r="392" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B392" s="5"/>
+      <c r="C392" s="6"/>
+      <c r="D392" s="7"/>
+      <c r="E392" s="8"/>
+      <c r="F392" s="9"/>
+      <c r="G392" s="11"/>
+      <c r="H392" s="9"/>
+      <c r="I392" s="10"/>
+      <c r="J392" s="9"/>
+      <c r="K392" s="10"/>
+    </row>
+    <row r="393" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B393" s="5"/>
+      <c r="C393" s="6"/>
+      <c r="D393" s="7"/>
+      <c r="E393" s="8"/>
+      <c r="F393" s="9"/>
+      <c r="G393" s="11"/>
+      <c r="H393" s="9"/>
+      <c r="I393" s="10"/>
+      <c r="J393" s="9"/>
+      <c r="K393" s="10"/>
+    </row>
+    <row r="394" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B394" s="5"/>
+      <c r="C394" s="6"/>
+      <c r="D394" s="7"/>
+      <c r="E394" s="8"/>
+      <c r="F394" s="9"/>
+      <c r="G394" s="11"/>
+      <c r="H394" s="9"/>
+      <c r="I394" s="10"/>
+      <c r="J394" s="9"/>
+      <c r="K394" s="10"/>
+    </row>
+    <row r="395" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B395" s="5"/>
+      <c r="C395" s="6"/>
+      <c r="D395" s="7"/>
+      <c r="E395" s="8"/>
+      <c r="F395" s="9"/>
+      <c r="G395" s="11"/>
+      <c r="H395" s="9"/>
+      <c r="I395" s="10"/>
+      <c r="J395" s="9"/>
+      <c r="K395" s="10"/>
+    </row>
+    <row r="396" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B396" s="5"/>
+      <c r="C396" s="6"/>
+      <c r="D396" s="7"/>
+      <c r="E396" s="8"/>
+      <c r="F396" s="9"/>
+      <c r="G396" s="11"/>
+      <c r="H396" s="9"/>
+      <c r="I396" s="10"/>
+      <c r="J396" s="9"/>
+      <c r="K396" s="10"/>
+    </row>
+    <row r="397" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B397" s="5"/>
+      <c r="C397" s="6"/>
+      <c r="D397" s="7"/>
+      <c r="E397" s="8"/>
+      <c r="F397" s="9"/>
+      <c r="G397" s="11"/>
+      <c r="H397" s="9"/>
+      <c r="I397" s="10"/>
+      <c r="J397" s="9"/>
+      <c r="K397" s="10"/>
+    </row>
+    <row r="398" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B398" s="5"/>
+      <c r="C398" s="6"/>
+      <c r="D398" s="7"/>
+      <c r="E398" s="8"/>
+      <c r="F398" s="9"/>
+      <c r="G398" s="11"/>
+      <c r="H398" s="9"/>
+      <c r="I398" s="10"/>
+      <c r="J398" s="9"/>
+      <c r="K398" s="10"/>
+    </row>
+    <row r="399" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B399" s="5"/>
+      <c r="C399" s="6"/>
+      <c r="D399" s="7"/>
+      <c r="E399" s="8"/>
+      <c r="F399" s="9"/>
+      <c r="G399" s="11"/>
+      <c r="H399" s="9"/>
+      <c r="I399" s="10"/>
+      <c r="J399" s="9"/>
+      <c r="K399" s="10"/>
+    </row>
+    <row r="400" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B400" s="5"/>
+      <c r="C400" s="6"/>
+      <c r="D400" s="7"/>
+      <c r="E400" s="8"/>
+      <c r="F400" s="9"/>
+      <c r="G400" s="11"/>
+      <c r="H400" s="9"/>
+      <c r="I400" s="10"/>
+      <c r="J400" s="9"/>
+      <c r="K400" s="10"/>
+    </row>
+    <row r="401" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B401" s="5"/>
+      <c r="C401" s="6"/>
+      <c r="D401" s="7"/>
+      <c r="E401" s="8"/>
+      <c r="F401" s="9"/>
+      <c r="G401" s="11"/>
+      <c r="H401" s="9"/>
+      <c r="I401" s="10"/>
+      <c r="J401" s="9"/>
+      <c r="K401" s="10"/>
+    </row>
+    <row r="402" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B402" s="5"/>
+      <c r="C402" s="6"/>
+      <c r="D402" s="7"/>
+      <c r="E402" s="8"/>
+      <c r="F402" s="9"/>
+      <c r="G402" s="11"/>
+      <c r="H402" s="9"/>
+      <c r="I402" s="10"/>
+      <c r="J402" s="9"/>
+      <c r="K402" s="10"/>
+    </row>
+    <row r="403" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B403" s="5"/>
+      <c r="C403" s="6"/>
+      <c r="D403" s="7"/>
+      <c r="E403" s="8"/>
+      <c r="F403" s="9"/>
+      <c r="G403" s="11"/>
+      <c r="H403" s="9"/>
+      <c r="I403" s="10"/>
+      <c r="J403" s="9"/>
+      <c r="K403" s="10"/>
+    </row>
+    <row r="404" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B404" s="5"/>
+      <c r="C404" s="6"/>
+      <c r="D404" s="7"/>
+      <c r="E404" s="8"/>
+      <c r="F404" s="9"/>
+      <c r="G404" s="11"/>
+      <c r="H404" s="9"/>
+      <c r="I404" s="10"/>
+      <c r="J404" s="9"/>
+      <c r="K404" s="10"/>
+    </row>
+    <row r="405" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B405" s="5"/>
+      <c r="C405" s="6"/>
+      <c r="D405" s="7"/>
+      <c r="E405" s="8"/>
+      <c r="F405" s="9"/>
+      <c r="G405" s="11"/>
+      <c r="H405" s="9"/>
+      <c r="I405" s="10"/>
+      <c r="J405" s="9"/>
+      <c r="K405" s="10"/>
+    </row>
+    <row r="406" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B406" s="5"/>
+      <c r="C406" s="6"/>
+      <c r="D406" s="7"/>
+      <c r="E406" s="8"/>
+      <c r="F406" s="9"/>
+      <c r="G406" s="11"/>
+      <c r="H406" s="9"/>
+      <c r="I406" s="10"/>
+      <c r="J406" s="9"/>
+      <c r="K406" s="10"/>
+    </row>
+    <row r="407" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B407" s="5"/>
+      <c r="C407" s="6"/>
+      <c r="D407" s="7"/>
+      <c r="E407" s="8"/>
+      <c r="F407" s="9"/>
+      <c r="G407" s="11"/>
+      <c r="H407" s="9"/>
+      <c r="I407" s="10"/>
+      <c r="J407" s="9"/>
+      <c r="K407" s="10"/>
+    </row>
+    <row r="408" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B408" s="5"/>
+      <c r="C408" s="6"/>
+      <c r="D408" s="7"/>
+      <c r="E408" s="8"/>
+      <c r="F408" s="9"/>
+      <c r="G408" s="11"/>
+      <c r="H408" s="9"/>
+      <c r="I408" s="10"/>
+      <c r="J408" s="9"/>
+      <c r="K408" s="10"/>
+    </row>
+    <row r="409" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B409" s="5"/>
+      <c r="C409" s="6"/>
+      <c r="D409" s="7"/>
+      <c r="E409" s="8"/>
+      <c r="F409" s="9"/>
+      <c r="G409" s="11"/>
+      <c r="H409" s="9"/>
+      <c r="I409" s="10"/>
+      <c r="J409" s="9"/>
+      <c r="K409" s="10"/>
+    </row>
+    <row r="410" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B410" s="5"/>
+      <c r="C410" s="6"/>
+      <c r="D410" s="7"/>
+      <c r="E410" s="8"/>
+      <c r="F410" s="9"/>
+      <c r="G410" s="11"/>
+      <c r="H410" s="9"/>
+      <c r="I410" s="10"/>
+      <c r="J410" s="9"/>
+      <c r="K410" s="10"/>
+    </row>
+    <row r="411" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B411" s="5"/>
+      <c r="C411" s="6"/>
+      <c r="D411" s="7"/>
+      <c r="E411" s="8"/>
+      <c r="F411" s="9"/>
+      <c r="G411" s="11"/>
+      <c r="H411" s="9"/>
+      <c r="I411" s="10"/>
+      <c r="J411" s="9"/>
+      <c r="K411" s="10"/>
+    </row>
+    <row r="412" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B412" s="5"/>
+      <c r="C412" s="6"/>
+      <c r="D412" s="7"/>
+      <c r="E412" s="8"/>
+      <c r="F412" s="9"/>
+      <c r="G412" s="11"/>
+      <c r="H412" s="9"/>
+      <c r="I412" s="10"/>
+      <c r="J412" s="9"/>
+      <c r="K412" s="10"/>
+    </row>
+    <row r="413" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B413" s="5"/>
+      <c r="C413" s="6"/>
+      <c r="D413" s="7"/>
+      <c r="E413" s="8"/>
+      <c r="F413" s="9"/>
+      <c r="G413" s="11"/>
+      <c r="H413" s="9"/>
+      <c r="I413" s="10"/>
+      <c r="J413" s="9"/>
+      <c r="K413" s="10"/>
+    </row>
+    <row r="414" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B414" s="5"/>
+      <c r="C414" s="6"/>
+      <c r="D414" s="7"/>
+      <c r="E414" s="8"/>
+      <c r="F414" s="9"/>
+      <c r="G414" s="11"/>
+      <c r="H414" s="9"/>
+      <c r="I414" s="10"/>
+      <c r="J414" s="9"/>
+      <c r="K414" s="10"/>
+    </row>
+    <row r="415" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B415" s="5"/>
+      <c r="C415" s="6"/>
+      <c r="D415" s="7"/>
+      <c r="E415" s="8"/>
+      <c r="F415" s="9"/>
+      <c r="G415" s="11"/>
+      <c r="H415" s="9"/>
+      <c r="I415" s="10"/>
+      <c r="J415" s="9"/>
+      <c r="K415" s="10"/>
+    </row>
+    <row r="416" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B416" s="5"/>
+      <c r="C416" s="6"/>
+      <c r="D416" s="7"/>
+      <c r="E416" s="8"/>
+      <c r="F416" s="9"/>
+      <c r="G416" s="11"/>
+      <c r="H416" s="9"/>
+      <c r="I416" s="10"/>
+      <c r="J416" s="9"/>
+      <c r="K416" s="10"/>
+    </row>
+    <row r="417" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B417" s="5"/>
+      <c r="C417" s="6"/>
+      <c r="D417" s="7"/>
+      <c r="E417" s="8"/>
+      <c r="F417" s="9"/>
+      <c r="G417" s="11"/>
+      <c r="H417" s="9"/>
+      <c r="I417" s="10"/>
+      <c r="J417" s="9"/>
+      <c r="K417" s="10"/>
+    </row>
+    <row r="418" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B418" s="5"/>
+      <c r="C418" s="6"/>
+      <c r="D418" s="7"/>
+      <c r="E418" s="8"/>
+      <c r="F418" s="9"/>
+      <c r="G418" s="11"/>
+      <c r="H418" s="9"/>
+      <c r="I418" s="10"/>
+      <c r="J418" s="9"/>
+      <c r="K418" s="10"/>
+    </row>
+    <row r="419" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B419" s="5"/>
+      <c r="C419" s="6"/>
+      <c r="D419" s="7"/>
+      <c r="E419" s="8"/>
+      <c r="F419" s="9"/>
+      <c r="G419" s="11"/>
+      <c r="H419" s="9"/>
+      <c r="I419" s="10"/>
+      <c r="J419" s="9"/>
+      <c r="K419" s="10"/>
+    </row>
+    <row r="420" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B420" s="5"/>
+      <c r="C420" s="6"/>
+      <c r="D420" s="7"/>
+      <c r="E420" s="8"/>
+      <c r="F420" s="9"/>
+      <c r="G420" s="11"/>
+      <c r="H420" s="9"/>
+      <c r="I420" s="10"/>
+      <c r="J420" s="9"/>
+      <c r="K420" s="10"/>
+    </row>
+    <row r="421" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B421" s="5"/>
+      <c r="C421" s="6"/>
+      <c r="D421" s="7"/>
+      <c r="E421" s="8"/>
+      <c r="F421" s="9"/>
+      <c r="G421" s="11"/>
+      <c r="H421" s="9"/>
+      <c r="I421" s="10"/>
+      <c r="J421" s="9"/>
+      <c r="K421" s="10"/>
+    </row>
+    <row r="422" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B422" s="5"/>
+      <c r="C422" s="6"/>
+      <c r="D422" s="7"/>
+      <c r="E422" s="8"/>
+      <c r="F422" s="9"/>
+      <c r="G422" s="11"/>
+      <c r="H422" s="9"/>
+      <c r="I422" s="10"/>
+      <c r="J422" s="9"/>
+      <c r="K422" s="10"/>
+    </row>
+    <row r="423" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B423" s="5"/>
+      <c r="C423" s="6"/>
+      <c r="D423" s="7"/>
+      <c r="E423" s="8"/>
+      <c r="F423" s="9"/>
+      <c r="G423" s="11"/>
+      <c r="H423" s="9"/>
+      <c r="I423" s="10"/>
+      <c r="J423" s="9"/>
+      <c r="K423" s="10"/>
+    </row>
+    <row r="424" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B424" s="5"/>
+      <c r="C424" s="6"/>
+      <c r="D424" s="7"/>
+      <c r="E424" s="8"/>
+      <c r="F424" s="9"/>
+      <c r="G424" s="11"/>
+      <c r="H424" s="9"/>
+      <c r="I424" s="10"/>
+      <c r="J424" s="9"/>
+      <c r="K424" s="10"/>
+    </row>
+    <row r="425" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B425" s="5"/>
+      <c r="C425" s="6"/>
+      <c r="D425" s="7"/>
+      <c r="E425" s="8"/>
+      <c r="F425" s="9"/>
+      <c r="G425" s="11"/>
+      <c r="H425" s="9"/>
+      <c r="I425" s="10"/>
+      <c r="J425" s="9"/>
+      <c r="K425" s="10"/>
+    </row>
+    <row r="426" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B426" s="5"/>
+      <c r="C426" s="6"/>
+      <c r="D426" s="7"/>
+      <c r="E426" s="8"/>
+      <c r="F426" s="9"/>
+      <c r="G426" s="11"/>
+      <c r="H426" s="9"/>
+      <c r="I426" s="10"/>
+      <c r="J426" s="9"/>
+      <c r="K426" s="10"/>
+    </row>
+    <row r="427" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B427" s="5"/>
+      <c r="C427" s="6"/>
+      <c r="D427" s="7"/>
+      <c r="E427" s="8"/>
+      <c r="F427" s="9"/>
+      <c r="G427" s="11"/>
+      <c r="H427" s="9"/>
+      <c r="I427" s="10"/>
+      <c r="J427" s="9"/>
+      <c r="K427" s="10"/>
+    </row>
+    <row r="428" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B428" s="5"/>
+      <c r="C428" s="6"/>
+      <c r="D428" s="7"/>
+      <c r="E428" s="8"/>
+      <c r="F428" s="9"/>
+      <c r="G428" s="11"/>
+      <c r="H428" s="9"/>
+      <c r="I428" s="10"/>
+      <c r="J428" s="9"/>
+      <c r="K428" s="10"/>
+    </row>
+    <row r="429" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B429" s="5"/>
+      <c r="C429" s="6"/>
+      <c r="D429" s="7"/>
+      <c r="E429" s="8"/>
+      <c r="F429" s="9"/>
+      <c r="G429" s="11"/>
+      <c r="H429" s="9"/>
+      <c r="I429" s="10"/>
+      <c r="J429" s="9"/>
+      <c r="K429" s="10"/>
+    </row>
+    <row r="430" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B430" s="5"/>
+      <c r="C430" s="6"/>
+      <c r="D430" s="7"/>
+      <c r="E430" s="8"/>
+      <c r="F430" s="9"/>
+      <c r="G430" s="11"/>
+      <c r="H430" s="9"/>
+      <c r="I430" s="10"/>
+      <c r="J430" s="9"/>
+      <c r="K430" s="10"/>
+    </row>
+    <row r="431" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B431" s="5"/>
+      <c r="C431" s="6"/>
+      <c r="D431" s="7"/>
+      <c r="E431" s="8"/>
+      <c r="F431" s="9"/>
+      <c r="G431" s="11"/>
+      <c r="H431" s="9"/>
+      <c r="I431" s="10"/>
+      <c r="J431" s="9"/>
+      <c r="K431" s="10"/>
+    </row>
+    <row r="432" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B432" s="5"/>
+      <c r="C432" s="6"/>
+      <c r="D432" s="7"/>
+      <c r="E432" s="8"/>
+      <c r="F432" s="9"/>
+      <c r="G432" s="11"/>
+      <c r="H432" s="9"/>
+      <c r="I432" s="10"/>
+      <c r="J432" s="9"/>
+      <c r="K432" s="10"/>
+    </row>
+    <row r="433" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B433" s="5"/>
+      <c r="C433" s="6"/>
+      <c r="D433" s="7"/>
+      <c r="E433" s="8"/>
+      <c r="F433" s="9"/>
+      <c r="G433" s="11"/>
+      <c r="H433" s="9"/>
+      <c r="I433" s="10"/>
+      <c r="J433" s="9"/>
+      <c r="K433" s="10"/>
+    </row>
+    <row r="434" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B434" s="5"/>
+      <c r="C434" s="6"/>
+      <c r="D434" s="7"/>
+      <c r="E434" s="8"/>
+      <c r="F434" s="9"/>
+      <c r="G434" s="11"/>
+      <c r="H434" s="9"/>
+      <c r="I434" s="10"/>
+      <c r="J434" s="9"/>
+      <c r="K434" s="10"/>
+    </row>
+    <row r="435" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B435" s="5"/>
+      <c r="C435" s="6"/>
+      <c r="D435" s="7"/>
+      <c r="E435" s="8"/>
+      <c r="F435" s="9"/>
+      <c r="G435" s="11"/>
+      <c r="H435" s="9"/>
+      <c r="I435" s="10"/>
+      <c r="J435" s="9"/>
+      <c r="K435" s="10"/>
+    </row>
+    <row r="436" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B436" s="5"/>
+      <c r="C436" s="6"/>
+      <c r="D436" s="7"/>
+      <c r="E436" s="8"/>
+      <c r="F436" s="9"/>
+      <c r="G436" s="11"/>
+      <c r="H436" s="9"/>
+      <c r="I436" s="10"/>
+      <c r="J436" s="9"/>
+      <c r="K436" s="10"/>
+    </row>
+    <row r="437" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B437" s="5"/>
+      <c r="C437" s="6"/>
+      <c r="D437" s="7"/>
+      <c r="E437" s="8"/>
+      <c r="F437" s="9"/>
+      <c r="G437" s="11"/>
+      <c r="H437" s="9"/>
+      <c r="I437" s="10"/>
+      <c r="J437" s="9"/>
+      <c r="K437" s="10"/>
+    </row>
+    <row r="438" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B438" s="5"/>
+      <c r="C438" s="6"/>
+      <c r="D438" s="7"/>
+      <c r="E438" s="8"/>
+      <c r="F438" s="9"/>
+      <c r="G438" s="11"/>
+      <c r="H438" s="9"/>
+      <c r="I438" s="10"/>
+      <c r="J438" s="9"/>
+      <c r="K438" s="10"/>
+    </row>
+    <row r="439" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B439" s="5"/>
+      <c r="C439" s="6"/>
+      <c r="D439" s="7"/>
+      <c r="E439" s="8"/>
+      <c r="F439" s="9"/>
+      <c r="G439" s="11"/>
+      <c r="H439" s="9"/>
+      <c r="I439" s="10"/>
+      <c r="J439" s="9"/>
+      <c r="K439" s="10"/>
+    </row>
+    <row r="440" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B440" s="5"/>
+      <c r="C440" s="6"/>
+      <c r="D440" s="7"/>
+      <c r="E440" s="8"/>
+      <c r="F440" s="9"/>
+      <c r="G440" s="11"/>
+      <c r="H440" s="9"/>
+      <c r="I440" s="10"/>
+      <c r="J440" s="9"/>
+      <c r="K440" s="10"/>
+    </row>
+    <row r="441" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B441" s="5"/>
+      <c r="C441" s="6"/>
+      <c r="D441" s="7"/>
+      <c r="E441" s="8"/>
+      <c r="F441" s="9"/>
+      <c r="G441" s="11"/>
+      <c r="H441" s="9"/>
+      <c r="I441" s="10"/>
+      <c r="J441" s="9"/>
+      <c r="K441" s="10"/>
+    </row>
+    <row r="442" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B442" s="5"/>
+      <c r="C442" s="6"/>
+      <c r="D442" s="7"/>
+      <c r="E442" s="8"/>
+      <c r="F442" s="9"/>
+      <c r="G442" s="11"/>
+      <c r="H442" s="9"/>
+      <c r="I442" s="10"/>
+      <c r="J442" s="9"/>
+      <c r="K442" s="10"/>
+    </row>
+    <row r="443" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B443" s="5"/>
+      <c r="C443" s="6"/>
+      <c r="D443" s="7"/>
+      <c r="E443" s="8"/>
+      <c r="F443" s="9"/>
+      <c r="G443" s="11"/>
+      <c r="H443" s="9"/>
+      <c r="I443" s="10"/>
+      <c r="J443" s="9"/>
+      <c r="K443" s="10"/>
+    </row>
+    <row r="444" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B444" s="5"/>
+      <c r="C444" s="6"/>
+      <c r="D444" s="7"/>
+      <c r="E444" s="8"/>
+      <c r="F444" s="9"/>
+      <c r="G444" s="11"/>
+      <c r="H444" s="9"/>
+      <c r="I444" s="10"/>
+      <c r="J444" s="9"/>
+      <c r="K444" s="10"/>
+    </row>
+    <row r="445" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B445" s="5"/>
+      <c r="C445" s="6"/>
+      <c r="D445" s="7"/>
+      <c r="E445" s="8"/>
+      <c r="F445" s="9"/>
+      <c r="G445" s="11"/>
+      <c r="H445" s="9"/>
+      <c r="I445" s="10"/>
+      <c r="J445" s="9"/>
+      <c r="K445" s="10"/>
+    </row>
+    <row r="446" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B446" s="5"/>
+      <c r="C446" s="6"/>
+      <c r="D446" s="7"/>
+      <c r="E446" s="8"/>
+      <c r="F446" s="9"/>
+      <c r="G446" s="11"/>
+      <c r="H446" s="9"/>
+      <c r="I446" s="10"/>
+      <c r="J446" s="9"/>
+      <c r="K446" s="10"/>
+    </row>
+    <row r="447" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B447" s="5"/>
+      <c r="C447" s="6"/>
+      <c r="D447" s="7"/>
+      <c r="E447" s="8"/>
+      <c r="F447" s="9"/>
+      <c r="G447" s="11"/>
+      <c r="H447" s="9"/>
+      <c r="I447" s="10"/>
+      <c r="J447" s="9"/>
+      <c r="K447" s="10"/>
+    </row>
+    <row r="448" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B448" s="5"/>
+      <c r="C448" s="6"/>
+      <c r="D448" s="7"/>
+      <c r="E448" s="8"/>
+      <c r="F448" s="9"/>
+      <c r="G448" s="11"/>
+      <c r="H448" s="9"/>
+      <c r="I448" s="10"/>
+      <c r="J448" s="9"/>
+      <c r="K448" s="10"/>
+    </row>
+    <row r="449" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B449" s="5"/>
+      <c r="C449" s="6"/>
+      <c r="D449" s="7"/>
+      <c r="E449" s="8"/>
+      <c r="F449" s="9"/>
+      <c r="G449" s="11"/>
+      <c r="H449" s="9"/>
+      <c r="I449" s="10"/>
+      <c r="J449" s="9"/>
+      <c r="K449" s="10"/>
+    </row>
+    <row r="450" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B450" s="5"/>
+      <c r="C450" s="6"/>
+      <c r="D450" s="7"/>
+      <c r="E450" s="8"/>
+      <c r="F450" s="9"/>
+      <c r="G450" s="11"/>
+      <c r="H450" s="9"/>
+      <c r="I450" s="10"/>
+      <c r="J450" s="9"/>
+      <c r="K450" s="10"/>
+    </row>
+    <row r="451" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B451" s="5"/>
+      <c r="C451" s="6"/>
+      <c r="D451" s="7"/>
+      <c r="E451" s="8"/>
+      <c r="F451" s="9"/>
+      <c r="G451" s="11"/>
+      <c r="H451" s="9"/>
+      <c r="I451" s="10"/>
+      <c r="J451" s="9"/>
+      <c r="K451" s="10"/>
+    </row>
+    <row r="452" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B452" s="5"/>
+      <c r="C452" s="6"/>
+      <c r="D452" s="7"/>
+      <c r="E452" s="8"/>
+      <c r="F452" s="9"/>
+      <c r="G452" s="11"/>
+      <c r="H452" s="9"/>
+      <c r="I452" s="10"/>
+      <c r="J452" s="9"/>
+      <c r="K452" s="10"/>
+    </row>
+    <row r="453" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B453" s="5"/>
+      <c r="C453" s="6"/>
+      <c r="D453" s="7"/>
+      <c r="E453" s="8"/>
+      <c r="F453" s="9"/>
+      <c r="G453" s="11"/>
+      <c r="H453" s="9"/>
+      <c r="I453" s="10"/>
+      <c r="J453" s="9"/>
+      <c r="K453" s="10"/>
+    </row>
+    <row r="454" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B454" s="5"/>
+      <c r="C454" s="6"/>
+      <c r="D454" s="7"/>
+      <c r="E454" s="8"/>
+      <c r="F454" s="9"/>
+      <c r="G454" s="11"/>
+      <c r="H454" s="9"/>
+      <c r="I454" s="10"/>
+      <c r="J454" s="9"/>
+      <c r="K454" s="10"/>
+    </row>
+    <row r="455" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B455" s="5"/>
+      <c r="C455" s="6"/>
+      <c r="D455" s="7"/>
+      <c r="E455" s="8"/>
+      <c r="F455" s="9"/>
+      <c r="G455" s="11"/>
+      <c r="H455" s="9"/>
+      <c r="I455" s="10"/>
+      <c r="J455" s="9"/>
+      <c r="K455" s="10"/>
+    </row>
+    <row r="456" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B456" s="5"/>
+      <c r="C456" s="6"/>
+      <c r="D456" s="7"/>
+      <c r="E456" s="8"/>
+      <c r="F456" s="9"/>
+      <c r="G456" s="11"/>
+      <c r="H456" s="9"/>
+      <c r="I456" s="10"/>
+      <c r="J456" s="9"/>
+      <c r="K456" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{6A2820EB-51E8-43AE-B6D1-21E9F583390C}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{DC5457CA-8319-4A7F-A1F2-46E085F48996}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{84589412-EC92-4A4F-B234-9CDBD7EE2233}"/>
+    <hyperlink ref="C18" r:id="rId4" xr:uid="{59E4998A-642C-4750-A0E5-41D8A136C58F}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{1CC2B260-7198-4FF4-AD7C-505DD9CACD01}"/>
+    <hyperlink ref="C20" r:id="rId6" xr:uid="{E2A6E4AA-BDBC-49F9-9B4E-066CB02688EF}"/>
+    <hyperlink ref="C26" r:id="rId7" xr:uid="{53861621-E8DE-42E6-AFA7-9D2273A385B6}"/>
+    <hyperlink ref="C28" r:id="rId8" xr:uid="{FD1EFA78-5EAC-4F82-98A2-2635F2F9158E}"/>
+    <hyperlink ref="C29" r:id="rId9" xr:uid="{D5F2B9E0-0AC2-4F5C-A68E-B3B50DAECAB5}"/>
+    <hyperlink ref="C34" r:id="rId10" xr:uid="{6561EF92-F0A8-4740-88F2-8E1E885B8FC1}"/>
+    <hyperlink ref="C22" r:id="rId11" xr:uid="{736BB623-6FC1-439A-9179-EF09E3959C88}"/>
+    <hyperlink ref="C90" r:id="rId12" xr:uid="{AE090718-B16E-42A8-BF06-B70C01DF190C}"/>
+    <hyperlink ref="C93" r:id="rId13" display="http://www.cavanarts.ie/Default.aspx?StructureID_str=1" xr:uid="{DD237C2F-EA33-4F9E-989D-6E00007CDF42}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF9FF7-E13D-4A45-A1FD-F52474E6D4E2}">
+  <dimension ref="B1:K51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="2" max="2" width="46.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
@@ -1097,7 +9040,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>67</v>
@@ -1120,1007 +9063,973 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1</v>
+        <v>135</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="9" t="b">
-        <v>1</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="9"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="9" t="b">
-        <v>0</v>
-      </c>
+      <c r="J2" s="9"/>
       <c r="K2" s="10"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H3" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
-        <v>7</v>
+        <v>141</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>142</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="14"/>
+        <v>271</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>11</v>
+        <v>143</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H6" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>151</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>149</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>155</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K10" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>163</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K11" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>33</v>
+        <v>165</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K13" s="12"/>
+        <v>271</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>39</v>
+        <v>273</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H14" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K14" s="12"/>
+        <v>272</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>46</v>
+        <v>274</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>193</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>48</v>
+        <v>194</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K15" s="12"/>
+        <v>272</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>50</v>
+        <v>275</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" s="12"/>
+        <v>272</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>55</v>
+        <v>276</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H17" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K17" s="12"/>
+        <v>272</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>56</v>
+        <v>277</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>57</v>
+        <v>200</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H18" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="12"/>
+        <v>272</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>58</v>
+        <v>278</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>60</v>
+        <v>202</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K19" s="12"/>
+        <v>272</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>62</v>
+        <v>203</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>63</v>
+        <v>204</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="K20" s="12"/>
+        <v>272</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
-        <v>64</v>
+        <v>280</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>65</v>
+        <v>205</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>66</v>
+        <v>206</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="K21" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H22" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
-        <v>75</v>
+        <v>282</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H23" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="H24" s="18"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
+        <v>272</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>83</v>
+        <v>285</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
-        <v>86</v>
+        <v>286</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>87</v>
+        <v>217</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>88</v>
+        <v>218</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F27" s="9"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>90</v>
+        <v>219</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>91</v>
+        <v>220</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F28" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F28" s="9"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
-        <v>92</v>
+        <v>288</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>93</v>
+        <v>221</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>88</v>
+        <v>222</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H29" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>94</v>
+        <v>223</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H30" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F30" s="9"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
-        <v>92</v>
+        <v>290</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>95</v>
+        <v>225</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F31" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H31" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F31" s="9"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
-        <v>96</v>
+        <v>291</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>98</v>
+        <v>228</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F32" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H32" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+        <v>272</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>100</v>
+        <v>229</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
+        <v>272</v>
+      </c>
+      <c r="F33" s="9"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
-        <v>102</v>
+        <v>293</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>103</v>
+        <v>231</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>104</v>
+        <v>232</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H34" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F34" s="9"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
-        <v>105</v>
+        <v>294</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H35" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
-        <v>108</v>
+        <v>295</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>110</v>
+        <v>236</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="H36" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>112</v>
+        <v>237</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H37" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="16"/>
+        <v>272</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="16"/>
+      <c r="B38" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B39" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B40" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B41" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B42" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B43" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F43" s="9"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B45" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B46" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B50" s="5"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B51" s="5"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="10"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{6A2820EB-51E8-43AE-B6D1-21E9F583390C}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{DC5457CA-8319-4A7F-A1F2-46E085F48996}"/>
-    <hyperlink ref="C14" r:id="rId3" xr:uid="{84589412-EC92-4A4F-B234-9CDBD7EE2233}"/>
-    <hyperlink ref="C18" r:id="rId4" xr:uid="{59E4998A-642C-4750-A0E5-41D8A136C58F}"/>
-    <hyperlink ref="C23" r:id="rId5" xr:uid="{1CC2B260-7198-4FF4-AD7C-505DD9CACD01}"/>
-    <hyperlink ref="C20" r:id="rId6" xr:uid="{E2A6E4AA-BDBC-49F9-9B4E-066CB02688EF}"/>
-    <hyperlink ref="C26" r:id="rId7" xr:uid="{53861621-E8DE-42E6-AFA7-9D2273A385B6}"/>
-    <hyperlink ref="C28" r:id="rId8" xr:uid="{FD1EFA78-5EAC-4F82-98A2-2635F2F9158E}"/>
-    <hyperlink ref="C29" r:id="rId9" xr:uid="{D5F2B9E0-0AC2-4F5C-A68E-B3B50DAECAB5}"/>
-    <hyperlink ref="C34" r:id="rId10" xr:uid="{6561EF92-F0A8-4740-88F2-8E1E885B8FC1}"/>
-    <hyperlink ref="C22" r:id="rId11" xr:uid="{736BB623-6FC1-439A-9179-EF09E3959C88}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId12"/>
 </worksheet>
 </file>
--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Documentation\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E34529D-C05D-48B7-A58E-E401632C1EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2F163F-5145-437C-86A5-4F6BC9385645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="490">
   <si>
     <t>O'Mahony Pike Dublin</t>
   </si>
@@ -1554,6 +1554,18 @@
   </si>
   <si>
     <t>+353719111111</t>
+  </si>
+  <si>
+    <t>Out of office - back 04/11/2024</t>
+  </si>
+  <si>
+    <t>Out of office - back 18/11/2024</t>
+  </si>
+  <si>
+    <t>Out of office</t>
+  </si>
+  <si>
+    <t>Automatic response</t>
   </si>
 </sst>
 </file>
@@ -2241,8 +2253,8 @@
   <dimension ref="B1:K456"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3281,7 +3293,9 @@
       <c r="E38" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F38" s="33"/>
+      <c r="F38" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G38" s="34"/>
       <c r="H38" s="33"/>
       <c r="I38" s="35"/>
@@ -3301,7 +3315,9 @@
       <c r="E39" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="33"/>
+      <c r="F39" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G39" s="34"/>
       <c r="H39" s="33"/>
       <c r="I39" s="35"/>
@@ -3321,7 +3337,9 @@
       <c r="E40" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="33"/>
+      <c r="F40" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G40" s="34"/>
       <c r="H40" s="33"/>
       <c r="I40" s="35"/>
@@ -3341,7 +3359,9 @@
       <c r="E41" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F41" s="33"/>
+      <c r="F41" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G41" s="34"/>
       <c r="H41" s="33"/>
       <c r="I41" s="35"/>
@@ -3361,7 +3381,9 @@
       <c r="E42" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F42" s="33"/>
+      <c r="F42" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G42" s="34"/>
       <c r="H42" s="33"/>
       <c r="I42" s="35"/>
@@ -3381,7 +3403,9 @@
       <c r="E43" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F43" s="33"/>
+      <c r="F43" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G43" s="34"/>
       <c r="H43" s="33"/>
       <c r="I43" s="35"/>
@@ -3401,7 +3425,9 @@
       <c r="E44" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F44" s="33"/>
+      <c r="F44" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G44" s="34"/>
       <c r="H44" s="33"/>
       <c r="I44" s="35"/>
@@ -3421,10 +3447,14 @@
       <c r="E45" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F45" s="33"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="35"/>
+      <c r="F45" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G45" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="13"/>
       <c r="J45" s="33"/>
       <c r="K45" s="35"/>
     </row>
@@ -3441,7 +3471,9 @@
       <c r="E46" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="33"/>
+      <c r="F46" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G46" s="34"/>
       <c r="H46" s="33"/>
       <c r="I46" s="35"/>
@@ -3461,7 +3493,9 @@
       <c r="E47" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F47" s="33"/>
+      <c r="F47" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G47" s="34"/>
       <c r="H47" s="33"/>
       <c r="I47" s="35"/>
@@ -3481,7 +3515,9 @@
       <c r="E48" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F48" s="33"/>
+      <c r="F48" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G48" s="34"/>
       <c r="H48" s="33"/>
       <c r="I48" s="35"/>
@@ -3501,7 +3537,9 @@
       <c r="E49" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="33"/>
+      <c r="F49" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G49" s="34"/>
       <c r="H49" s="33"/>
       <c r="I49" s="35"/>
@@ -3521,7 +3559,9 @@
       <c r="E50" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="33"/>
+      <c r="F50" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G50" s="34"/>
       <c r="H50" s="33"/>
       <c r="I50" s="35"/>
@@ -3541,7 +3581,9 @@
       <c r="E51" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F51" s="33"/>
+      <c r="F51" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G51" s="34"/>
       <c r="H51" s="33"/>
       <c r="I51" s="35"/>
@@ -3561,7 +3603,9 @@
       <c r="E52" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="33"/>
+      <c r="F52" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G52" s="34"/>
       <c r="H52" s="33"/>
       <c r="I52" s="35"/>
@@ -3581,8 +3625,12 @@
       <c r="E53" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F53" s="33"/>
-      <c r="G53" s="34"/>
+      <c r="F53" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>486</v>
+      </c>
       <c r="H53" s="33"/>
       <c r="I53" s="35"/>
       <c r="J53" s="33"/>
@@ -3599,7 +3647,9 @@
       <c r="E54" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F54" s="33"/>
+      <c r="F54" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G54" s="34"/>
       <c r="H54" s="33"/>
       <c r="I54" s="35"/>
@@ -3619,8 +3669,12 @@
       <c r="E55" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="34"/>
+      <c r="F55" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G55" s="34" t="s">
+        <v>488</v>
+      </c>
       <c r="H55" s="33"/>
       <c r="I55" s="35"/>
       <c r="J55" s="33"/>
@@ -3639,7 +3693,9 @@
       <c r="E56" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="33"/>
+      <c r="F56" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G56" s="34"/>
       <c r="H56" s="33"/>
       <c r="I56" s="35"/>
@@ -3659,7 +3715,9 @@
       <c r="E57" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="33"/>
+      <c r="F57" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G57" s="34"/>
       <c r="H57" s="33"/>
       <c r="I57" s="35"/>
@@ -3679,7 +3737,9 @@
       <c r="E58" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F58" s="33"/>
+      <c r="F58" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G58" s="34"/>
       <c r="H58" s="33"/>
       <c r="I58" s="35"/>
@@ -3699,7 +3759,9 @@
       <c r="E59" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F59" s="33"/>
+      <c r="F59" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G59" s="34"/>
       <c r="H59" s="33"/>
       <c r="I59" s="35"/>
@@ -3719,7 +3781,9 @@
       <c r="E60" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="33"/>
+      <c r="F60" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G60" s="34"/>
       <c r="H60" s="33"/>
       <c r="I60" s="35"/>
@@ -3739,7 +3803,9 @@
       <c r="E61" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F61" s="33"/>
+      <c r="F61" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G61" s="34"/>
       <c r="H61" s="33"/>
       <c r="I61" s="35"/>
@@ -3759,7 +3825,9 @@
       <c r="E62" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F62" s="33"/>
+      <c r="F62" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G62" s="34"/>
       <c r="H62" s="33"/>
       <c r="I62" s="35"/>
@@ -3779,7 +3847,9 @@
       <c r="E63" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F63" s="33"/>
+      <c r="F63" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G63" s="34"/>
       <c r="H63" s="33"/>
       <c r="I63" s="35"/>
@@ -3799,7 +3869,9 @@
       <c r="E64" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F64" s="33"/>
+      <c r="F64" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G64" s="34"/>
       <c r="H64" s="33"/>
       <c r="I64" s="35"/>
@@ -3819,7 +3891,9 @@
       <c r="E65" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F65" s="33"/>
+      <c r="F65" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G65" s="34"/>
       <c r="H65" s="33"/>
       <c r="I65" s="35"/>
@@ -3837,7 +3911,9 @@
       <c r="E66" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="33"/>
+      <c r="F66" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G66" s="34"/>
       <c r="H66" s="33"/>
       <c r="I66" s="35"/>
@@ -3857,7 +3933,9 @@
       <c r="E67" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="33"/>
+      <c r="F67" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G67" s="34"/>
       <c r="H67" s="33"/>
       <c r="I67" s="35"/>
@@ -3877,7 +3955,9 @@
       <c r="E68" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F68" s="33"/>
+      <c r="F68" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G68" s="34"/>
       <c r="H68" s="33"/>
       <c r="I68" s="35"/>
@@ -3897,7 +3977,9 @@
       <c r="E69" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F69" s="33"/>
+      <c r="F69" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G69" s="34"/>
       <c r="H69" s="33"/>
       <c r="I69" s="35"/>
@@ -3917,8 +3999,12 @@
       <c r="E70" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="34"/>
+      <c r="F70" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>487</v>
+      </c>
       <c r="H70" s="33"/>
       <c r="I70" s="35"/>
       <c r="J70" s="33"/>
@@ -3937,7 +4023,9 @@
       <c r="E71" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F71" s="33"/>
+      <c r="F71" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G71" s="34"/>
       <c r="H71" s="33"/>
       <c r="I71" s="35"/>
@@ -3955,7 +4043,9 @@
       <c r="E72" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F72" s="33"/>
+      <c r="F72" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G72" s="34"/>
       <c r="H72" s="33"/>
       <c r="I72" s="35"/>
@@ -3975,7 +4065,9 @@
       <c r="E73" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F73" s="33"/>
+      <c r="F73" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G73" s="34"/>
       <c r="H73" s="33"/>
       <c r="I73" s="35"/>
@@ -3995,7 +4087,9 @@
       <c r="E74" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F74" s="33"/>
+      <c r="F74" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G74" s="34"/>
       <c r="H74" s="33"/>
       <c r="I74" s="35"/>
@@ -4015,7 +4109,9 @@
       <c r="E75" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F75" s="33"/>
+      <c r="F75" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G75" s="34"/>
       <c r="H75" s="33"/>
       <c r="I75" s="35"/>
@@ -4035,7 +4131,9 @@
       <c r="E76" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="33"/>
+      <c r="F76" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G76" s="34"/>
       <c r="H76" s="33"/>
       <c r="I76" s="35"/>
@@ -4055,7 +4153,9 @@
       <c r="E77" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F77" s="33"/>
+      <c r="F77" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G77" s="34"/>
       <c r="H77" s="33"/>
       <c r="I77" s="35"/>
@@ -4075,7 +4175,9 @@
       <c r="E78" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F78" s="33"/>
+      <c r="F78" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G78" s="34"/>
       <c r="H78" s="33"/>
       <c r="I78" s="35"/>
@@ -4095,7 +4197,9 @@
       <c r="E79" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F79" s="33"/>
+      <c r="F79" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G79" s="34"/>
       <c r="H79" s="33"/>
       <c r="I79" s="35"/>
@@ -4115,7 +4219,9 @@
       <c r="E80" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F80" s="33"/>
+      <c r="F80" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G80" s="34"/>
       <c r="H80" s="33"/>
       <c r="I80" s="35"/>
@@ -4135,7 +4241,9 @@
       <c r="E81" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F81" s="33"/>
+      <c r="F81" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G81" s="34"/>
       <c r="H81" s="33"/>
       <c r="I81" s="35"/>
@@ -4155,8 +4263,12 @@
       <c r="E82" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F82" s="33"/>
-      <c r="G82" s="34"/>
+      <c r="F82" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G82" s="34" t="s">
+        <v>489</v>
+      </c>
       <c r="H82" s="33"/>
       <c r="I82" s="35"/>
       <c r="J82" s="33"/>
@@ -4175,7 +4287,9 @@
       <c r="E83" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F83" s="33"/>
+      <c r="F83" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G83" s="34"/>
       <c r="H83" s="33"/>
       <c r="I83" s="35"/>
@@ -4195,7 +4309,9 @@
       <c r="E84" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F84" s="33"/>
+      <c r="F84" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G84" s="34"/>
       <c r="H84" s="33"/>
       <c r="I84" s="35"/>
@@ -4215,7 +4331,9 @@
       <c r="E85" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F85" s="33"/>
+      <c r="F85" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G85" s="34"/>
       <c r="H85" s="33"/>
       <c r="I85" s="35"/>
@@ -4235,7 +4353,9 @@
       <c r="E86" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F86" s="33"/>
+      <c r="F86" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G86" s="34"/>
       <c r="H86" s="33"/>
       <c r="I86" s="35"/>
@@ -4255,7 +4375,9 @@
       <c r="E87" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="33"/>
+      <c r="F87" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G87" s="34"/>
       <c r="H87" s="33"/>
       <c r="I87" s="35"/>
@@ -4275,8 +4397,12 @@
       <c r="E88" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F88" s="33"/>
-      <c r="G88" s="34"/>
+      <c r="F88" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G88" s="34" t="s">
+        <v>489</v>
+      </c>
       <c r="H88" s="33"/>
       <c r="I88" s="35"/>
       <c r="J88" s="33"/>
@@ -4295,7 +4421,9 @@
       <c r="E89" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F89" s="33"/>
+      <c r="F89" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G89" s="34"/>
       <c r="H89" s="33"/>
       <c r="I89" s="35"/>
@@ -4315,7 +4443,9 @@
       <c r="E90" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F90" s="33"/>
+      <c r="F90" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G90" s="34"/>
       <c r="H90" s="33"/>
       <c r="I90" s="35"/>
@@ -4335,7 +4465,9 @@
       <c r="E91" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F91" s="33"/>
+      <c r="F91" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G91" s="34"/>
       <c r="H91" s="33"/>
       <c r="I91" s="35"/>
@@ -4355,7 +4487,9 @@
       <c r="E92" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F92" s="33"/>
+      <c r="F92" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G92" s="34"/>
       <c r="H92" s="33"/>
       <c r="I92" s="35"/>
@@ -4375,7 +4509,9 @@
       <c r="E93" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F93" s="33"/>
+      <c r="F93" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G93" s="34"/>
       <c r="H93" s="33"/>
       <c r="I93" s="35"/>
@@ -4395,7 +4531,9 @@
       <c r="E94" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F94" s="33"/>
+      <c r="F94" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G94" s="34"/>
       <c r="H94" s="33"/>
       <c r="I94" s="35"/>
@@ -4415,7 +4553,9 @@
       <c r="E95" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F95" s="33"/>
+      <c r="F95" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G95" s="34"/>
       <c r="H95" s="33"/>
       <c r="I95" s="35"/>
@@ -4435,8 +4575,12 @@
       <c r="E96" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F96" s="33"/>
-      <c r="G96" s="34"/>
+      <c r="F96" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G96" s="34" t="s">
+        <v>489</v>
+      </c>
       <c r="H96" s="33"/>
       <c r="I96" s="35"/>
       <c r="J96" s="33"/>
@@ -4455,7 +4599,9 @@
       <c r="E97" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F97" s="33"/>
+      <c r="F97" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G97" s="34"/>
       <c r="H97" s="33"/>
       <c r="I97" s="35"/>
@@ -4473,7 +4619,9 @@
       <c r="E98" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F98" s="33"/>
+      <c r="F98" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G98" s="34"/>
       <c r="H98" s="33"/>
       <c r="I98" s="35"/>
@@ -4493,8 +4641,12 @@
       <c r="E99" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F99" s="33"/>
-      <c r="G99" s="34"/>
+      <c r="F99" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G99" s="34" t="s">
+        <v>70</v>
+      </c>
       <c r="H99" s="33"/>
       <c r="I99" s="35"/>
       <c r="J99" s="33"/>
@@ -4513,7 +4665,9 @@
       <c r="E100" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F100" s="33"/>
+      <c r="F100" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G100" s="34"/>
       <c r="H100" s="33"/>
       <c r="I100" s="35"/>
@@ -4533,7 +4687,9 @@
       <c r="E101" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F101" s="33"/>
+      <c r="F101" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G101" s="34"/>
       <c r="H101" s="33"/>
       <c r="I101" s="35"/>
@@ -4553,7 +4709,9 @@
       <c r="E102" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F102" s="33"/>
+      <c r="F102" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G102" s="34"/>
       <c r="H102" s="33"/>
       <c r="I102" s="35"/>
@@ -4573,7 +4731,9 @@
       <c r="E103" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F103" s="33"/>
+      <c r="F103" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G103" s="34"/>
       <c r="H103" s="33"/>
       <c r="I103" s="35"/>
@@ -4593,8 +4753,12 @@
       <c r="E104" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F104" s="33"/>
-      <c r="G104" s="34"/>
+      <c r="F104" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G104" s="34" t="s">
+        <v>486</v>
+      </c>
       <c r="H104" s="33"/>
       <c r="I104" s="35"/>
       <c r="J104" s="33"/>
@@ -4613,7 +4777,9 @@
       <c r="E105" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F105" s="33"/>
+      <c r="F105" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G105" s="34"/>
       <c r="H105" s="33"/>
       <c r="I105" s="35"/>
@@ -4633,7 +4799,9 @@
       <c r="E106" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F106" s="33"/>
+      <c r="F106" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G106" s="34"/>
       <c r="H106" s="33"/>
       <c r="I106" s="35"/>
@@ -4653,8 +4821,12 @@
       <c r="E107" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F107" s="33"/>
-      <c r="G107" s="34"/>
+      <c r="F107" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G107" s="34" t="s">
+        <v>489</v>
+      </c>
       <c r="H107" s="33"/>
       <c r="I107" s="35"/>
       <c r="J107" s="33"/>
@@ -4673,7 +4845,9 @@
       <c r="E108" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F108" s="33"/>
+      <c r="F108" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G108" s="34"/>
       <c r="H108" s="33"/>
       <c r="I108" s="35"/>
@@ -4693,7 +4867,9 @@
       <c r="E109" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F109" s="33"/>
+      <c r="F109" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G109" s="34"/>
       <c r="H109" s="33"/>
       <c r="I109" s="35"/>
@@ -4713,7 +4889,9 @@
       <c r="E110" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F110" s="33"/>
+      <c r="F110" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G110" s="34"/>
       <c r="H110" s="33"/>
       <c r="I110" s="35"/>
@@ -4733,7 +4911,9 @@
       <c r="E111" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F111" s="33"/>
+      <c r="F111" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G111" s="34"/>
       <c r="H111" s="33"/>
       <c r="I111" s="35"/>
@@ -4753,7 +4933,9 @@
       <c r="E112" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F112" s="33"/>
+      <c r="F112" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G112" s="34"/>
       <c r="H112" s="33"/>
       <c r="I112" s="35"/>
@@ -4773,7 +4955,9 @@
       <c r="E113" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F113" s="33"/>
+      <c r="F113" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G113" s="34"/>
       <c r="H113" s="33"/>
       <c r="I113" s="35"/>
@@ -4793,7 +4977,9 @@
       <c r="E114" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F114" s="33"/>
+      <c r="F114" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G114" s="34"/>
       <c r="H114" s="33"/>
       <c r="I114" s="35"/>
@@ -4813,7 +4999,9 @@
       <c r="E115" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F115" s="33"/>
+      <c r="F115" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G115" s="34"/>
       <c r="H115" s="33"/>
       <c r="I115" s="35"/>
@@ -4833,7 +5021,9 @@
       <c r="E116" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F116" s="33"/>
+      <c r="F116" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G116" s="34"/>
       <c r="H116" s="33"/>
       <c r="I116" s="35"/>
@@ -4853,7 +5043,9 @@
       <c r="E117" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F117" s="33"/>
+      <c r="F117" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G117" s="34"/>
       <c r="H117" s="33"/>
       <c r="I117" s="35"/>
@@ -4873,7 +5065,9 @@
       <c r="E118" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F118" s="33"/>
+      <c r="F118" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G118" s="34"/>
       <c r="H118" s="33"/>
       <c r="I118" s="35"/>
@@ -4893,7 +5087,9 @@
       <c r="E119" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F119" s="33"/>
+      <c r="F119" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G119" s="34"/>
       <c r="H119" s="33"/>
       <c r="I119" s="35"/>
@@ -4913,7 +5109,9 @@
       <c r="E120" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F120" s="33"/>
+      <c r="F120" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G120" s="34"/>
       <c r="H120" s="33"/>
       <c r="I120" s="35"/>
@@ -4933,7 +5131,9 @@
       <c r="E121" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F121" s="33"/>
+      <c r="F121" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G121" s="34"/>
       <c r="H121" s="33"/>
       <c r="I121" s="35"/>
@@ -4953,7 +5153,9 @@
       <c r="E122" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F122" s="33"/>
+      <c r="F122" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G122" s="34"/>
       <c r="H122" s="33"/>
       <c r="I122" s="35"/>
@@ -4973,7 +5175,9 @@
       <c r="E123" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F123" s="33"/>
+      <c r="F123" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G123" s="34"/>
       <c r="H123" s="33"/>
       <c r="I123" s="35"/>
@@ -4993,7 +5197,9 @@
       <c r="E124" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F124" s="33"/>
+      <c r="F124" s="33" t="b">
+        <v>1</v>
+      </c>
       <c r="G124" s="34"/>
       <c r="H124" s="33"/>
       <c r="I124" s="35"/>

--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Documentation\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2F163F-5145-437C-86A5-4F6BC9385645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900110A-2B9B-4196-95B8-74367F81696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="493">
   <si>
     <t>O'Mahony Pike Dublin</t>
   </si>
@@ -1566,6 +1566,15 @@
   </si>
   <si>
     <t>Automatic response</t>
+  </si>
+  <si>
+    <t>Responded advising I send to the Corporate dept</t>
+  </si>
+  <si>
+    <t>Galway County Council - Corporate</t>
+  </si>
+  <si>
+    <t>corpserv@galwaycoco.ie</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1767,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1889,9 +1898,6 @@
           <xfpb:xfComplement i="0"/>
         </ext>
       </extLst>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2250,11 +2256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
-  <dimension ref="B1:K456"/>
+  <dimension ref="B1:K457"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3298,9 +3304,9 @@
       </c>
       <c r="G38" s="34"/>
       <c r="H38" s="33"/>
-      <c r="I38" s="35"/>
+      <c r="I38" s="34"/>
       <c r="J38" s="33"/>
-      <c r="K38" s="35"/>
+      <c r="K38" s="34"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="29" t="s">
@@ -3320,9 +3326,9 @@
       </c>
       <c r="G39" s="34"/>
       <c r="H39" s="33"/>
-      <c r="I39" s="35"/>
+      <c r="I39" s="34"/>
       <c r="J39" s="33"/>
-      <c r="K39" s="35"/>
+      <c r="K39" s="34"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="29" t="s">
@@ -3342,9 +3348,9 @@
       </c>
       <c r="G40" s="34"/>
       <c r="H40" s="33"/>
-      <c r="I40" s="35"/>
+      <c r="I40" s="34"/>
       <c r="J40" s="33"/>
-      <c r="K40" s="35"/>
+      <c r="K40" s="34"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="29" t="s">
@@ -3364,9 +3370,9 @@
       </c>
       <c r="G41" s="34"/>
       <c r="H41" s="33"/>
-      <c r="I41" s="35"/>
+      <c r="I41" s="34"/>
       <c r="J41" s="33"/>
-      <c r="K41" s="35"/>
+      <c r="K41" s="34"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="29" t="s">
@@ -3386,9 +3392,9 @@
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="33"/>
-      <c r="I42" s="35"/>
+      <c r="I42" s="34"/>
       <c r="J42" s="33"/>
-      <c r="K42" s="35"/>
+      <c r="K42" s="34"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43" s="29" t="s">
@@ -3408,9 +3414,9 @@
       </c>
       <c r="G43" s="34"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="35"/>
+      <c r="I43" s="34"/>
       <c r="J43" s="33"/>
-      <c r="K43" s="35"/>
+      <c r="K43" s="34"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="29" t="s">
@@ -3430,9 +3436,9 @@
       </c>
       <c r="G44" s="34"/>
       <c r="H44" s="33"/>
-      <c r="I44" s="35"/>
+      <c r="I44" s="34"/>
       <c r="J44" s="33"/>
-      <c r="K44" s="35"/>
+      <c r="K44" s="34"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="29" t="s">
@@ -3456,7 +3462,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="13"/>
       <c r="J45" s="33"/>
-      <c r="K45" s="35"/>
+      <c r="K45" s="34"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" s="29" t="s">
@@ -3476,9 +3482,9 @@
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="35"/>
+      <c r="I46" s="34"/>
       <c r="J46" s="33"/>
-      <c r="K46" s="35"/>
+      <c r="K46" s="34"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="29" t="s">
@@ -3498,9 +3504,9 @@
       </c>
       <c r="G47" s="34"/>
       <c r="H47" s="33"/>
-      <c r="I47" s="35"/>
+      <c r="I47" s="34"/>
       <c r="J47" s="33"/>
-      <c r="K47" s="35"/>
+      <c r="K47" s="34"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B48" s="29" t="s">
@@ -3520,9 +3526,9 @@
       </c>
       <c r="G48" s="34"/>
       <c r="H48" s="33"/>
-      <c r="I48" s="35"/>
+      <c r="I48" s="34"/>
       <c r="J48" s="33"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="34"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="29" t="s">
@@ -3542,9 +3548,9 @@
       </c>
       <c r="G49" s="34"/>
       <c r="H49" s="33"/>
-      <c r="I49" s="35"/>
+      <c r="I49" s="34"/>
       <c r="J49" s="33"/>
-      <c r="K49" s="35"/>
+      <c r="K49" s="34"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="29" t="s">
@@ -3564,9 +3570,9 @@
       </c>
       <c r="G50" s="34"/>
       <c r="H50" s="33"/>
-      <c r="I50" s="35"/>
+      <c r="I50" s="34"/>
       <c r="J50" s="33"/>
-      <c r="K50" s="35"/>
+      <c r="K50" s="34"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51" s="29" t="s">
@@ -3586,9 +3592,9 @@
       </c>
       <c r="G51" s="34"/>
       <c r="H51" s="33"/>
-      <c r="I51" s="35"/>
+      <c r="I51" s="34"/>
       <c r="J51" s="33"/>
-      <c r="K51" s="35"/>
+      <c r="K51" s="34"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" s="29" t="s">
@@ -3608,9 +3614,9 @@
       </c>
       <c r="G52" s="34"/>
       <c r="H52" s="33"/>
-      <c r="I52" s="35"/>
+      <c r="I52" s="34"/>
       <c r="J52" s="33"/>
-      <c r="K52" s="35"/>
+      <c r="K52" s="34"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B53" s="29" t="s">
@@ -3632,9 +3638,9 @@
         <v>486</v>
       </c>
       <c r="H53" s="33"/>
-      <c r="I53" s="35"/>
+      <c r="I53" s="34"/>
       <c r="J53" s="33"/>
-      <c r="K53" s="35"/>
+      <c r="K53" s="34"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="29" t="s">
@@ -3652,9 +3658,9 @@
       </c>
       <c r="G54" s="34"/>
       <c r="H54" s="33"/>
-      <c r="I54" s="35"/>
+      <c r="I54" s="34"/>
       <c r="J54" s="33"/>
-      <c r="K54" s="35"/>
+      <c r="K54" s="34"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55" s="29" t="s">
@@ -3676,9 +3682,9 @@
         <v>488</v>
       </c>
       <c r="H55" s="33"/>
-      <c r="I55" s="35"/>
+      <c r="I55" s="34"/>
       <c r="J55" s="33"/>
-      <c r="K55" s="35"/>
+      <c r="K55" s="34"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B56" s="29" t="s">
@@ -3698,9 +3704,9 @@
       </c>
       <c r="G56" s="34"/>
       <c r="H56" s="33"/>
-      <c r="I56" s="35"/>
+      <c r="I56" s="34"/>
       <c r="J56" s="33"/>
-      <c r="K56" s="35"/>
+      <c r="K56" s="34"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B57" s="29" t="s">
@@ -3720,9 +3726,9 @@
       </c>
       <c r="G57" s="34"/>
       <c r="H57" s="33"/>
-      <c r="I57" s="35"/>
+      <c r="I57" s="34"/>
       <c r="J57" s="33"/>
-      <c r="K57" s="35"/>
+      <c r="K57" s="34"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B58" s="29" t="s">
@@ -3742,9 +3748,9 @@
       </c>
       <c r="G58" s="34"/>
       <c r="H58" s="33"/>
-      <c r="I58" s="35"/>
+      <c r="I58" s="34"/>
       <c r="J58" s="33"/>
-      <c r="K58" s="35"/>
+      <c r="K58" s="34"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" s="29" t="s">
@@ -3764,9 +3770,9 @@
       </c>
       <c r="G59" s="34"/>
       <c r="H59" s="33"/>
-      <c r="I59" s="35"/>
+      <c r="I59" s="34"/>
       <c r="J59" s="33"/>
-      <c r="K59" s="35"/>
+      <c r="K59" s="34"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60" s="29" t="s">
@@ -3786,9 +3792,9 @@
       </c>
       <c r="G60" s="34"/>
       <c r="H60" s="33"/>
-      <c r="I60" s="35"/>
+      <c r="I60" s="34"/>
       <c r="J60" s="33"/>
-      <c r="K60" s="35"/>
+      <c r="K60" s="34"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="29" t="s">
@@ -3808,9 +3814,9 @@
       </c>
       <c r="G61" s="34"/>
       <c r="H61" s="33"/>
-      <c r="I61" s="35"/>
+      <c r="I61" s="34"/>
       <c r="J61" s="33"/>
-      <c r="K61" s="35"/>
+      <c r="K61" s="34"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62" s="29" t="s">
@@ -3830,9 +3836,9 @@
       </c>
       <c r="G62" s="34"/>
       <c r="H62" s="33"/>
-      <c r="I62" s="35"/>
+      <c r="I62" s="34"/>
       <c r="J62" s="33"/>
-      <c r="K62" s="35"/>
+      <c r="K62" s="34"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="29" t="s">
@@ -3852,9 +3858,9 @@
       </c>
       <c r="G63" s="34"/>
       <c r="H63" s="33"/>
-      <c r="I63" s="35"/>
+      <c r="I63" s="34"/>
       <c r="J63" s="33"/>
-      <c r="K63" s="35"/>
+      <c r="K63" s="34"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="29" t="s">
@@ -3874,9 +3880,9 @@
       </c>
       <c r="G64" s="34"/>
       <c r="H64" s="33"/>
-      <c r="I64" s="35"/>
+      <c r="I64" s="34"/>
       <c r="J64" s="33"/>
-      <c r="K64" s="35"/>
+      <c r="K64" s="34"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65" s="29" t="s">
@@ -3896,9 +3902,9 @@
       </c>
       <c r="G65" s="34"/>
       <c r="H65" s="33"/>
-      <c r="I65" s="35"/>
+      <c r="I65" s="34"/>
       <c r="J65" s="33"/>
-      <c r="K65" s="35"/>
+      <c r="K65" s="34"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B66" s="29" t="s">
@@ -3916,9 +3922,9 @@
       </c>
       <c r="G66" s="34"/>
       <c r="H66" s="33"/>
-      <c r="I66" s="35"/>
+      <c r="I66" s="34"/>
       <c r="J66" s="33"/>
-      <c r="K66" s="35"/>
+      <c r="K66" s="34"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67" s="29" t="s">
@@ -3938,9 +3944,9 @@
       </c>
       <c r="G67" s="34"/>
       <c r="H67" s="33"/>
-      <c r="I67" s="35"/>
+      <c r="I67" s="34"/>
       <c r="J67" s="33"/>
-      <c r="K67" s="35"/>
+      <c r="K67" s="34"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68" s="29" t="s">
@@ -3960,9 +3966,9 @@
       </c>
       <c r="G68" s="34"/>
       <c r="H68" s="33"/>
-      <c r="I68" s="35"/>
+      <c r="I68" s="34"/>
       <c r="J68" s="33"/>
-      <c r="K68" s="35"/>
+      <c r="K68" s="34"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69" s="29" t="s">
@@ -3982,9 +3988,9 @@
       </c>
       <c r="G69" s="34"/>
       <c r="H69" s="33"/>
-      <c r="I69" s="35"/>
+      <c r="I69" s="34"/>
       <c r="J69" s="33"/>
-      <c r="K69" s="35"/>
+      <c r="K69" s="34"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B70" s="29" t="s">
@@ -4006,9 +4012,9 @@
         <v>487</v>
       </c>
       <c r="H70" s="33"/>
-      <c r="I70" s="35"/>
+      <c r="I70" s="34"/>
       <c r="J70" s="33"/>
-      <c r="K70" s="35"/>
+      <c r="K70" s="34"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="29" t="s">
@@ -4028,9 +4034,9 @@
       </c>
       <c r="G71" s="34"/>
       <c r="H71" s="33"/>
-      <c r="I71" s="35"/>
+      <c r="I71" s="34"/>
       <c r="J71" s="33"/>
-      <c r="K71" s="35"/>
+      <c r="K71" s="34"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B72" s="29" t="s">
@@ -4048,9 +4054,9 @@
       </c>
       <c r="G72" s="34"/>
       <c r="H72" s="33"/>
-      <c r="I72" s="35"/>
+      <c r="I72" s="34"/>
       <c r="J72" s="33"/>
-      <c r="K72" s="35"/>
+      <c r="K72" s="34"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="29" t="s">
@@ -4070,9 +4076,9 @@
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="33"/>
-      <c r="I73" s="35"/>
+      <c r="I73" s="34"/>
       <c r="J73" s="33"/>
-      <c r="K73" s="35"/>
+      <c r="K73" s="34"/>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74" s="29" t="s">
@@ -4092,9 +4098,9 @@
       </c>
       <c r="G74" s="34"/>
       <c r="H74" s="33"/>
-      <c r="I74" s="35"/>
+      <c r="I74" s="34"/>
       <c r="J74" s="33"/>
-      <c r="K74" s="35"/>
+      <c r="K74" s="34"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="29" t="s">
@@ -4114,9 +4120,9 @@
       </c>
       <c r="G75" s="34"/>
       <c r="H75" s="33"/>
-      <c r="I75" s="35"/>
+      <c r="I75" s="34"/>
       <c r="J75" s="33"/>
-      <c r="K75" s="35"/>
+      <c r="K75" s="34"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76" s="29" t="s">
@@ -4136,9 +4142,9 @@
       </c>
       <c r="G76" s="34"/>
       <c r="H76" s="33"/>
-      <c r="I76" s="35"/>
+      <c r="I76" s="34"/>
       <c r="J76" s="33"/>
-      <c r="K76" s="35"/>
+      <c r="K76" s="34"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B77" s="29" t="s">
@@ -4158,9 +4164,9 @@
       </c>
       <c r="G77" s="34"/>
       <c r="H77" s="33"/>
-      <c r="I77" s="35"/>
+      <c r="I77" s="34"/>
       <c r="J77" s="33"/>
-      <c r="K77" s="35"/>
+      <c r="K77" s="34"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78" s="29" t="s">
@@ -4180,9 +4186,9 @@
       </c>
       <c r="G78" s="34"/>
       <c r="H78" s="33"/>
-      <c r="I78" s="35"/>
+      <c r="I78" s="34"/>
       <c r="J78" s="33"/>
-      <c r="K78" s="35"/>
+      <c r="K78" s="34"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B79" s="29" t="s">
@@ -4202,9 +4208,9 @@
       </c>
       <c r="G79" s="34"/>
       <c r="H79" s="33"/>
-      <c r="I79" s="35"/>
+      <c r="I79" s="34"/>
       <c r="J79" s="33"/>
-      <c r="K79" s="35"/>
+      <c r="K79" s="34"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80" s="29" t="s">
@@ -4224,9 +4230,9 @@
       </c>
       <c r="G80" s="34"/>
       <c r="H80" s="33"/>
-      <c r="I80" s="35"/>
+      <c r="I80" s="34"/>
       <c r="J80" s="33"/>
-      <c r="K80" s="35"/>
+      <c r="K80" s="34"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" s="29" t="s">
@@ -4246,9 +4252,9 @@
       </c>
       <c r="G81" s="34"/>
       <c r="H81" s="33"/>
-      <c r="I81" s="35"/>
+      <c r="I81" s="34"/>
       <c r="J81" s="33"/>
-      <c r="K81" s="35"/>
+      <c r="K81" s="34"/>
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82" s="29" t="s">
@@ -4270,9 +4276,9 @@
         <v>489</v>
       </c>
       <c r="H82" s="33"/>
-      <c r="I82" s="35"/>
+      <c r="I82" s="34"/>
       <c r="J82" s="33"/>
-      <c r="K82" s="35"/>
+      <c r="K82" s="34"/>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B83" s="29" t="s">
@@ -4292,9 +4298,9 @@
       </c>
       <c r="G83" s="34"/>
       <c r="H83" s="33"/>
-      <c r="I83" s="35"/>
+      <c r="I83" s="34"/>
       <c r="J83" s="33"/>
-      <c r="K83" s="35"/>
+      <c r="K83" s="34"/>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B84" s="29" t="s">
@@ -4314,9 +4320,9 @@
       </c>
       <c r="G84" s="34"/>
       <c r="H84" s="33"/>
-      <c r="I84" s="35"/>
+      <c r="I84" s="34"/>
       <c r="J84" s="33"/>
-      <c r="K84" s="35"/>
+      <c r="K84" s="34"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B85" s="29" t="s">
@@ -4336,9 +4342,9 @@
       </c>
       <c r="G85" s="34"/>
       <c r="H85" s="33"/>
-      <c r="I85" s="35"/>
+      <c r="I85" s="34"/>
       <c r="J85" s="33"/>
-      <c r="K85" s="35"/>
+      <c r="K85" s="34"/>
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B86" s="29" t="s">
@@ -4358,9 +4364,9 @@
       </c>
       <c r="G86" s="34"/>
       <c r="H86" s="33"/>
-      <c r="I86" s="35"/>
+      <c r="I86" s="34"/>
       <c r="J86" s="33"/>
-      <c r="K86" s="35"/>
+      <c r="K86" s="34"/>
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B87" s="29" t="s">
@@ -4380,9 +4386,9 @@
       </c>
       <c r="G87" s="34"/>
       <c r="H87" s="33"/>
-      <c r="I87" s="35"/>
+      <c r="I87" s="34"/>
       <c r="J87" s="33"/>
-      <c r="K87" s="35"/>
+      <c r="K87" s="34"/>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B88" s="29" t="s">
@@ -4404,9 +4410,9 @@
         <v>489</v>
       </c>
       <c r="H88" s="33"/>
-      <c r="I88" s="35"/>
+      <c r="I88" s="34"/>
       <c r="J88" s="33"/>
-      <c r="K88" s="35"/>
+      <c r="K88" s="34"/>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B89" s="29" t="s">
@@ -4426,15 +4432,15 @@
       </c>
       <c r="G89" s="34"/>
       <c r="H89" s="33"/>
-      <c r="I89" s="35"/>
+      <c r="I89" s="34"/>
       <c r="J89" s="33"/>
-      <c r="K89" s="35"/>
+      <c r="K89" s="34"/>
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B90" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="C90" s="36" t="s">
+      <c r="C90" s="35" t="s">
         <v>399</v>
       </c>
       <c r="D90" s="31" t="s">
@@ -4448,9 +4454,9 @@
       </c>
       <c r="G90" s="34"/>
       <c r="H90" s="33"/>
-      <c r="I90" s="35"/>
+      <c r="I90" s="34"/>
       <c r="J90" s="33"/>
-      <c r="K90" s="35"/>
+      <c r="K90" s="34"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B91" s="29" t="s">
@@ -4470,9 +4476,9 @@
       </c>
       <c r="G91" s="34"/>
       <c r="H91" s="33"/>
-      <c r="I91" s="35"/>
+      <c r="I91" s="34"/>
       <c r="J91" s="33"/>
-      <c r="K91" s="35"/>
+      <c r="K91" s="34"/>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B92" s="29" t="s">
@@ -4492,15 +4498,15 @@
       </c>
       <c r="G92" s="34"/>
       <c r="H92" s="33"/>
-      <c r="I92" s="35"/>
+      <c r="I92" s="34"/>
       <c r="J92" s="33"/>
-      <c r="K92" s="35"/>
+      <c r="K92" s="34"/>
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B93" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="C93" s="37" t="s">
+      <c r="C93" s="36" t="s">
         <v>407</v>
       </c>
       <c r="D93" s="31" t="s">
@@ -4514,9 +4520,9 @@
       </c>
       <c r="G93" s="34"/>
       <c r="H93" s="33"/>
-      <c r="I93" s="35"/>
+      <c r="I93" s="34"/>
       <c r="J93" s="33"/>
-      <c r="K93" s="35"/>
+      <c r="K93" s="34"/>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B94" s="29" t="s">
@@ -4536,9 +4542,9 @@
       </c>
       <c r="G94" s="34"/>
       <c r="H94" s="33"/>
-      <c r="I94" s="35"/>
+      <c r="I94" s="34"/>
       <c r="J94" s="33"/>
-      <c r="K94" s="35"/>
+      <c r="K94" s="34"/>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B95" s="29" t="s">
@@ -4558,9 +4564,9 @@
       </c>
       <c r="G95" s="34"/>
       <c r="H95" s="33"/>
-      <c r="I95" s="35"/>
+      <c r="I95" s="34"/>
       <c r="J95" s="33"/>
-      <c r="K95" s="35"/>
+      <c r="K95" s="34"/>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B96" s="29" t="s">
@@ -4582,9 +4588,9 @@
         <v>489</v>
       </c>
       <c r="H96" s="33"/>
-      <c r="I96" s="35"/>
+      <c r="I96" s="34"/>
       <c r="J96" s="33"/>
-      <c r="K96" s="35"/>
+      <c r="K96" s="34"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B97" s="29" t="s">
@@ -4604,9 +4610,9 @@
       </c>
       <c r="G97" s="34"/>
       <c r="H97" s="33"/>
-      <c r="I97" s="35"/>
+      <c r="I97" s="34"/>
       <c r="J97" s="33"/>
-      <c r="K97" s="35"/>
+      <c r="K97" s="34"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B98" s="29" t="s">
@@ -4624,9 +4630,9 @@
       </c>
       <c r="G98" s="34"/>
       <c r="H98" s="33"/>
-      <c r="I98" s="35"/>
+      <c r="I98" s="34"/>
       <c r="J98" s="33"/>
-      <c r="K98" s="35"/>
+      <c r="K98" s="34"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B99" s="29" t="s">
@@ -4648,9 +4654,9 @@
         <v>70</v>
       </c>
       <c r="H99" s="33"/>
-      <c r="I99" s="35"/>
+      <c r="I99" s="34"/>
       <c r="J99" s="33"/>
-      <c r="K99" s="35"/>
+      <c r="K99" s="34"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B100" s="29" t="s">
@@ -4670,9 +4676,9 @@
       </c>
       <c r="G100" s="34"/>
       <c r="H100" s="33"/>
-      <c r="I100" s="35"/>
+      <c r="I100" s="34"/>
       <c r="J100" s="33"/>
-      <c r="K100" s="35"/>
+      <c r="K100" s="34"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B101" s="29" t="s">
@@ -4692,9 +4698,9 @@
       </c>
       <c r="G101" s="34"/>
       <c r="H101" s="33"/>
-      <c r="I101" s="35"/>
+      <c r="I101" s="34"/>
       <c r="J101" s="33"/>
-      <c r="K101" s="35"/>
+      <c r="K101" s="34"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B102" s="29" t="s">
@@ -4714,9 +4720,9 @@
       </c>
       <c r="G102" s="34"/>
       <c r="H102" s="33"/>
-      <c r="I102" s="35"/>
+      <c r="I102" s="34"/>
       <c r="J102" s="33"/>
-      <c r="K102" s="35"/>
+      <c r="K102" s="34"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B103" s="29" t="s">
@@ -4736,9 +4742,9 @@
       </c>
       <c r="G103" s="34"/>
       <c r="H103" s="33"/>
-      <c r="I103" s="35"/>
+      <c r="I103" s="34"/>
       <c r="J103" s="33"/>
-      <c r="K103" s="35"/>
+      <c r="K103" s="34"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B104" s="29" t="s">
@@ -4760,9 +4766,9 @@
         <v>486</v>
       </c>
       <c r="H104" s="33"/>
-      <c r="I104" s="35"/>
+      <c r="I104" s="34"/>
       <c r="J104" s="33"/>
-      <c r="K104" s="35"/>
+      <c r="K104" s="34"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B105" s="29" t="s">
@@ -4782,9 +4788,9 @@
       </c>
       <c r="G105" s="34"/>
       <c r="H105" s="33"/>
-      <c r="I105" s="35"/>
+      <c r="I105" s="34"/>
       <c r="J105" s="33"/>
-      <c r="K105" s="35"/>
+      <c r="K105" s="34"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B106" s="29" t="s">
@@ -4804,9 +4810,9 @@
       </c>
       <c r="G106" s="34"/>
       <c r="H106" s="33"/>
-      <c r="I106" s="35"/>
+      <c r="I106" s="34"/>
       <c r="J106" s="33"/>
-      <c r="K106" s="35"/>
+      <c r="K106" s="34"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B107" s="29" t="s">
@@ -4828,9 +4834,9 @@
         <v>489</v>
       </c>
       <c r="H107" s="33"/>
-      <c r="I107" s="35"/>
+      <c r="I107" s="34"/>
       <c r="J107" s="33"/>
-      <c r="K107" s="35"/>
+      <c r="K107" s="34"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B108" s="29" t="s">
@@ -4850,9 +4856,9 @@
       </c>
       <c r="G108" s="34"/>
       <c r="H108" s="33"/>
-      <c r="I108" s="35"/>
+      <c r="I108" s="34"/>
       <c r="J108" s="33"/>
-      <c r="K108" s="35"/>
+      <c r="K108" s="34"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B109" s="29" t="s">
@@ -4872,9 +4878,9 @@
       </c>
       <c r="G109" s="34"/>
       <c r="H109" s="33"/>
-      <c r="I109" s="35"/>
+      <c r="I109" s="34"/>
       <c r="J109" s="33"/>
-      <c r="K109" s="35"/>
+      <c r="K109" s="34"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B110" s="29" t="s">
@@ -4894,9 +4900,9 @@
       </c>
       <c r="G110" s="34"/>
       <c r="H110" s="33"/>
-      <c r="I110" s="35"/>
+      <c r="I110" s="34"/>
       <c r="J110" s="33"/>
-      <c r="K110" s="35"/>
+      <c r="K110" s="34"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B111" s="29" t="s">
@@ -4916,9 +4922,9 @@
       </c>
       <c r="G111" s="34"/>
       <c r="H111" s="33"/>
-      <c r="I111" s="35"/>
+      <c r="I111" s="34"/>
       <c r="J111" s="33"/>
-      <c r="K111" s="35"/>
+      <c r="K111" s="34"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B112" s="29" t="s">
@@ -4938,9 +4944,9 @@
       </c>
       <c r="G112" s="34"/>
       <c r="H112" s="33"/>
-      <c r="I112" s="35"/>
+      <c r="I112" s="34"/>
       <c r="J112" s="33"/>
-      <c r="K112" s="35"/>
+      <c r="K112" s="34"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B113" s="29" t="s">
@@ -4960,9 +4966,9 @@
       </c>
       <c r="G113" s="34"/>
       <c r="H113" s="33"/>
-      <c r="I113" s="35"/>
+      <c r="I113" s="34"/>
       <c r="J113" s="33"/>
-      <c r="K113" s="35"/>
+      <c r="K113" s="34"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B114" s="29" t="s">
@@ -4982,9 +4988,9 @@
       </c>
       <c r="G114" s="34"/>
       <c r="H114" s="33"/>
-      <c r="I114" s="35"/>
+      <c r="I114" s="34"/>
       <c r="J114" s="33"/>
-      <c r="K114" s="35"/>
+      <c r="K114" s="34"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B115" s="29" t="s">
@@ -5004,9 +5010,9 @@
       </c>
       <c r="G115" s="34"/>
       <c r="H115" s="33"/>
-      <c r="I115" s="35"/>
+      <c r="I115" s="34"/>
       <c r="J115" s="33"/>
-      <c r="K115" s="35"/>
+      <c r="K115" s="34"/>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B116" s="29" t="s">
@@ -5026,11 +5032,11 @@
       </c>
       <c r="G116" s="34"/>
       <c r="H116" s="33"/>
-      <c r="I116" s="35"/>
+      <c r="I116" s="34"/>
       <c r="J116" s="33"/>
-      <c r="K116" s="35"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="K116" s="34"/>
+    </row>
+    <row r="117" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B117" s="29" t="s">
         <v>466</v>
       </c>
@@ -5046,11 +5052,13 @@
       <c r="F117" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="G117" s="34"/>
-      <c r="H117" s="33"/>
-      <c r="I117" s="35"/>
-      <c r="J117" s="33"/>
-      <c r="K117" s="35"/>
+      <c r="G117" s="34" t="s">
+        <v>490</v>
+      </c>
+      <c r="H117" s="12"/>
+      <c r="I117" s="13"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="13"/>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B118" s="29" t="s">
@@ -5070,9 +5078,9 @@
       </c>
       <c r="G118" s="34"/>
       <c r="H118" s="33"/>
-      <c r="I118" s="35"/>
+      <c r="I118" s="34"/>
       <c r="J118" s="33"/>
-      <c r="K118" s="35"/>
+      <c r="K118" s="34"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B119" s="29" t="s">
@@ -5092,9 +5100,9 @@
       </c>
       <c r="G119" s="34"/>
       <c r="H119" s="33"/>
-      <c r="I119" s="35"/>
+      <c r="I119" s="34"/>
       <c r="J119" s="33"/>
-      <c r="K119" s="35"/>
+      <c r="K119" s="34"/>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B120" s="29" t="s">
@@ -5114,20 +5122,18 @@
       </c>
       <c r="G120" s="34"/>
       <c r="H120" s="33"/>
-      <c r="I120" s="35"/>
+      <c r="I120" s="34"/>
       <c r="J120" s="33"/>
-      <c r="K120" s="35"/>
+      <c r="K120" s="34"/>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B121" s="29" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>475</v>
-      </c>
-      <c r="D121" s="31" t="s">
-        <v>476</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="D121" s="14"/>
       <c r="E121" s="32" t="s">
         <v>73</v>
       </c>
@@ -5135,17 +5141,21 @@
         <v>1</v>
       </c>
       <c r="G121" s="34"/>
-      <c r="H121" s="33"/>
-      <c r="I121" s="35"/>
-      <c r="J121" s="33"/>
-      <c r="K121" s="35"/>
+      <c r="H121" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" s="34"/>
+      <c r="J121" s="33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K121" s="34"/>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B122" s="29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D122" s="31" t="s">
         <v>476</v>
@@ -5158,19 +5168,19 @@
       </c>
       <c r="G122" s="34"/>
       <c r="H122" s="33"/>
-      <c r="I122" s="35"/>
+      <c r="I122" s="34"/>
       <c r="J122" s="33"/>
-      <c r="K122" s="35"/>
+      <c r="K122" s="34"/>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B123" s="29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E123" s="32" t="s">
         <v>73</v>
@@ -5180,19 +5190,19 @@
       </c>
       <c r="G123" s="34"/>
       <c r="H123" s="33"/>
-      <c r="I123" s="35"/>
+      <c r="I123" s="34"/>
       <c r="J123" s="33"/>
-      <c r="K123" s="35"/>
+      <c r="K123" s="34"/>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B124" s="29" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="E124" s="32" t="s">
         <v>73</v>
@@ -5202,21 +5212,31 @@
       </c>
       <c r="G124" s="34"/>
       <c r="H124" s="33"/>
-      <c r="I124" s="35"/>
+      <c r="I124" s="34"/>
       <c r="J124" s="33"/>
-      <c r="K124" s="35"/>
+      <c r="K124" s="34"/>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B125" s="5"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="9"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="9"/>
-      <c r="K125" s="10"/>
+      <c r="B125" s="29" t="s">
+        <v>483</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="D125" s="31" t="s">
+        <v>485</v>
+      </c>
+      <c r="E125" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F125" s="33" t="b">
+        <v>1</v>
+      </c>
+      <c r="G125" s="34"/>
+      <c r="H125" s="33"/>
+      <c r="I125" s="34"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="34"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B126" s="5"/>
@@ -5224,7 +5244,7 @@
       <c r="D126" s="7"/>
       <c r="E126" s="8"/>
       <c r="F126" s="9"/>
-      <c r="G126" s="11"/>
+      <c r="G126" s="10"/>
       <c r="H126" s="9"/>
       <c r="I126" s="10"/>
       <c r="J126" s="9"/>
@@ -5236,7 +5256,7 @@
       <c r="D127" s="7"/>
       <c r="E127" s="8"/>
       <c r="F127" s="9"/>
-      <c r="G127" s="11"/>
+      <c r="G127" s="10"/>
       <c r="H127" s="9"/>
       <c r="I127" s="10"/>
       <c r="J127" s="9"/>
@@ -5248,7 +5268,7 @@
       <c r="D128" s="7"/>
       <c r="E128" s="8"/>
       <c r="F128" s="9"/>
-      <c r="G128" s="11"/>
+      <c r="G128" s="10"/>
       <c r="H128" s="9"/>
       <c r="I128" s="10"/>
       <c r="J128" s="9"/>
@@ -5260,7 +5280,7 @@
       <c r="D129" s="7"/>
       <c r="E129" s="8"/>
       <c r="F129" s="9"/>
-      <c r="G129" s="11"/>
+      <c r="G129" s="10"/>
       <c r="H129" s="9"/>
       <c r="I129" s="10"/>
       <c r="J129" s="9"/>
@@ -5272,7 +5292,7 @@
       <c r="D130" s="7"/>
       <c r="E130" s="8"/>
       <c r="F130" s="9"/>
-      <c r="G130" s="11"/>
+      <c r="G130" s="10"/>
       <c r="H130" s="9"/>
       <c r="I130" s="10"/>
       <c r="J130" s="9"/>
@@ -5284,7 +5304,7 @@
       <c r="D131" s="7"/>
       <c r="E131" s="8"/>
       <c r="F131" s="9"/>
-      <c r="G131" s="11"/>
+      <c r="G131" s="10"/>
       <c r="H131" s="9"/>
       <c r="I131" s="10"/>
       <c r="J131" s="9"/>
@@ -5296,7 +5316,7 @@
       <c r="D132" s="7"/>
       <c r="E132" s="8"/>
       <c r="F132" s="9"/>
-      <c r="G132" s="11"/>
+      <c r="G132" s="10"/>
       <c r="H132" s="9"/>
       <c r="I132" s="10"/>
       <c r="J132" s="9"/>
@@ -5308,7 +5328,7 @@
       <c r="D133" s="7"/>
       <c r="E133" s="8"/>
       <c r="F133" s="9"/>
-      <c r="G133" s="11"/>
+      <c r="G133" s="10"/>
       <c r="H133" s="9"/>
       <c r="I133" s="10"/>
       <c r="J133" s="9"/>
@@ -5320,7 +5340,7 @@
       <c r="D134" s="7"/>
       <c r="E134" s="8"/>
       <c r="F134" s="9"/>
-      <c r="G134" s="11"/>
+      <c r="G134" s="10"/>
       <c r="H134" s="9"/>
       <c r="I134" s="10"/>
       <c r="J134" s="9"/>
@@ -5332,7 +5352,7 @@
       <c r="D135" s="7"/>
       <c r="E135" s="8"/>
       <c r="F135" s="9"/>
-      <c r="G135" s="11"/>
+      <c r="G135" s="10"/>
       <c r="H135" s="9"/>
       <c r="I135" s="10"/>
       <c r="J135" s="9"/>
@@ -5344,7 +5364,7 @@
       <c r="D136" s="7"/>
       <c r="E136" s="8"/>
       <c r="F136" s="9"/>
-      <c r="G136" s="11"/>
+      <c r="G136" s="10"/>
       <c r="H136" s="9"/>
       <c r="I136" s="10"/>
       <c r="J136" s="9"/>
@@ -5356,7 +5376,7 @@
       <c r="D137" s="7"/>
       <c r="E137" s="8"/>
       <c r="F137" s="9"/>
-      <c r="G137" s="11"/>
+      <c r="G137" s="10"/>
       <c r="H137" s="9"/>
       <c r="I137" s="10"/>
       <c r="J137" s="9"/>
@@ -5368,7 +5388,7 @@
       <c r="D138" s="7"/>
       <c r="E138" s="8"/>
       <c r="F138" s="9"/>
-      <c r="G138" s="11"/>
+      <c r="G138" s="10"/>
       <c r="H138" s="9"/>
       <c r="I138" s="10"/>
       <c r="J138" s="9"/>
@@ -5380,7 +5400,7 @@
       <c r="D139" s="7"/>
       <c r="E139" s="8"/>
       <c r="F139" s="9"/>
-      <c r="G139" s="11"/>
+      <c r="G139" s="10"/>
       <c r="H139" s="9"/>
       <c r="I139" s="10"/>
       <c r="J139" s="9"/>
@@ -5392,7 +5412,7 @@
       <c r="D140" s="7"/>
       <c r="E140" s="8"/>
       <c r="F140" s="9"/>
-      <c r="G140" s="11"/>
+      <c r="G140" s="10"/>
       <c r="H140" s="9"/>
       <c r="I140" s="10"/>
       <c r="J140" s="9"/>
@@ -5404,7 +5424,7 @@
       <c r="D141" s="7"/>
       <c r="E141" s="8"/>
       <c r="F141" s="9"/>
-      <c r="G141" s="11"/>
+      <c r="G141" s="10"/>
       <c r="H141" s="9"/>
       <c r="I141" s="10"/>
       <c r="J141" s="9"/>
@@ -5416,7 +5436,7 @@
       <c r="D142" s="7"/>
       <c r="E142" s="8"/>
       <c r="F142" s="9"/>
-      <c r="G142" s="11"/>
+      <c r="G142" s="10"/>
       <c r="H142" s="9"/>
       <c r="I142" s="10"/>
       <c r="J142" s="9"/>
@@ -5428,7 +5448,7 @@
       <c r="D143" s="7"/>
       <c r="E143" s="8"/>
       <c r="F143" s="9"/>
-      <c r="G143" s="11"/>
+      <c r="G143" s="10"/>
       <c r="H143" s="9"/>
       <c r="I143" s="10"/>
       <c r="J143" s="9"/>
@@ -5440,7 +5460,7 @@
       <c r="D144" s="7"/>
       <c r="E144" s="8"/>
       <c r="F144" s="9"/>
-      <c r="G144" s="11"/>
+      <c r="G144" s="10"/>
       <c r="H144" s="9"/>
       <c r="I144" s="10"/>
       <c r="J144" s="9"/>
@@ -5452,7 +5472,7 @@
       <c r="D145" s="7"/>
       <c r="E145" s="8"/>
       <c r="F145" s="9"/>
-      <c r="G145" s="11"/>
+      <c r="G145" s="10"/>
       <c r="H145" s="9"/>
       <c r="I145" s="10"/>
       <c r="J145" s="9"/>
@@ -5464,7 +5484,7 @@
       <c r="D146" s="7"/>
       <c r="E146" s="8"/>
       <c r="F146" s="9"/>
-      <c r="G146" s="11"/>
+      <c r="G146" s="10"/>
       <c r="H146" s="9"/>
       <c r="I146" s="10"/>
       <c r="J146" s="9"/>
@@ -5476,7 +5496,7 @@
       <c r="D147" s="7"/>
       <c r="E147" s="8"/>
       <c r="F147" s="9"/>
-      <c r="G147" s="11"/>
+      <c r="G147" s="10"/>
       <c r="H147" s="9"/>
       <c r="I147" s="10"/>
       <c r="J147" s="9"/>
@@ -5488,7 +5508,7 @@
       <c r="D148" s="7"/>
       <c r="E148" s="8"/>
       <c r="F148" s="9"/>
-      <c r="G148" s="11"/>
+      <c r="G148" s="10"/>
       <c r="H148" s="9"/>
       <c r="I148" s="10"/>
       <c r="J148" s="9"/>
@@ -5500,7 +5520,7 @@
       <c r="D149" s="7"/>
       <c r="E149" s="8"/>
       <c r="F149" s="9"/>
-      <c r="G149" s="11"/>
+      <c r="G149" s="10"/>
       <c r="H149" s="9"/>
       <c r="I149" s="10"/>
       <c r="J149" s="9"/>
@@ -5512,7 +5532,7 @@
       <c r="D150" s="7"/>
       <c r="E150" s="8"/>
       <c r="F150" s="9"/>
-      <c r="G150" s="11"/>
+      <c r="G150" s="10"/>
       <c r="H150" s="9"/>
       <c r="I150" s="10"/>
       <c r="J150" s="9"/>
@@ -5524,7 +5544,7 @@
       <c r="D151" s="7"/>
       <c r="E151" s="8"/>
       <c r="F151" s="9"/>
-      <c r="G151" s="11"/>
+      <c r="G151" s="10"/>
       <c r="H151" s="9"/>
       <c r="I151" s="10"/>
       <c r="J151" s="9"/>
@@ -5536,7 +5556,7 @@
       <c r="D152" s="7"/>
       <c r="E152" s="8"/>
       <c r="F152" s="9"/>
-      <c r="G152" s="11"/>
+      <c r="G152" s="10"/>
       <c r="H152" s="9"/>
       <c r="I152" s="10"/>
       <c r="J152" s="9"/>
@@ -5548,7 +5568,7 @@
       <c r="D153" s="7"/>
       <c r="E153" s="8"/>
       <c r="F153" s="9"/>
-      <c r="G153" s="11"/>
+      <c r="G153" s="10"/>
       <c r="H153" s="9"/>
       <c r="I153" s="10"/>
       <c r="J153" s="9"/>
@@ -5560,7 +5580,7 @@
       <c r="D154" s="7"/>
       <c r="E154" s="8"/>
       <c r="F154" s="9"/>
-      <c r="G154" s="11"/>
+      <c r="G154" s="10"/>
       <c r="H154" s="9"/>
       <c r="I154" s="10"/>
       <c r="J154" s="9"/>
@@ -5572,7 +5592,7 @@
       <c r="D155" s="7"/>
       <c r="E155" s="8"/>
       <c r="F155" s="9"/>
-      <c r="G155" s="11"/>
+      <c r="G155" s="10"/>
       <c r="H155" s="9"/>
       <c r="I155" s="10"/>
       <c r="J155" s="9"/>
@@ -5584,7 +5604,7 @@
       <c r="D156" s="7"/>
       <c r="E156" s="8"/>
       <c r="F156" s="9"/>
-      <c r="G156" s="11"/>
+      <c r="G156" s="10"/>
       <c r="H156" s="9"/>
       <c r="I156" s="10"/>
       <c r="J156" s="9"/>
@@ -5596,7 +5616,7 @@
       <c r="D157" s="7"/>
       <c r="E157" s="8"/>
       <c r="F157" s="9"/>
-      <c r="G157" s="11"/>
+      <c r="G157" s="10"/>
       <c r="H157" s="9"/>
       <c r="I157" s="10"/>
       <c r="J157" s="9"/>
@@ -5608,7 +5628,7 @@
       <c r="D158" s="7"/>
       <c r="E158" s="8"/>
       <c r="F158" s="9"/>
-      <c r="G158" s="11"/>
+      <c r="G158" s="10"/>
       <c r="H158" s="9"/>
       <c r="I158" s="10"/>
       <c r="J158" s="9"/>
@@ -5620,7 +5640,7 @@
       <c r="D159" s="7"/>
       <c r="E159" s="8"/>
       <c r="F159" s="9"/>
-      <c r="G159" s="11"/>
+      <c r="G159" s="10"/>
       <c r="H159" s="9"/>
       <c r="I159" s="10"/>
       <c r="J159" s="9"/>
@@ -5632,7 +5652,7 @@
       <c r="D160" s="7"/>
       <c r="E160" s="8"/>
       <c r="F160" s="9"/>
-      <c r="G160" s="11"/>
+      <c r="G160" s="10"/>
       <c r="H160" s="9"/>
       <c r="I160" s="10"/>
       <c r="J160" s="9"/>
@@ -5644,7 +5664,7 @@
       <c r="D161" s="7"/>
       <c r="E161" s="8"/>
       <c r="F161" s="9"/>
-      <c r="G161" s="11"/>
+      <c r="G161" s="10"/>
       <c r="H161" s="9"/>
       <c r="I161" s="10"/>
       <c r="J161" s="9"/>
@@ -5656,7 +5676,7 @@
       <c r="D162" s="7"/>
       <c r="E162" s="8"/>
       <c r="F162" s="9"/>
-      <c r="G162" s="11"/>
+      <c r="G162" s="10"/>
       <c r="H162" s="9"/>
       <c r="I162" s="10"/>
       <c r="J162" s="9"/>
@@ -5668,7 +5688,7 @@
       <c r="D163" s="7"/>
       <c r="E163" s="8"/>
       <c r="F163" s="9"/>
-      <c r="G163" s="11"/>
+      <c r="G163" s="10"/>
       <c r="H163" s="9"/>
       <c r="I163" s="10"/>
       <c r="J163" s="9"/>
@@ -5680,7 +5700,7 @@
       <c r="D164" s="7"/>
       <c r="E164" s="8"/>
       <c r="F164" s="9"/>
-      <c r="G164" s="11"/>
+      <c r="G164" s="10"/>
       <c r="H164" s="9"/>
       <c r="I164" s="10"/>
       <c r="J164" s="9"/>
@@ -5692,7 +5712,7 @@
       <c r="D165" s="7"/>
       <c r="E165" s="8"/>
       <c r="F165" s="9"/>
-      <c r="G165" s="11"/>
+      <c r="G165" s="10"/>
       <c r="H165" s="9"/>
       <c r="I165" s="10"/>
       <c r="J165" s="9"/>
@@ -5704,7 +5724,7 @@
       <c r="D166" s="7"/>
       <c r="E166" s="8"/>
       <c r="F166" s="9"/>
-      <c r="G166" s="11"/>
+      <c r="G166" s="10"/>
       <c r="H166" s="9"/>
       <c r="I166" s="10"/>
       <c r="J166" s="9"/>
@@ -5716,7 +5736,7 @@
       <c r="D167" s="7"/>
       <c r="E167" s="8"/>
       <c r="F167" s="9"/>
-      <c r="G167" s="11"/>
+      <c r="G167" s="10"/>
       <c r="H167" s="9"/>
       <c r="I167" s="10"/>
       <c r="J167" s="9"/>
@@ -5728,7 +5748,7 @@
       <c r="D168" s="7"/>
       <c r="E168" s="8"/>
       <c r="F168" s="9"/>
-      <c r="G168" s="11"/>
+      <c r="G168" s="10"/>
       <c r="H168" s="9"/>
       <c r="I168" s="10"/>
       <c r="J168" s="9"/>
@@ -5740,7 +5760,7 @@
       <c r="D169" s="7"/>
       <c r="E169" s="8"/>
       <c r="F169" s="9"/>
-      <c r="G169" s="11"/>
+      <c r="G169" s="10"/>
       <c r="H169" s="9"/>
       <c r="I169" s="10"/>
       <c r="J169" s="9"/>
@@ -5752,7 +5772,7 @@
       <c r="D170" s="7"/>
       <c r="E170" s="8"/>
       <c r="F170" s="9"/>
-      <c r="G170" s="11"/>
+      <c r="G170" s="10"/>
       <c r="H170" s="9"/>
       <c r="I170" s="10"/>
       <c r="J170" s="9"/>
@@ -5764,7 +5784,7 @@
       <c r="D171" s="7"/>
       <c r="E171" s="8"/>
       <c r="F171" s="9"/>
-      <c r="G171" s="11"/>
+      <c r="G171" s="10"/>
       <c r="H171" s="9"/>
       <c r="I171" s="10"/>
       <c r="J171" s="9"/>
@@ -5776,7 +5796,7 @@
       <c r="D172" s="7"/>
       <c r="E172" s="8"/>
       <c r="F172" s="9"/>
-      <c r="G172" s="11"/>
+      <c r="G172" s="10"/>
       <c r="H172" s="9"/>
       <c r="I172" s="10"/>
       <c r="J172" s="9"/>
@@ -5788,7 +5808,7 @@
       <c r="D173" s="7"/>
       <c r="E173" s="8"/>
       <c r="F173" s="9"/>
-      <c r="G173" s="11"/>
+      <c r="G173" s="10"/>
       <c r="H173" s="9"/>
       <c r="I173" s="10"/>
       <c r="J173" s="9"/>
@@ -5800,7 +5820,7 @@
       <c r="D174" s="7"/>
       <c r="E174" s="8"/>
       <c r="F174" s="9"/>
-      <c r="G174" s="11"/>
+      <c r="G174" s="10"/>
       <c r="H174" s="9"/>
       <c r="I174" s="10"/>
       <c r="J174" s="9"/>
@@ -5812,7 +5832,7 @@
       <c r="D175" s="7"/>
       <c r="E175" s="8"/>
       <c r="F175" s="9"/>
-      <c r="G175" s="11"/>
+      <c r="G175" s="10"/>
       <c r="H175" s="9"/>
       <c r="I175" s="10"/>
       <c r="J175" s="9"/>
@@ -5824,7 +5844,7 @@
       <c r="D176" s="7"/>
       <c r="E176" s="8"/>
       <c r="F176" s="9"/>
-      <c r="G176" s="11"/>
+      <c r="G176" s="10"/>
       <c r="H176" s="9"/>
       <c r="I176" s="10"/>
       <c r="J176" s="9"/>
@@ -5836,7 +5856,7 @@
       <c r="D177" s="7"/>
       <c r="E177" s="8"/>
       <c r="F177" s="9"/>
-      <c r="G177" s="11"/>
+      <c r="G177" s="10"/>
       <c r="H177" s="9"/>
       <c r="I177" s="10"/>
       <c r="J177" s="9"/>
@@ -5848,7 +5868,7 @@
       <c r="D178" s="7"/>
       <c r="E178" s="8"/>
       <c r="F178" s="9"/>
-      <c r="G178" s="11"/>
+      <c r="G178" s="10"/>
       <c r="H178" s="9"/>
       <c r="I178" s="10"/>
       <c r="J178" s="9"/>
@@ -5860,7 +5880,7 @@
       <c r="D179" s="7"/>
       <c r="E179" s="8"/>
       <c r="F179" s="9"/>
-      <c r="G179" s="11"/>
+      <c r="G179" s="10"/>
       <c r="H179" s="9"/>
       <c r="I179" s="10"/>
       <c r="J179" s="9"/>
@@ -5872,7 +5892,7 @@
       <c r="D180" s="7"/>
       <c r="E180" s="8"/>
       <c r="F180" s="9"/>
-      <c r="G180" s="11"/>
+      <c r="G180" s="10"/>
       <c r="H180" s="9"/>
       <c r="I180" s="10"/>
       <c r="J180" s="9"/>
@@ -5884,7 +5904,7 @@
       <c r="D181" s="7"/>
       <c r="E181" s="8"/>
       <c r="F181" s="9"/>
-      <c r="G181" s="11"/>
+      <c r="G181" s="10"/>
       <c r="H181" s="9"/>
       <c r="I181" s="10"/>
       <c r="J181" s="9"/>
@@ -5896,7 +5916,7 @@
       <c r="D182" s="7"/>
       <c r="E182" s="8"/>
       <c r="F182" s="9"/>
-      <c r="G182" s="11"/>
+      <c r="G182" s="10"/>
       <c r="H182" s="9"/>
       <c r="I182" s="10"/>
       <c r="J182" s="9"/>
@@ -5908,7 +5928,7 @@
       <c r="D183" s="7"/>
       <c r="E183" s="8"/>
       <c r="F183" s="9"/>
-      <c r="G183" s="11"/>
+      <c r="G183" s="10"/>
       <c r="H183" s="9"/>
       <c r="I183" s="10"/>
       <c r="J183" s="9"/>
@@ -5920,7 +5940,7 @@
       <c r="D184" s="7"/>
       <c r="E184" s="8"/>
       <c r="F184" s="9"/>
-      <c r="G184" s="11"/>
+      <c r="G184" s="10"/>
       <c r="H184" s="9"/>
       <c r="I184" s="10"/>
       <c r="J184" s="9"/>
@@ -5932,7 +5952,7 @@
       <c r="D185" s="7"/>
       <c r="E185" s="8"/>
       <c r="F185" s="9"/>
-      <c r="G185" s="11"/>
+      <c r="G185" s="10"/>
       <c r="H185" s="9"/>
       <c r="I185" s="10"/>
       <c r="J185" s="9"/>
@@ -5944,7 +5964,7 @@
       <c r="D186" s="7"/>
       <c r="E186" s="8"/>
       <c r="F186" s="9"/>
-      <c r="G186" s="11"/>
+      <c r="G186" s="10"/>
       <c r="H186" s="9"/>
       <c r="I186" s="10"/>
       <c r="J186" s="9"/>
@@ -5956,7 +5976,7 @@
       <c r="D187" s="7"/>
       <c r="E187" s="8"/>
       <c r="F187" s="9"/>
-      <c r="G187" s="11"/>
+      <c r="G187" s="10"/>
       <c r="H187" s="9"/>
       <c r="I187" s="10"/>
       <c r="J187" s="9"/>
@@ -5968,7 +5988,7 @@
       <c r="D188" s="7"/>
       <c r="E188" s="8"/>
       <c r="F188" s="9"/>
-      <c r="G188" s="11"/>
+      <c r="G188" s="10"/>
       <c r="H188" s="9"/>
       <c r="I188" s="10"/>
       <c r="J188" s="9"/>
@@ -5980,7 +6000,7 @@
       <c r="D189" s="7"/>
       <c r="E189" s="8"/>
       <c r="F189" s="9"/>
-      <c r="G189" s="11"/>
+      <c r="G189" s="10"/>
       <c r="H189" s="9"/>
       <c r="I189" s="10"/>
       <c r="J189" s="9"/>
@@ -5992,7 +6012,7 @@
       <c r="D190" s="7"/>
       <c r="E190" s="8"/>
       <c r="F190" s="9"/>
-      <c r="G190" s="11"/>
+      <c r="G190" s="10"/>
       <c r="H190" s="9"/>
       <c r="I190" s="10"/>
       <c r="J190" s="9"/>
@@ -6004,7 +6024,7 @@
       <c r="D191" s="7"/>
       <c r="E191" s="8"/>
       <c r="F191" s="9"/>
-      <c r="G191" s="11"/>
+      <c r="G191" s="10"/>
       <c r="H191" s="9"/>
       <c r="I191" s="10"/>
       <c r="J191" s="9"/>
@@ -6016,7 +6036,7 @@
       <c r="D192" s="7"/>
       <c r="E192" s="8"/>
       <c r="F192" s="9"/>
-      <c r="G192" s="11"/>
+      <c r="G192" s="10"/>
       <c r="H192" s="9"/>
       <c r="I192" s="10"/>
       <c r="J192" s="9"/>
@@ -6028,7 +6048,7 @@
       <c r="D193" s="7"/>
       <c r="E193" s="8"/>
       <c r="F193" s="9"/>
-      <c r="G193" s="11"/>
+      <c r="G193" s="10"/>
       <c r="H193" s="9"/>
       <c r="I193" s="10"/>
       <c r="J193" s="9"/>
@@ -6040,7 +6060,7 @@
       <c r="D194" s="7"/>
       <c r="E194" s="8"/>
       <c r="F194" s="9"/>
-      <c r="G194" s="11"/>
+      <c r="G194" s="10"/>
       <c r="H194" s="9"/>
       <c r="I194" s="10"/>
       <c r="J194" s="9"/>
@@ -6052,7 +6072,7 @@
       <c r="D195" s="7"/>
       <c r="E195" s="8"/>
       <c r="F195" s="9"/>
-      <c r="G195" s="11"/>
+      <c r="G195" s="10"/>
       <c r="H195" s="9"/>
       <c r="I195" s="10"/>
       <c r="J195" s="9"/>
@@ -6064,7 +6084,7 @@
       <c r="D196" s="7"/>
       <c r="E196" s="8"/>
       <c r="F196" s="9"/>
-      <c r="G196" s="11"/>
+      <c r="G196" s="10"/>
       <c r="H196" s="9"/>
       <c r="I196" s="10"/>
       <c r="J196" s="9"/>
@@ -6076,7 +6096,7 @@
       <c r="D197" s="7"/>
       <c r="E197" s="8"/>
       <c r="F197" s="9"/>
-      <c r="G197" s="11"/>
+      <c r="G197" s="10"/>
       <c r="H197" s="9"/>
       <c r="I197" s="10"/>
       <c r="J197" s="9"/>
@@ -6088,7 +6108,7 @@
       <c r="D198" s="7"/>
       <c r="E198" s="8"/>
       <c r="F198" s="9"/>
-      <c r="G198" s="11"/>
+      <c r="G198" s="10"/>
       <c r="H198" s="9"/>
       <c r="I198" s="10"/>
       <c r="J198" s="9"/>
@@ -6100,7 +6120,7 @@
       <c r="D199" s="7"/>
       <c r="E199" s="8"/>
       <c r="F199" s="9"/>
-      <c r="G199" s="11"/>
+      <c r="G199" s="10"/>
       <c r="H199" s="9"/>
       <c r="I199" s="10"/>
       <c r="J199" s="9"/>
@@ -6112,7 +6132,7 @@
       <c r="D200" s="7"/>
       <c r="E200" s="8"/>
       <c r="F200" s="9"/>
-      <c r="G200" s="11"/>
+      <c r="G200" s="10"/>
       <c r="H200" s="9"/>
       <c r="I200" s="10"/>
       <c r="J200" s="9"/>
@@ -6124,7 +6144,7 @@
       <c r="D201" s="7"/>
       <c r="E201" s="8"/>
       <c r="F201" s="9"/>
-      <c r="G201" s="11"/>
+      <c r="G201" s="10"/>
       <c r="H201" s="9"/>
       <c r="I201" s="10"/>
       <c r="J201" s="9"/>
@@ -6136,7 +6156,7 @@
       <c r="D202" s="7"/>
       <c r="E202" s="8"/>
       <c r="F202" s="9"/>
-      <c r="G202" s="11"/>
+      <c r="G202" s="10"/>
       <c r="H202" s="9"/>
       <c r="I202" s="10"/>
       <c r="J202" s="9"/>
@@ -6148,7 +6168,7 @@
       <c r="D203" s="7"/>
       <c r="E203" s="8"/>
       <c r="F203" s="9"/>
-      <c r="G203" s="11"/>
+      <c r="G203" s="10"/>
       <c r="H203" s="9"/>
       <c r="I203" s="10"/>
       <c r="J203" s="9"/>
@@ -6160,7 +6180,7 @@
       <c r="D204" s="7"/>
       <c r="E204" s="8"/>
       <c r="F204" s="9"/>
-      <c r="G204" s="11"/>
+      <c r="G204" s="10"/>
       <c r="H204" s="9"/>
       <c r="I204" s="10"/>
       <c r="J204" s="9"/>
@@ -6172,7 +6192,7 @@
       <c r="D205" s="7"/>
       <c r="E205" s="8"/>
       <c r="F205" s="9"/>
-      <c r="G205" s="11"/>
+      <c r="G205" s="10"/>
       <c r="H205" s="9"/>
       <c r="I205" s="10"/>
       <c r="J205" s="9"/>
@@ -6184,7 +6204,7 @@
       <c r="D206" s="7"/>
       <c r="E206" s="8"/>
       <c r="F206" s="9"/>
-      <c r="G206" s="11"/>
+      <c r="G206" s="10"/>
       <c r="H206" s="9"/>
       <c r="I206" s="10"/>
       <c r="J206" s="9"/>
@@ -6196,7 +6216,7 @@
       <c r="D207" s="7"/>
       <c r="E207" s="8"/>
       <c r="F207" s="9"/>
-      <c r="G207" s="11"/>
+      <c r="G207" s="10"/>
       <c r="H207" s="9"/>
       <c r="I207" s="10"/>
       <c r="J207" s="9"/>
@@ -6208,7 +6228,7 @@
       <c r="D208" s="7"/>
       <c r="E208" s="8"/>
       <c r="F208" s="9"/>
-      <c r="G208" s="11"/>
+      <c r="G208" s="10"/>
       <c r="H208" s="9"/>
       <c r="I208" s="10"/>
       <c r="J208" s="9"/>
@@ -6220,7 +6240,7 @@
       <c r="D209" s="7"/>
       <c r="E209" s="8"/>
       <c r="F209" s="9"/>
-      <c r="G209" s="11"/>
+      <c r="G209" s="10"/>
       <c r="H209" s="9"/>
       <c r="I209" s="10"/>
       <c r="J209" s="9"/>
@@ -6232,7 +6252,7 @@
       <c r="D210" s="7"/>
       <c r="E210" s="8"/>
       <c r="F210" s="9"/>
-      <c r="G210" s="11"/>
+      <c r="G210" s="10"/>
       <c r="H210" s="9"/>
       <c r="I210" s="10"/>
       <c r="J210" s="9"/>
@@ -6244,7 +6264,7 @@
       <c r="D211" s="7"/>
       <c r="E211" s="8"/>
       <c r="F211" s="9"/>
-      <c r="G211" s="11"/>
+      <c r="G211" s="10"/>
       <c r="H211" s="9"/>
       <c r="I211" s="10"/>
       <c r="J211" s="9"/>
@@ -6256,7 +6276,7 @@
       <c r="D212" s="7"/>
       <c r="E212" s="8"/>
       <c r="F212" s="9"/>
-      <c r="G212" s="11"/>
+      <c r="G212" s="10"/>
       <c r="H212" s="9"/>
       <c r="I212" s="10"/>
       <c r="J212" s="9"/>
@@ -6268,7 +6288,7 @@
       <c r="D213" s="7"/>
       <c r="E213" s="8"/>
       <c r="F213" s="9"/>
-      <c r="G213" s="11"/>
+      <c r="G213" s="10"/>
       <c r="H213" s="9"/>
       <c r="I213" s="10"/>
       <c r="J213" s="9"/>
@@ -6280,7 +6300,7 @@
       <c r="D214" s="7"/>
       <c r="E214" s="8"/>
       <c r="F214" s="9"/>
-      <c r="G214" s="11"/>
+      <c r="G214" s="10"/>
       <c r="H214" s="9"/>
       <c r="I214" s="10"/>
       <c r="J214" s="9"/>
@@ -6292,7 +6312,7 @@
       <c r="D215" s="7"/>
       <c r="E215" s="8"/>
       <c r="F215" s="9"/>
-      <c r="G215" s="11"/>
+      <c r="G215" s="10"/>
       <c r="H215" s="9"/>
       <c r="I215" s="10"/>
       <c r="J215" s="9"/>
@@ -6304,7 +6324,7 @@
       <c r="D216" s="7"/>
       <c r="E216" s="8"/>
       <c r="F216" s="9"/>
-      <c r="G216" s="11"/>
+      <c r="G216" s="10"/>
       <c r="H216" s="9"/>
       <c r="I216" s="10"/>
       <c r="J216" s="9"/>
@@ -6316,7 +6336,7 @@
       <c r="D217" s="7"/>
       <c r="E217" s="8"/>
       <c r="F217" s="9"/>
-      <c r="G217" s="11"/>
+      <c r="G217" s="10"/>
       <c r="H217" s="9"/>
       <c r="I217" s="10"/>
       <c r="J217" s="9"/>
@@ -6328,7 +6348,7 @@
       <c r="D218" s="7"/>
       <c r="E218" s="8"/>
       <c r="F218" s="9"/>
-      <c r="G218" s="11"/>
+      <c r="G218" s="10"/>
       <c r="H218" s="9"/>
       <c r="I218" s="10"/>
       <c r="J218" s="9"/>
@@ -6340,7 +6360,7 @@
       <c r="D219" s="7"/>
       <c r="E219" s="8"/>
       <c r="F219" s="9"/>
-      <c r="G219" s="11"/>
+      <c r="G219" s="10"/>
       <c r="H219" s="9"/>
       <c r="I219" s="10"/>
       <c r="J219" s="9"/>
@@ -6352,7 +6372,7 @@
       <c r="D220" s="7"/>
       <c r="E220" s="8"/>
       <c r="F220" s="9"/>
-      <c r="G220" s="11"/>
+      <c r="G220" s="10"/>
       <c r="H220" s="9"/>
       <c r="I220" s="10"/>
       <c r="J220" s="9"/>
@@ -6364,7 +6384,7 @@
       <c r="D221" s="7"/>
       <c r="E221" s="8"/>
       <c r="F221" s="9"/>
-      <c r="G221" s="11"/>
+      <c r="G221" s="10"/>
       <c r="H221" s="9"/>
       <c r="I221" s="10"/>
       <c r="J221" s="9"/>
@@ -6376,7 +6396,7 @@
       <c r="D222" s="7"/>
       <c r="E222" s="8"/>
       <c r="F222" s="9"/>
-      <c r="G222" s="11"/>
+      <c r="G222" s="10"/>
       <c r="H222" s="9"/>
       <c r="I222" s="10"/>
       <c r="J222" s="9"/>
@@ -6388,7 +6408,7 @@
       <c r="D223" s="7"/>
       <c r="E223" s="8"/>
       <c r="F223" s="9"/>
-      <c r="G223" s="11"/>
+      <c r="G223" s="10"/>
       <c r="H223" s="9"/>
       <c r="I223" s="10"/>
       <c r="J223" s="9"/>
@@ -6400,7 +6420,7 @@
       <c r="D224" s="7"/>
       <c r="E224" s="8"/>
       <c r="F224" s="9"/>
-      <c r="G224" s="11"/>
+      <c r="G224" s="10"/>
       <c r="H224" s="9"/>
       <c r="I224" s="10"/>
       <c r="J224" s="9"/>
@@ -6412,7 +6432,7 @@
       <c r="D225" s="7"/>
       <c r="E225" s="8"/>
       <c r="F225" s="9"/>
-      <c r="G225" s="11"/>
+      <c r="G225" s="10"/>
       <c r="H225" s="9"/>
       <c r="I225" s="10"/>
       <c r="J225" s="9"/>
@@ -6424,7 +6444,7 @@
       <c r="D226" s="7"/>
       <c r="E226" s="8"/>
       <c r="F226" s="9"/>
-      <c r="G226" s="11"/>
+      <c r="G226" s="10"/>
       <c r="H226" s="9"/>
       <c r="I226" s="10"/>
       <c r="J226" s="9"/>
@@ -6436,7 +6456,7 @@
       <c r="D227" s="7"/>
       <c r="E227" s="8"/>
       <c r="F227" s="9"/>
-      <c r="G227" s="11"/>
+      <c r="G227" s="10"/>
       <c r="H227" s="9"/>
       <c r="I227" s="10"/>
       <c r="J227" s="9"/>
@@ -6448,7 +6468,7 @@
       <c r="D228" s="7"/>
       <c r="E228" s="8"/>
       <c r="F228" s="9"/>
-      <c r="G228" s="11"/>
+      <c r="G228" s="10"/>
       <c r="H228" s="9"/>
       <c r="I228" s="10"/>
       <c r="J228" s="9"/>
@@ -6460,7 +6480,7 @@
       <c r="D229" s="7"/>
       <c r="E229" s="8"/>
       <c r="F229" s="9"/>
-      <c r="G229" s="11"/>
+      <c r="G229" s="10"/>
       <c r="H229" s="9"/>
       <c r="I229" s="10"/>
       <c r="J229" s="9"/>
@@ -6472,7 +6492,7 @@
       <c r="D230" s="7"/>
       <c r="E230" s="8"/>
       <c r="F230" s="9"/>
-      <c r="G230" s="11"/>
+      <c r="G230" s="10"/>
       <c r="H230" s="9"/>
       <c r="I230" s="10"/>
       <c r="J230" s="9"/>
@@ -6484,7 +6504,7 @@
       <c r="D231" s="7"/>
       <c r="E231" s="8"/>
       <c r="F231" s="9"/>
-      <c r="G231" s="11"/>
+      <c r="G231" s="10"/>
       <c r="H231" s="9"/>
       <c r="I231" s="10"/>
       <c r="J231" s="9"/>
@@ -6496,7 +6516,7 @@
       <c r="D232" s="7"/>
       <c r="E232" s="8"/>
       <c r="F232" s="9"/>
-      <c r="G232" s="11"/>
+      <c r="G232" s="10"/>
       <c r="H232" s="9"/>
       <c r="I232" s="10"/>
       <c r="J232" s="9"/>
@@ -6508,7 +6528,7 @@
       <c r="D233" s="7"/>
       <c r="E233" s="8"/>
       <c r="F233" s="9"/>
-      <c r="G233" s="11"/>
+      <c r="G233" s="10"/>
       <c r="H233" s="9"/>
       <c r="I233" s="10"/>
       <c r="J233" s="9"/>
@@ -6520,7 +6540,7 @@
       <c r="D234" s="7"/>
       <c r="E234" s="8"/>
       <c r="F234" s="9"/>
-      <c r="G234" s="11"/>
+      <c r="G234" s="10"/>
       <c r="H234" s="9"/>
       <c r="I234" s="10"/>
       <c r="J234" s="9"/>
@@ -6532,7 +6552,7 @@
       <c r="D235" s="7"/>
       <c r="E235" s="8"/>
       <c r="F235" s="9"/>
-      <c r="G235" s="11"/>
+      <c r="G235" s="10"/>
       <c r="H235" s="9"/>
       <c r="I235" s="10"/>
       <c r="J235" s="9"/>
@@ -6544,7 +6564,7 @@
       <c r="D236" s="7"/>
       <c r="E236" s="8"/>
       <c r="F236" s="9"/>
-      <c r="G236" s="11"/>
+      <c r="G236" s="10"/>
       <c r="H236" s="9"/>
       <c r="I236" s="10"/>
       <c r="J236" s="9"/>
@@ -6556,7 +6576,7 @@
       <c r="D237" s="7"/>
       <c r="E237" s="8"/>
       <c r="F237" s="9"/>
-      <c r="G237" s="11"/>
+      <c r="G237" s="10"/>
       <c r="H237" s="9"/>
       <c r="I237" s="10"/>
       <c r="J237" s="9"/>
@@ -6568,7 +6588,7 @@
       <c r="D238" s="7"/>
       <c r="E238" s="8"/>
       <c r="F238" s="9"/>
-      <c r="G238" s="11"/>
+      <c r="G238" s="10"/>
       <c r="H238" s="9"/>
       <c r="I238" s="10"/>
       <c r="J238" s="9"/>
@@ -6580,7 +6600,7 @@
       <c r="D239" s="7"/>
       <c r="E239" s="8"/>
       <c r="F239" s="9"/>
-      <c r="G239" s="11"/>
+      <c r="G239" s="10"/>
       <c r="H239" s="9"/>
       <c r="I239" s="10"/>
       <c r="J239" s="9"/>
@@ -6592,7 +6612,7 @@
       <c r="D240" s="7"/>
       <c r="E240" s="8"/>
       <c r="F240" s="9"/>
-      <c r="G240" s="11"/>
+      <c r="G240" s="10"/>
       <c r="H240" s="9"/>
       <c r="I240" s="10"/>
       <c r="J240" s="9"/>
@@ -6604,7 +6624,7 @@
       <c r="D241" s="7"/>
       <c r="E241" s="8"/>
       <c r="F241" s="9"/>
-      <c r="G241" s="11"/>
+      <c r="G241" s="10"/>
       <c r="H241" s="9"/>
       <c r="I241" s="10"/>
       <c r="J241" s="9"/>
@@ -6616,7 +6636,7 @@
       <c r="D242" s="7"/>
       <c r="E242" s="8"/>
       <c r="F242" s="9"/>
-      <c r="G242" s="11"/>
+      <c r="G242" s="10"/>
       <c r="H242" s="9"/>
       <c r="I242" s="10"/>
       <c r="J242" s="9"/>
@@ -6628,7 +6648,7 @@
       <c r="D243" s="7"/>
       <c r="E243" s="8"/>
       <c r="F243" s="9"/>
-      <c r="G243" s="11"/>
+      <c r="G243" s="10"/>
       <c r="H243" s="9"/>
       <c r="I243" s="10"/>
       <c r="J243" s="9"/>
@@ -6640,7 +6660,7 @@
       <c r="D244" s="7"/>
       <c r="E244" s="8"/>
       <c r="F244" s="9"/>
-      <c r="G244" s="11"/>
+      <c r="G244" s="10"/>
       <c r="H244" s="9"/>
       <c r="I244" s="10"/>
       <c r="J244" s="9"/>
@@ -6652,7 +6672,7 @@
       <c r="D245" s="7"/>
       <c r="E245" s="8"/>
       <c r="F245" s="9"/>
-      <c r="G245" s="11"/>
+      <c r="G245" s="10"/>
       <c r="H245" s="9"/>
       <c r="I245" s="10"/>
       <c r="J245" s="9"/>
@@ -6664,7 +6684,7 @@
       <c r="D246" s="7"/>
       <c r="E246" s="8"/>
       <c r="F246" s="9"/>
-      <c r="G246" s="11"/>
+      <c r="G246" s="10"/>
       <c r="H246" s="9"/>
       <c r="I246" s="10"/>
       <c r="J246" s="9"/>
@@ -6676,7 +6696,7 @@
       <c r="D247" s="7"/>
       <c r="E247" s="8"/>
       <c r="F247" s="9"/>
-      <c r="G247" s="11"/>
+      <c r="G247" s="10"/>
       <c r="H247" s="9"/>
       <c r="I247" s="10"/>
       <c r="J247" s="9"/>
@@ -6688,7 +6708,7 @@
       <c r="D248" s="7"/>
       <c r="E248" s="8"/>
       <c r="F248" s="9"/>
-      <c r="G248" s="11"/>
+      <c r="G248" s="10"/>
       <c r="H248" s="9"/>
       <c r="I248" s="10"/>
       <c r="J248" s="9"/>
@@ -6700,7 +6720,7 @@
       <c r="D249" s="7"/>
       <c r="E249" s="8"/>
       <c r="F249" s="9"/>
-      <c r="G249" s="11"/>
+      <c r="G249" s="10"/>
       <c r="H249" s="9"/>
       <c r="I249" s="10"/>
       <c r="J249" s="9"/>
@@ -6712,7 +6732,7 @@
       <c r="D250" s="7"/>
       <c r="E250" s="8"/>
       <c r="F250" s="9"/>
-      <c r="G250" s="11"/>
+      <c r="G250" s="10"/>
       <c r="H250" s="9"/>
       <c r="I250" s="10"/>
       <c r="J250" s="9"/>
@@ -6724,7 +6744,7 @@
       <c r="D251" s="7"/>
       <c r="E251" s="8"/>
       <c r="F251" s="9"/>
-      <c r="G251" s="11"/>
+      <c r="G251" s="10"/>
       <c r="H251" s="9"/>
       <c r="I251" s="10"/>
       <c r="J251" s="9"/>
@@ -6736,7 +6756,7 @@
       <c r="D252" s="7"/>
       <c r="E252" s="8"/>
       <c r="F252" s="9"/>
-      <c r="G252" s="11"/>
+      <c r="G252" s="10"/>
       <c r="H252" s="9"/>
       <c r="I252" s="10"/>
       <c r="J252" s="9"/>
@@ -6748,7 +6768,7 @@
       <c r="D253" s="7"/>
       <c r="E253" s="8"/>
       <c r="F253" s="9"/>
-      <c r="G253" s="11"/>
+      <c r="G253" s="10"/>
       <c r="H253" s="9"/>
       <c r="I253" s="10"/>
       <c r="J253" s="9"/>
@@ -6760,7 +6780,7 @@
       <c r="D254" s="7"/>
       <c r="E254" s="8"/>
       <c r="F254" s="9"/>
-      <c r="G254" s="11"/>
+      <c r="G254" s="10"/>
       <c r="H254" s="9"/>
       <c r="I254" s="10"/>
       <c r="J254" s="9"/>
@@ -6772,7 +6792,7 @@
       <c r="D255" s="7"/>
       <c r="E255" s="8"/>
       <c r="F255" s="9"/>
-      <c r="G255" s="11"/>
+      <c r="G255" s="10"/>
       <c r="H255" s="9"/>
       <c r="I255" s="10"/>
       <c r="J255" s="9"/>
@@ -6784,7 +6804,7 @@
       <c r="D256" s="7"/>
       <c r="E256" s="8"/>
       <c r="F256" s="9"/>
-      <c r="G256" s="11"/>
+      <c r="G256" s="10"/>
       <c r="H256" s="9"/>
       <c r="I256" s="10"/>
       <c r="J256" s="9"/>
@@ -6796,7 +6816,7 @@
       <c r="D257" s="7"/>
       <c r="E257" s="8"/>
       <c r="F257" s="9"/>
-      <c r="G257" s="11"/>
+      <c r="G257" s="10"/>
       <c r="H257" s="9"/>
       <c r="I257" s="10"/>
       <c r="J257" s="9"/>
@@ -6808,7 +6828,7 @@
       <c r="D258" s="7"/>
       <c r="E258" s="8"/>
       <c r="F258" s="9"/>
-      <c r="G258" s="11"/>
+      <c r="G258" s="10"/>
       <c r="H258" s="9"/>
       <c r="I258" s="10"/>
       <c r="J258" s="9"/>
@@ -6820,7 +6840,7 @@
       <c r="D259" s="7"/>
       <c r="E259" s="8"/>
       <c r="F259" s="9"/>
-      <c r="G259" s="11"/>
+      <c r="G259" s="10"/>
       <c r="H259" s="9"/>
       <c r="I259" s="10"/>
       <c r="J259" s="9"/>
@@ -6832,7 +6852,7 @@
       <c r="D260" s="7"/>
       <c r="E260" s="8"/>
       <c r="F260" s="9"/>
-      <c r="G260" s="11"/>
+      <c r="G260" s="10"/>
       <c r="H260" s="9"/>
       <c r="I260" s="10"/>
       <c r="J260" s="9"/>
@@ -6844,7 +6864,7 @@
       <c r="D261" s="7"/>
       <c r="E261" s="8"/>
       <c r="F261" s="9"/>
-      <c r="G261" s="11"/>
+      <c r="G261" s="10"/>
       <c r="H261" s="9"/>
       <c r="I261" s="10"/>
       <c r="J261" s="9"/>
@@ -6856,7 +6876,7 @@
       <c r="D262" s="7"/>
       <c r="E262" s="8"/>
       <c r="F262" s="9"/>
-      <c r="G262" s="11"/>
+      <c r="G262" s="10"/>
       <c r="H262" s="9"/>
       <c r="I262" s="10"/>
       <c r="J262" s="9"/>
@@ -6868,7 +6888,7 @@
       <c r="D263" s="7"/>
       <c r="E263" s="8"/>
       <c r="F263" s="9"/>
-      <c r="G263" s="11"/>
+      <c r="G263" s="10"/>
       <c r="H263" s="9"/>
       <c r="I263" s="10"/>
       <c r="J263" s="9"/>
@@ -6880,7 +6900,7 @@
       <c r="D264" s="7"/>
       <c r="E264" s="8"/>
       <c r="F264" s="9"/>
-      <c r="G264" s="11"/>
+      <c r="G264" s="10"/>
       <c r="H264" s="9"/>
       <c r="I264" s="10"/>
       <c r="J264" s="9"/>
@@ -6892,7 +6912,7 @@
       <c r="D265" s="7"/>
       <c r="E265" s="8"/>
       <c r="F265" s="9"/>
-      <c r="G265" s="11"/>
+      <c r="G265" s="10"/>
       <c r="H265" s="9"/>
       <c r="I265" s="10"/>
       <c r="J265" s="9"/>
@@ -6904,7 +6924,7 @@
       <c r="D266" s="7"/>
       <c r="E266" s="8"/>
       <c r="F266" s="9"/>
-      <c r="G266" s="11"/>
+      <c r="G266" s="10"/>
       <c r="H266" s="9"/>
       <c r="I266" s="10"/>
       <c r="J266" s="9"/>
@@ -6916,7 +6936,7 @@
       <c r="D267" s="7"/>
       <c r="E267" s="8"/>
       <c r="F267" s="9"/>
-      <c r="G267" s="11"/>
+      <c r="G267" s="10"/>
       <c r="H267" s="9"/>
       <c r="I267" s="10"/>
       <c r="J267" s="9"/>
@@ -6928,7 +6948,7 @@
       <c r="D268" s="7"/>
       <c r="E268" s="8"/>
       <c r="F268" s="9"/>
-      <c r="G268" s="11"/>
+      <c r="G268" s="10"/>
       <c r="H268" s="9"/>
       <c r="I268" s="10"/>
       <c r="J268" s="9"/>
@@ -6940,7 +6960,7 @@
       <c r="D269" s="7"/>
       <c r="E269" s="8"/>
       <c r="F269" s="9"/>
-      <c r="G269" s="11"/>
+      <c r="G269" s="10"/>
       <c r="H269" s="9"/>
       <c r="I269" s="10"/>
       <c r="J269" s="9"/>
@@ -6952,7 +6972,7 @@
       <c r="D270" s="7"/>
       <c r="E270" s="8"/>
       <c r="F270" s="9"/>
-      <c r="G270" s="11"/>
+      <c r="G270" s="10"/>
       <c r="H270" s="9"/>
       <c r="I270" s="10"/>
       <c r="J270" s="9"/>
@@ -6964,7 +6984,7 @@
       <c r="D271" s="7"/>
       <c r="E271" s="8"/>
       <c r="F271" s="9"/>
-      <c r="G271" s="11"/>
+      <c r="G271" s="10"/>
       <c r="H271" s="9"/>
       <c r="I271" s="10"/>
       <c r="J271" s="9"/>
@@ -6976,7 +6996,7 @@
       <c r="D272" s="7"/>
       <c r="E272" s="8"/>
       <c r="F272" s="9"/>
-      <c r="G272" s="11"/>
+      <c r="G272" s="10"/>
       <c r="H272" s="9"/>
       <c r="I272" s="10"/>
       <c r="J272" s="9"/>
@@ -6988,7 +7008,7 @@
       <c r="D273" s="7"/>
       <c r="E273" s="8"/>
       <c r="F273" s="9"/>
-      <c r="G273" s="11"/>
+      <c r="G273" s="10"/>
       <c r="H273" s="9"/>
       <c r="I273" s="10"/>
       <c r="J273" s="9"/>
@@ -7000,7 +7020,7 @@
       <c r="D274" s="7"/>
       <c r="E274" s="8"/>
       <c r="F274" s="9"/>
-      <c r="G274" s="11"/>
+      <c r="G274" s="10"/>
       <c r="H274" s="9"/>
       <c r="I274" s="10"/>
       <c r="J274" s="9"/>
@@ -7012,7 +7032,7 @@
       <c r="D275" s="7"/>
       <c r="E275" s="8"/>
       <c r="F275" s="9"/>
-      <c r="G275" s="11"/>
+      <c r="G275" s="10"/>
       <c r="H275" s="9"/>
       <c r="I275" s="10"/>
       <c r="J275" s="9"/>
@@ -7024,7 +7044,7 @@
       <c r="D276" s="7"/>
       <c r="E276" s="8"/>
       <c r="F276" s="9"/>
-      <c r="G276" s="11"/>
+      <c r="G276" s="10"/>
       <c r="H276" s="9"/>
       <c r="I276" s="10"/>
       <c r="J276" s="9"/>
@@ -7036,7 +7056,7 @@
       <c r="D277" s="7"/>
       <c r="E277" s="8"/>
       <c r="F277" s="9"/>
-      <c r="G277" s="11"/>
+      <c r="G277" s="10"/>
       <c r="H277" s="9"/>
       <c r="I277" s="10"/>
       <c r="J277" s="9"/>
@@ -7048,7 +7068,7 @@
       <c r="D278" s="7"/>
       <c r="E278" s="8"/>
       <c r="F278" s="9"/>
-      <c r="G278" s="11"/>
+      <c r="G278" s="10"/>
       <c r="H278" s="9"/>
       <c r="I278" s="10"/>
       <c r="J278" s="9"/>
@@ -7060,7 +7080,7 @@
       <c r="D279" s="7"/>
       <c r="E279" s="8"/>
       <c r="F279" s="9"/>
-      <c r="G279" s="11"/>
+      <c r="G279" s="10"/>
       <c r="H279" s="9"/>
       <c r="I279" s="10"/>
       <c r="J279" s="9"/>
@@ -7072,7 +7092,7 @@
       <c r="D280" s="7"/>
       <c r="E280" s="8"/>
       <c r="F280" s="9"/>
-      <c r="G280" s="11"/>
+      <c r="G280" s="10"/>
       <c r="H280" s="9"/>
       <c r="I280" s="10"/>
       <c r="J280" s="9"/>
@@ -7084,7 +7104,7 @@
       <c r="D281" s="7"/>
       <c r="E281" s="8"/>
       <c r="F281" s="9"/>
-      <c r="G281" s="11"/>
+      <c r="G281" s="10"/>
       <c r="H281" s="9"/>
       <c r="I281" s="10"/>
       <c r="J281" s="9"/>
@@ -7096,7 +7116,7 @@
       <c r="D282" s="7"/>
       <c r="E282" s="8"/>
       <c r="F282" s="9"/>
-      <c r="G282" s="11"/>
+      <c r="G282" s="10"/>
       <c r="H282" s="9"/>
       <c r="I282" s="10"/>
       <c r="J282" s="9"/>
@@ -7108,7 +7128,7 @@
       <c r="D283" s="7"/>
       <c r="E283" s="8"/>
       <c r="F283" s="9"/>
-      <c r="G283" s="11"/>
+      <c r="G283" s="10"/>
       <c r="H283" s="9"/>
       <c r="I283" s="10"/>
       <c r="J283" s="9"/>
@@ -7120,7 +7140,7 @@
       <c r="D284" s="7"/>
       <c r="E284" s="8"/>
       <c r="F284" s="9"/>
-      <c r="G284" s="11"/>
+      <c r="G284" s="10"/>
       <c r="H284" s="9"/>
       <c r="I284" s="10"/>
       <c r="J284" s="9"/>
@@ -7132,7 +7152,7 @@
       <c r="D285" s="7"/>
       <c r="E285" s="8"/>
       <c r="F285" s="9"/>
-      <c r="G285" s="11"/>
+      <c r="G285" s="10"/>
       <c r="H285" s="9"/>
       <c r="I285" s="10"/>
       <c r="J285" s="9"/>
@@ -7144,7 +7164,7 @@
       <c r="D286" s="7"/>
       <c r="E286" s="8"/>
       <c r="F286" s="9"/>
-      <c r="G286" s="11"/>
+      <c r="G286" s="10"/>
       <c r="H286" s="9"/>
       <c r="I286" s="10"/>
       <c r="J286" s="9"/>
@@ -7156,7 +7176,7 @@
       <c r="D287" s="7"/>
       <c r="E287" s="8"/>
       <c r="F287" s="9"/>
-      <c r="G287" s="11"/>
+      <c r="G287" s="10"/>
       <c r="H287" s="9"/>
       <c r="I287" s="10"/>
       <c r="J287" s="9"/>
@@ -7168,7 +7188,7 @@
       <c r="D288" s="7"/>
       <c r="E288" s="8"/>
       <c r="F288" s="9"/>
-      <c r="G288" s="11"/>
+      <c r="G288" s="10"/>
       <c r="H288" s="9"/>
       <c r="I288" s="10"/>
       <c r="J288" s="9"/>
@@ -7180,7 +7200,7 @@
       <c r="D289" s="7"/>
       <c r="E289" s="8"/>
       <c r="F289" s="9"/>
-      <c r="G289" s="11"/>
+      <c r="G289" s="10"/>
       <c r="H289" s="9"/>
       <c r="I289" s="10"/>
       <c r="J289" s="9"/>
@@ -7192,7 +7212,7 @@
       <c r="D290" s="7"/>
       <c r="E290" s="8"/>
       <c r="F290" s="9"/>
-      <c r="G290" s="11"/>
+      <c r="G290" s="10"/>
       <c r="H290" s="9"/>
       <c r="I290" s="10"/>
       <c r="J290" s="9"/>
@@ -7204,7 +7224,7 @@
       <c r="D291" s="7"/>
       <c r="E291" s="8"/>
       <c r="F291" s="9"/>
-      <c r="G291" s="11"/>
+      <c r="G291" s="10"/>
       <c r="H291" s="9"/>
       <c r="I291" s="10"/>
       <c r="J291" s="9"/>
@@ -7216,7 +7236,7 @@
       <c r="D292" s="7"/>
       <c r="E292" s="8"/>
       <c r="F292" s="9"/>
-      <c r="G292" s="11"/>
+      <c r="G292" s="10"/>
       <c r="H292" s="9"/>
       <c r="I292" s="10"/>
       <c r="J292" s="9"/>
@@ -7228,7 +7248,7 @@
       <c r="D293" s="7"/>
       <c r="E293" s="8"/>
       <c r="F293" s="9"/>
-      <c r="G293" s="11"/>
+      <c r="G293" s="10"/>
       <c r="H293" s="9"/>
       <c r="I293" s="10"/>
       <c r="J293" s="9"/>
@@ -7240,7 +7260,7 @@
       <c r="D294" s="7"/>
       <c r="E294" s="8"/>
       <c r="F294" s="9"/>
-      <c r="G294" s="11"/>
+      <c r="G294" s="10"/>
       <c r="H294" s="9"/>
       <c r="I294" s="10"/>
       <c r="J294" s="9"/>
@@ -7252,7 +7272,7 @@
       <c r="D295" s="7"/>
       <c r="E295" s="8"/>
       <c r="F295" s="9"/>
-      <c r="G295" s="11"/>
+      <c r="G295" s="10"/>
       <c r="H295" s="9"/>
       <c r="I295" s="10"/>
       <c r="J295" s="9"/>
@@ -7264,7 +7284,7 @@
       <c r="D296" s="7"/>
       <c r="E296" s="8"/>
       <c r="F296" s="9"/>
-      <c r="G296" s="11"/>
+      <c r="G296" s="10"/>
       <c r="H296" s="9"/>
       <c r="I296" s="10"/>
       <c r="J296" s="9"/>
@@ -7276,7 +7296,7 @@
       <c r="D297" s="7"/>
       <c r="E297" s="8"/>
       <c r="F297" s="9"/>
-      <c r="G297" s="11"/>
+      <c r="G297" s="10"/>
       <c r="H297" s="9"/>
       <c r="I297" s="10"/>
       <c r="J297" s="9"/>
@@ -7288,7 +7308,7 @@
       <c r="D298" s="7"/>
       <c r="E298" s="8"/>
       <c r="F298" s="9"/>
-      <c r="G298" s="11"/>
+      <c r="G298" s="10"/>
       <c r="H298" s="9"/>
       <c r="I298" s="10"/>
       <c r="J298" s="9"/>
@@ -7300,7 +7320,7 @@
       <c r="D299" s="7"/>
       <c r="E299" s="8"/>
       <c r="F299" s="9"/>
-      <c r="G299" s="11"/>
+      <c r="G299" s="10"/>
       <c r="H299" s="9"/>
       <c r="I299" s="10"/>
       <c r="J299" s="9"/>
@@ -7312,7 +7332,7 @@
       <c r="D300" s="7"/>
       <c r="E300" s="8"/>
       <c r="F300" s="9"/>
-      <c r="G300" s="11"/>
+      <c r="G300" s="10"/>
       <c r="H300" s="9"/>
       <c r="I300" s="10"/>
       <c r="J300" s="9"/>
@@ -7324,7 +7344,7 @@
       <c r="D301" s="7"/>
       <c r="E301" s="8"/>
       <c r="F301" s="9"/>
-      <c r="G301" s="11"/>
+      <c r="G301" s="10"/>
       <c r="H301" s="9"/>
       <c r="I301" s="10"/>
       <c r="J301" s="9"/>
@@ -7336,7 +7356,7 @@
       <c r="D302" s="7"/>
       <c r="E302" s="8"/>
       <c r="F302" s="9"/>
-      <c r="G302" s="11"/>
+      <c r="G302" s="10"/>
       <c r="H302" s="9"/>
       <c r="I302" s="10"/>
       <c r="J302" s="9"/>
@@ -7348,7 +7368,7 @@
       <c r="D303" s="7"/>
       <c r="E303" s="8"/>
       <c r="F303" s="9"/>
-      <c r="G303" s="11"/>
+      <c r="G303" s="10"/>
       <c r="H303" s="9"/>
       <c r="I303" s="10"/>
       <c r="J303" s="9"/>
@@ -7360,7 +7380,7 @@
       <c r="D304" s="7"/>
       <c r="E304" s="8"/>
       <c r="F304" s="9"/>
-      <c r="G304" s="11"/>
+      <c r="G304" s="10"/>
       <c r="H304" s="9"/>
       <c r="I304" s="10"/>
       <c r="J304" s="9"/>
@@ -7372,7 +7392,7 @@
       <c r="D305" s="7"/>
       <c r="E305" s="8"/>
       <c r="F305" s="9"/>
-      <c r="G305" s="11"/>
+      <c r="G305" s="10"/>
       <c r="H305" s="9"/>
       <c r="I305" s="10"/>
       <c r="J305" s="9"/>
@@ -7384,7 +7404,7 @@
       <c r="D306" s="7"/>
       <c r="E306" s="8"/>
       <c r="F306" s="9"/>
-      <c r="G306" s="11"/>
+      <c r="G306" s="10"/>
       <c r="H306" s="9"/>
       <c r="I306" s="10"/>
       <c r="J306" s="9"/>
@@ -7396,7 +7416,7 @@
       <c r="D307" s="7"/>
       <c r="E307" s="8"/>
       <c r="F307" s="9"/>
-      <c r="G307" s="11"/>
+      <c r="G307" s="10"/>
       <c r="H307" s="9"/>
       <c r="I307" s="10"/>
       <c r="J307" s="9"/>
@@ -7408,7 +7428,7 @@
       <c r="D308" s="7"/>
       <c r="E308" s="8"/>
       <c r="F308" s="9"/>
-      <c r="G308" s="11"/>
+      <c r="G308" s="10"/>
       <c r="H308" s="9"/>
       <c r="I308" s="10"/>
       <c r="J308" s="9"/>
@@ -7420,7 +7440,7 @@
       <c r="D309" s="7"/>
       <c r="E309" s="8"/>
       <c r="F309" s="9"/>
-      <c r="G309" s="11"/>
+      <c r="G309" s="10"/>
       <c r="H309" s="9"/>
       <c r="I309" s="10"/>
       <c r="J309" s="9"/>
@@ -7432,7 +7452,7 @@
       <c r="D310" s="7"/>
       <c r="E310" s="8"/>
       <c r="F310" s="9"/>
-      <c r="G310" s="11"/>
+      <c r="G310" s="10"/>
       <c r="H310" s="9"/>
       <c r="I310" s="10"/>
       <c r="J310" s="9"/>
@@ -7444,7 +7464,7 @@
       <c r="D311" s="7"/>
       <c r="E311" s="8"/>
       <c r="F311" s="9"/>
-      <c r="G311" s="11"/>
+      <c r="G311" s="10"/>
       <c r="H311" s="9"/>
       <c r="I311" s="10"/>
       <c r="J311" s="9"/>
@@ -7456,7 +7476,7 @@
       <c r="D312" s="7"/>
       <c r="E312" s="8"/>
       <c r="F312" s="9"/>
-      <c r="G312" s="11"/>
+      <c r="G312" s="10"/>
       <c r="H312" s="9"/>
       <c r="I312" s="10"/>
       <c r="J312" s="9"/>
@@ -7468,7 +7488,7 @@
       <c r="D313" s="7"/>
       <c r="E313" s="8"/>
       <c r="F313" s="9"/>
-      <c r="G313" s="11"/>
+      <c r="G313" s="10"/>
       <c r="H313" s="9"/>
       <c r="I313" s="10"/>
       <c r="J313" s="9"/>
@@ -7480,7 +7500,7 @@
       <c r="D314" s="7"/>
       <c r="E314" s="8"/>
       <c r="F314" s="9"/>
-      <c r="G314" s="11"/>
+      <c r="G314" s="10"/>
       <c r="H314" s="9"/>
       <c r="I314" s="10"/>
       <c r="J314" s="9"/>
@@ -7492,7 +7512,7 @@
       <c r="D315" s="7"/>
       <c r="E315" s="8"/>
       <c r="F315" s="9"/>
-      <c r="G315" s="11"/>
+      <c r="G315" s="10"/>
       <c r="H315" s="9"/>
       <c r="I315" s="10"/>
       <c r="J315" s="9"/>
@@ -7504,7 +7524,7 @@
       <c r="D316" s="7"/>
       <c r="E316" s="8"/>
       <c r="F316" s="9"/>
-      <c r="G316" s="11"/>
+      <c r="G316" s="10"/>
       <c r="H316" s="9"/>
       <c r="I316" s="10"/>
       <c r="J316" s="9"/>
@@ -7516,7 +7536,7 @@
       <c r="D317" s="7"/>
       <c r="E317" s="8"/>
       <c r="F317" s="9"/>
-      <c r="G317" s="11"/>
+      <c r="G317" s="10"/>
       <c r="H317" s="9"/>
       <c r="I317" s="10"/>
       <c r="J317" s="9"/>
@@ -7528,7 +7548,7 @@
       <c r="D318" s="7"/>
       <c r="E318" s="8"/>
       <c r="F318" s="9"/>
-      <c r="G318" s="11"/>
+      <c r="G318" s="10"/>
       <c r="H318" s="9"/>
       <c r="I318" s="10"/>
       <c r="J318" s="9"/>
@@ -7540,7 +7560,7 @@
       <c r="D319" s="7"/>
       <c r="E319" s="8"/>
       <c r="F319" s="9"/>
-      <c r="G319" s="11"/>
+      <c r="G319" s="10"/>
       <c r="H319" s="9"/>
       <c r="I319" s="10"/>
       <c r="J319" s="9"/>
@@ -7552,7 +7572,7 @@
       <c r="D320" s="7"/>
       <c r="E320" s="8"/>
       <c r="F320" s="9"/>
-      <c r="G320" s="11"/>
+      <c r="G320" s="10"/>
       <c r="H320" s="9"/>
       <c r="I320" s="10"/>
       <c r="J320" s="9"/>
@@ -7564,7 +7584,7 @@
       <c r="D321" s="7"/>
       <c r="E321" s="8"/>
       <c r="F321" s="9"/>
-      <c r="G321" s="11"/>
+      <c r="G321" s="10"/>
       <c r="H321" s="9"/>
       <c r="I321" s="10"/>
       <c r="J321" s="9"/>
@@ -7576,7 +7596,7 @@
       <c r="D322" s="7"/>
       <c r="E322" s="8"/>
       <c r="F322" s="9"/>
-      <c r="G322" s="11"/>
+      <c r="G322" s="10"/>
       <c r="H322" s="9"/>
       <c r="I322" s="10"/>
       <c r="J322" s="9"/>
@@ -7588,7 +7608,7 @@
       <c r="D323" s="7"/>
       <c r="E323" s="8"/>
       <c r="F323" s="9"/>
-      <c r="G323" s="11"/>
+      <c r="G323" s="10"/>
       <c r="H323" s="9"/>
       <c r="I323" s="10"/>
       <c r="J323" s="9"/>
@@ -7600,7 +7620,7 @@
       <c r="D324" s="7"/>
       <c r="E324" s="8"/>
       <c r="F324" s="9"/>
-      <c r="G324" s="11"/>
+      <c r="G324" s="10"/>
       <c r="H324" s="9"/>
       <c r="I324" s="10"/>
       <c r="J324" s="9"/>
@@ -7612,7 +7632,7 @@
       <c r="D325" s="7"/>
       <c r="E325" s="8"/>
       <c r="F325" s="9"/>
-      <c r="G325" s="11"/>
+      <c r="G325" s="10"/>
       <c r="H325" s="9"/>
       <c r="I325" s="10"/>
       <c r="J325" s="9"/>
@@ -7624,7 +7644,7 @@
       <c r="D326" s="7"/>
       <c r="E326" s="8"/>
       <c r="F326" s="9"/>
-      <c r="G326" s="11"/>
+      <c r="G326" s="10"/>
       <c r="H326" s="9"/>
       <c r="I326" s="10"/>
       <c r="J326" s="9"/>
@@ -7636,7 +7656,7 @@
       <c r="D327" s="7"/>
       <c r="E327" s="8"/>
       <c r="F327" s="9"/>
-      <c r="G327" s="11"/>
+      <c r="G327" s="10"/>
       <c r="H327" s="9"/>
       <c r="I327" s="10"/>
       <c r="J327" s="9"/>
@@ -7648,7 +7668,7 @@
       <c r="D328" s="7"/>
       <c r="E328" s="8"/>
       <c r="F328" s="9"/>
-      <c r="G328" s="11"/>
+      <c r="G328" s="10"/>
       <c r="H328" s="9"/>
       <c r="I328" s="10"/>
       <c r="J328" s="9"/>
@@ -7660,7 +7680,7 @@
       <c r="D329" s="7"/>
       <c r="E329" s="8"/>
       <c r="F329" s="9"/>
-      <c r="G329" s="11"/>
+      <c r="G329" s="10"/>
       <c r="H329" s="9"/>
       <c r="I329" s="10"/>
       <c r="J329" s="9"/>
@@ -7672,7 +7692,7 @@
       <c r="D330" s="7"/>
       <c r="E330" s="8"/>
       <c r="F330" s="9"/>
-      <c r="G330" s="11"/>
+      <c r="G330" s="10"/>
       <c r="H330" s="9"/>
       <c r="I330" s="10"/>
       <c r="J330" s="9"/>
@@ -7684,7 +7704,7 @@
       <c r="D331" s="7"/>
       <c r="E331" s="8"/>
       <c r="F331" s="9"/>
-      <c r="G331" s="11"/>
+      <c r="G331" s="10"/>
       <c r="H331" s="9"/>
       <c r="I331" s="10"/>
       <c r="J331" s="9"/>
@@ -7696,7 +7716,7 @@
       <c r="D332" s="7"/>
       <c r="E332" s="8"/>
       <c r="F332" s="9"/>
-      <c r="G332" s="11"/>
+      <c r="G332" s="10"/>
       <c r="H332" s="9"/>
       <c r="I332" s="10"/>
       <c r="J332" s="9"/>
@@ -7708,7 +7728,7 @@
       <c r="D333" s="7"/>
       <c r="E333" s="8"/>
       <c r="F333" s="9"/>
-      <c r="G333" s="11"/>
+      <c r="G333" s="10"/>
       <c r="H333" s="9"/>
       <c r="I333" s="10"/>
       <c r="J333" s="9"/>
@@ -7720,7 +7740,7 @@
       <c r="D334" s="7"/>
       <c r="E334" s="8"/>
       <c r="F334" s="9"/>
-      <c r="G334" s="11"/>
+      <c r="G334" s="10"/>
       <c r="H334" s="9"/>
       <c r="I334" s="10"/>
       <c r="J334" s="9"/>
@@ -7732,7 +7752,7 @@
       <c r="D335" s="7"/>
       <c r="E335" s="8"/>
       <c r="F335" s="9"/>
-      <c r="G335" s="11"/>
+      <c r="G335" s="10"/>
       <c r="H335" s="9"/>
       <c r="I335" s="10"/>
       <c r="J335" s="9"/>
@@ -7744,7 +7764,7 @@
       <c r="D336" s="7"/>
       <c r="E336" s="8"/>
       <c r="F336" s="9"/>
-      <c r="G336" s="11"/>
+      <c r="G336" s="10"/>
       <c r="H336" s="9"/>
       <c r="I336" s="10"/>
       <c r="J336" s="9"/>
@@ -7756,7 +7776,7 @@
       <c r="D337" s="7"/>
       <c r="E337" s="8"/>
       <c r="F337" s="9"/>
-      <c r="G337" s="11"/>
+      <c r="G337" s="10"/>
       <c r="H337" s="9"/>
       <c r="I337" s="10"/>
       <c r="J337" s="9"/>
@@ -7768,7 +7788,7 @@
       <c r="D338" s="7"/>
       <c r="E338" s="8"/>
       <c r="F338" s="9"/>
-      <c r="G338" s="11"/>
+      <c r="G338" s="10"/>
       <c r="H338" s="9"/>
       <c r="I338" s="10"/>
       <c r="J338" s="9"/>
@@ -7780,7 +7800,7 @@
       <c r="D339" s="7"/>
       <c r="E339" s="8"/>
       <c r="F339" s="9"/>
-      <c r="G339" s="11"/>
+      <c r="G339" s="10"/>
       <c r="H339" s="9"/>
       <c r="I339" s="10"/>
       <c r="J339" s="9"/>
@@ -7792,7 +7812,7 @@
       <c r="D340" s="7"/>
       <c r="E340" s="8"/>
       <c r="F340" s="9"/>
-      <c r="G340" s="11"/>
+      <c r="G340" s="10"/>
       <c r="H340" s="9"/>
       <c r="I340" s="10"/>
       <c r="J340" s="9"/>
@@ -7804,7 +7824,7 @@
       <c r="D341" s="7"/>
       <c r="E341" s="8"/>
       <c r="F341" s="9"/>
-      <c r="G341" s="11"/>
+      <c r="G341" s="10"/>
       <c r="H341" s="9"/>
       <c r="I341" s="10"/>
       <c r="J341" s="9"/>
@@ -7816,7 +7836,7 @@
       <c r="D342" s="7"/>
       <c r="E342" s="8"/>
       <c r="F342" s="9"/>
-      <c r="G342" s="11"/>
+      <c r="G342" s="10"/>
       <c r="H342" s="9"/>
       <c r="I342" s="10"/>
       <c r="J342" s="9"/>
@@ -7828,7 +7848,7 @@
       <c r="D343" s="7"/>
       <c r="E343" s="8"/>
       <c r="F343" s="9"/>
-      <c r="G343" s="11"/>
+      <c r="G343" s="10"/>
       <c r="H343" s="9"/>
       <c r="I343" s="10"/>
       <c r="J343" s="9"/>
@@ -7840,7 +7860,7 @@
       <c r="D344" s="7"/>
       <c r="E344" s="8"/>
       <c r="F344" s="9"/>
-      <c r="G344" s="11"/>
+      <c r="G344" s="10"/>
       <c r="H344" s="9"/>
       <c r="I344" s="10"/>
       <c r="J344" s="9"/>
@@ -7852,7 +7872,7 @@
       <c r="D345" s="7"/>
       <c r="E345" s="8"/>
       <c r="F345" s="9"/>
-      <c r="G345" s="11"/>
+      <c r="G345" s="10"/>
       <c r="H345" s="9"/>
       <c r="I345" s="10"/>
       <c r="J345" s="9"/>
@@ -7864,7 +7884,7 @@
       <c r="D346" s="7"/>
       <c r="E346" s="8"/>
       <c r="F346" s="9"/>
-      <c r="G346" s="11"/>
+      <c r="G346" s="10"/>
       <c r="H346" s="9"/>
       <c r="I346" s="10"/>
       <c r="J346" s="9"/>
@@ -7876,7 +7896,7 @@
       <c r="D347" s="7"/>
       <c r="E347" s="8"/>
       <c r="F347" s="9"/>
-      <c r="G347" s="11"/>
+      <c r="G347" s="10"/>
       <c r="H347" s="9"/>
       <c r="I347" s="10"/>
       <c r="J347" s="9"/>
@@ -7888,7 +7908,7 @@
       <c r="D348" s="7"/>
       <c r="E348" s="8"/>
       <c r="F348" s="9"/>
-      <c r="G348" s="11"/>
+      <c r="G348" s="10"/>
       <c r="H348" s="9"/>
       <c r="I348" s="10"/>
       <c r="J348" s="9"/>
@@ -7900,7 +7920,7 @@
       <c r="D349" s="7"/>
       <c r="E349" s="8"/>
       <c r="F349" s="9"/>
-      <c r="G349" s="11"/>
+      <c r="G349" s="10"/>
       <c r="H349" s="9"/>
       <c r="I349" s="10"/>
       <c r="J349" s="9"/>
@@ -7912,7 +7932,7 @@
       <c r="D350" s="7"/>
       <c r="E350" s="8"/>
       <c r="F350" s="9"/>
-      <c r="G350" s="11"/>
+      <c r="G350" s="10"/>
       <c r="H350" s="9"/>
       <c r="I350" s="10"/>
       <c r="J350" s="9"/>
@@ -7924,7 +7944,7 @@
       <c r="D351" s="7"/>
       <c r="E351" s="8"/>
       <c r="F351" s="9"/>
-      <c r="G351" s="11"/>
+      <c r="G351" s="10"/>
       <c r="H351" s="9"/>
       <c r="I351" s="10"/>
       <c r="J351" s="9"/>
@@ -7936,7 +7956,7 @@
       <c r="D352" s="7"/>
       <c r="E352" s="8"/>
       <c r="F352" s="9"/>
-      <c r="G352" s="11"/>
+      <c r="G352" s="10"/>
       <c r="H352" s="9"/>
       <c r="I352" s="10"/>
       <c r="J352" s="9"/>
@@ -7948,7 +7968,7 @@
       <c r="D353" s="7"/>
       <c r="E353" s="8"/>
       <c r="F353" s="9"/>
-      <c r="G353" s="11"/>
+      <c r="G353" s="10"/>
       <c r="H353" s="9"/>
       <c r="I353" s="10"/>
       <c r="J353" s="9"/>
@@ -7960,7 +7980,7 @@
       <c r="D354" s="7"/>
       <c r="E354" s="8"/>
       <c r="F354" s="9"/>
-      <c r="G354" s="11"/>
+      <c r="G354" s="10"/>
       <c r="H354" s="9"/>
       <c r="I354" s="10"/>
       <c r="J354" s="9"/>
@@ -7972,7 +7992,7 @@
       <c r="D355" s="7"/>
       <c r="E355" s="8"/>
       <c r="F355" s="9"/>
-      <c r="G355" s="11"/>
+      <c r="G355" s="10"/>
       <c r="H355" s="9"/>
       <c r="I355" s="10"/>
       <c r="J355" s="9"/>
@@ -7984,7 +8004,7 @@
       <c r="D356" s="7"/>
       <c r="E356" s="8"/>
       <c r="F356" s="9"/>
-      <c r="G356" s="11"/>
+      <c r="G356" s="10"/>
       <c r="H356" s="9"/>
       <c r="I356" s="10"/>
       <c r="J356" s="9"/>
@@ -7996,7 +8016,7 @@
       <c r="D357" s="7"/>
       <c r="E357" s="8"/>
       <c r="F357" s="9"/>
-      <c r="G357" s="11"/>
+      <c r="G357" s="10"/>
       <c r="H357" s="9"/>
       <c r="I357" s="10"/>
       <c r="J357" s="9"/>
@@ -8008,7 +8028,7 @@
       <c r="D358" s="7"/>
       <c r="E358" s="8"/>
       <c r="F358" s="9"/>
-      <c r="G358" s="11"/>
+      <c r="G358" s="10"/>
       <c r="H358" s="9"/>
       <c r="I358" s="10"/>
       <c r="J358" s="9"/>
@@ -8020,7 +8040,7 @@
       <c r="D359" s="7"/>
       <c r="E359" s="8"/>
       <c r="F359" s="9"/>
-      <c r="G359" s="11"/>
+      <c r="G359" s="10"/>
       <c r="H359" s="9"/>
       <c r="I359" s="10"/>
       <c r="J359" s="9"/>
@@ -8032,7 +8052,7 @@
       <c r="D360" s="7"/>
       <c r="E360" s="8"/>
       <c r="F360" s="9"/>
-      <c r="G360" s="11"/>
+      <c r="G360" s="10"/>
       <c r="H360" s="9"/>
       <c r="I360" s="10"/>
       <c r="J360" s="9"/>
@@ -8044,7 +8064,7 @@
       <c r="D361" s="7"/>
       <c r="E361" s="8"/>
       <c r="F361" s="9"/>
-      <c r="G361" s="11"/>
+      <c r="G361" s="10"/>
       <c r="H361" s="9"/>
       <c r="I361" s="10"/>
       <c r="J361" s="9"/>
@@ -8056,7 +8076,7 @@
       <c r="D362" s="7"/>
       <c r="E362" s="8"/>
       <c r="F362" s="9"/>
-      <c r="G362" s="11"/>
+      <c r="G362" s="10"/>
       <c r="H362" s="9"/>
       <c r="I362" s="10"/>
       <c r="J362" s="9"/>
@@ -8068,7 +8088,7 @@
       <c r="D363" s="7"/>
       <c r="E363" s="8"/>
       <c r="F363" s="9"/>
-      <c r="G363" s="11"/>
+      <c r="G363" s="10"/>
       <c r="H363" s="9"/>
       <c r="I363" s="10"/>
       <c r="J363" s="9"/>
@@ -8080,7 +8100,7 @@
       <c r="D364" s="7"/>
       <c r="E364" s="8"/>
       <c r="F364" s="9"/>
-      <c r="G364" s="11"/>
+      <c r="G364" s="10"/>
       <c r="H364" s="9"/>
       <c r="I364" s="10"/>
       <c r="J364" s="9"/>
@@ -8092,7 +8112,7 @@
       <c r="D365" s="7"/>
       <c r="E365" s="8"/>
       <c r="F365" s="9"/>
-      <c r="G365" s="11"/>
+      <c r="G365" s="10"/>
       <c r="H365" s="9"/>
       <c r="I365" s="10"/>
       <c r="J365" s="9"/>
@@ -8104,7 +8124,7 @@
       <c r="D366" s="7"/>
       <c r="E366" s="8"/>
       <c r="F366" s="9"/>
-      <c r="G366" s="11"/>
+      <c r="G366" s="10"/>
       <c r="H366" s="9"/>
       <c r="I366" s="10"/>
       <c r="J366" s="9"/>
@@ -8116,7 +8136,7 @@
       <c r="D367" s="7"/>
       <c r="E367" s="8"/>
       <c r="F367" s="9"/>
-      <c r="G367" s="11"/>
+      <c r="G367" s="10"/>
       <c r="H367" s="9"/>
       <c r="I367" s="10"/>
       <c r="J367" s="9"/>
@@ -8128,7 +8148,7 @@
       <c r="D368" s="7"/>
       <c r="E368" s="8"/>
       <c r="F368" s="9"/>
-      <c r="G368" s="11"/>
+      <c r="G368" s="10"/>
       <c r="H368" s="9"/>
       <c r="I368" s="10"/>
       <c r="J368" s="9"/>
@@ -8140,7 +8160,7 @@
       <c r="D369" s="7"/>
       <c r="E369" s="8"/>
       <c r="F369" s="9"/>
-      <c r="G369" s="11"/>
+      <c r="G369" s="10"/>
       <c r="H369" s="9"/>
       <c r="I369" s="10"/>
       <c r="J369" s="9"/>
@@ -8152,7 +8172,7 @@
       <c r="D370" s="7"/>
       <c r="E370" s="8"/>
       <c r="F370" s="9"/>
-      <c r="G370" s="11"/>
+      <c r="G370" s="10"/>
       <c r="H370" s="9"/>
       <c r="I370" s="10"/>
       <c r="J370" s="9"/>
@@ -8164,7 +8184,7 @@
       <c r="D371" s="7"/>
       <c r="E371" s="8"/>
       <c r="F371" s="9"/>
-      <c r="G371" s="11"/>
+      <c r="G371" s="10"/>
       <c r="H371" s="9"/>
       <c r="I371" s="10"/>
       <c r="J371" s="9"/>
@@ -8176,7 +8196,7 @@
       <c r="D372" s="7"/>
       <c r="E372" s="8"/>
       <c r="F372" s="9"/>
-      <c r="G372" s="11"/>
+      <c r="G372" s="10"/>
       <c r="H372" s="9"/>
       <c r="I372" s="10"/>
       <c r="J372" s="9"/>
@@ -8188,7 +8208,7 @@
       <c r="D373" s="7"/>
       <c r="E373" s="8"/>
       <c r="F373" s="9"/>
-      <c r="G373" s="11"/>
+      <c r="G373" s="10"/>
       <c r="H373" s="9"/>
       <c r="I373" s="10"/>
       <c r="J373" s="9"/>
@@ -8200,7 +8220,7 @@
       <c r="D374" s="7"/>
       <c r="E374" s="8"/>
       <c r="F374" s="9"/>
-      <c r="G374" s="11"/>
+      <c r="G374" s="10"/>
       <c r="H374" s="9"/>
       <c r="I374" s="10"/>
       <c r="J374" s="9"/>
@@ -8212,7 +8232,7 @@
       <c r="D375" s="7"/>
       <c r="E375" s="8"/>
       <c r="F375" s="9"/>
-      <c r="G375" s="11"/>
+      <c r="G375" s="10"/>
       <c r="H375" s="9"/>
       <c r="I375" s="10"/>
       <c r="J375" s="9"/>
@@ -8224,7 +8244,7 @@
       <c r="D376" s="7"/>
       <c r="E376" s="8"/>
       <c r="F376" s="9"/>
-      <c r="G376" s="11"/>
+      <c r="G376" s="10"/>
       <c r="H376" s="9"/>
       <c r="I376" s="10"/>
       <c r="J376" s="9"/>
@@ -8236,7 +8256,7 @@
       <c r="D377" s="7"/>
       <c r="E377" s="8"/>
       <c r="F377" s="9"/>
-      <c r="G377" s="11"/>
+      <c r="G377" s="10"/>
       <c r="H377" s="9"/>
       <c r="I377" s="10"/>
       <c r="J377" s="9"/>
@@ -8248,7 +8268,7 @@
       <c r="D378" s="7"/>
       <c r="E378" s="8"/>
       <c r="F378" s="9"/>
-      <c r="G378" s="11"/>
+      <c r="G378" s="10"/>
       <c r="H378" s="9"/>
       <c r="I378" s="10"/>
       <c r="J378" s="9"/>
@@ -8260,7 +8280,7 @@
       <c r="D379" s="7"/>
       <c r="E379" s="8"/>
       <c r="F379" s="9"/>
-      <c r="G379" s="11"/>
+      <c r="G379" s="10"/>
       <c r="H379" s="9"/>
       <c r="I379" s="10"/>
       <c r="J379" s="9"/>
@@ -8272,7 +8292,7 @@
       <c r="D380" s="7"/>
       <c r="E380" s="8"/>
       <c r="F380" s="9"/>
-      <c r="G380" s="11"/>
+      <c r="G380" s="10"/>
       <c r="H380" s="9"/>
       <c r="I380" s="10"/>
       <c r="J380" s="9"/>
@@ -8284,7 +8304,7 @@
       <c r="D381" s="7"/>
       <c r="E381" s="8"/>
       <c r="F381" s="9"/>
-      <c r="G381" s="11"/>
+      <c r="G381" s="10"/>
       <c r="H381" s="9"/>
       <c r="I381" s="10"/>
       <c r="J381" s="9"/>
@@ -8296,7 +8316,7 @@
       <c r="D382" s="7"/>
       <c r="E382" s="8"/>
       <c r="F382" s="9"/>
-      <c r="G382" s="11"/>
+      <c r="G382" s="10"/>
       <c r="H382" s="9"/>
       <c r="I382" s="10"/>
       <c r="J382" s="9"/>
@@ -8308,7 +8328,7 @@
       <c r="D383" s="7"/>
       <c r="E383" s="8"/>
       <c r="F383" s="9"/>
-      <c r="G383" s="11"/>
+      <c r="G383" s="10"/>
       <c r="H383" s="9"/>
       <c r="I383" s="10"/>
       <c r="J383" s="9"/>
@@ -8320,7 +8340,7 @@
       <c r="D384" s="7"/>
       <c r="E384" s="8"/>
       <c r="F384" s="9"/>
-      <c r="G384" s="11"/>
+      <c r="G384" s="10"/>
       <c r="H384" s="9"/>
       <c r="I384" s="10"/>
       <c r="J384" s="9"/>
@@ -8332,7 +8352,7 @@
       <c r="D385" s="7"/>
       <c r="E385" s="8"/>
       <c r="F385" s="9"/>
-      <c r="G385" s="11"/>
+      <c r="G385" s="10"/>
       <c r="H385" s="9"/>
       <c r="I385" s="10"/>
       <c r="J385" s="9"/>
@@ -8344,7 +8364,7 @@
       <c r="D386" s="7"/>
       <c r="E386" s="8"/>
       <c r="F386" s="9"/>
-      <c r="G386" s="11"/>
+      <c r="G386" s="10"/>
       <c r="H386" s="9"/>
       <c r="I386" s="10"/>
       <c r="J386" s="9"/>
@@ -8356,7 +8376,7 @@
       <c r="D387" s="7"/>
       <c r="E387" s="8"/>
       <c r="F387" s="9"/>
-      <c r="G387" s="11"/>
+      <c r="G387" s="10"/>
       <c r="H387" s="9"/>
       <c r="I387" s="10"/>
       <c r="J387" s="9"/>
@@ -8368,7 +8388,7 @@
       <c r="D388" s="7"/>
       <c r="E388" s="8"/>
       <c r="F388" s="9"/>
-      <c r="G388" s="11"/>
+      <c r="G388" s="10"/>
       <c r="H388" s="9"/>
       <c r="I388" s="10"/>
       <c r="J388" s="9"/>
@@ -8380,7 +8400,7 @@
       <c r="D389" s="7"/>
       <c r="E389" s="8"/>
       <c r="F389" s="9"/>
-      <c r="G389" s="11"/>
+      <c r="G389" s="10"/>
       <c r="H389" s="9"/>
       <c r="I389" s="10"/>
       <c r="J389" s="9"/>
@@ -8392,7 +8412,7 @@
       <c r="D390" s="7"/>
       <c r="E390" s="8"/>
       <c r="F390" s="9"/>
-      <c r="G390" s="11"/>
+      <c r="G390" s="10"/>
       <c r="H390" s="9"/>
       <c r="I390" s="10"/>
       <c r="J390" s="9"/>
@@ -8404,7 +8424,7 @@
       <c r="D391" s="7"/>
       <c r="E391" s="8"/>
       <c r="F391" s="9"/>
-      <c r="G391" s="11"/>
+      <c r="G391" s="10"/>
       <c r="H391" s="9"/>
       <c r="I391" s="10"/>
       <c r="J391" s="9"/>
@@ -8416,7 +8436,7 @@
       <c r="D392" s="7"/>
       <c r="E392" s="8"/>
       <c r="F392" s="9"/>
-      <c r="G392" s="11"/>
+      <c r="G392" s="10"/>
       <c r="H392" s="9"/>
       <c r="I392" s="10"/>
       <c r="J392" s="9"/>
@@ -8428,7 +8448,7 @@
       <c r="D393" s="7"/>
       <c r="E393" s="8"/>
       <c r="F393" s="9"/>
-      <c r="G393" s="11"/>
+      <c r="G393" s="10"/>
       <c r="H393" s="9"/>
       <c r="I393" s="10"/>
       <c r="J393" s="9"/>
@@ -8440,7 +8460,7 @@
       <c r="D394" s="7"/>
       <c r="E394" s="8"/>
       <c r="F394" s="9"/>
-      <c r="G394" s="11"/>
+      <c r="G394" s="10"/>
       <c r="H394" s="9"/>
       <c r="I394" s="10"/>
       <c r="J394" s="9"/>
@@ -8452,7 +8472,7 @@
       <c r="D395" s="7"/>
       <c r="E395" s="8"/>
       <c r="F395" s="9"/>
-      <c r="G395" s="11"/>
+      <c r="G395" s="10"/>
       <c r="H395" s="9"/>
       <c r="I395" s="10"/>
       <c r="J395" s="9"/>
@@ -8464,7 +8484,7 @@
       <c r="D396" s="7"/>
       <c r="E396" s="8"/>
       <c r="F396" s="9"/>
-      <c r="G396" s="11"/>
+      <c r="G396" s="10"/>
       <c r="H396" s="9"/>
       <c r="I396" s="10"/>
       <c r="J396" s="9"/>
@@ -8476,7 +8496,7 @@
       <c r="D397" s="7"/>
       <c r="E397" s="8"/>
       <c r="F397" s="9"/>
-      <c r="G397" s="11"/>
+      <c r="G397" s="10"/>
       <c r="H397" s="9"/>
       <c r="I397" s="10"/>
       <c r="J397" s="9"/>
@@ -8488,7 +8508,7 @@
       <c r="D398" s="7"/>
       <c r="E398" s="8"/>
       <c r="F398" s="9"/>
-      <c r="G398" s="11"/>
+      <c r="G398" s="10"/>
       <c r="H398" s="9"/>
       <c r="I398" s="10"/>
       <c r="J398" s="9"/>
@@ -8500,7 +8520,7 @@
       <c r="D399" s="7"/>
       <c r="E399" s="8"/>
       <c r="F399" s="9"/>
-      <c r="G399" s="11"/>
+      <c r="G399" s="10"/>
       <c r="H399" s="9"/>
       <c r="I399" s="10"/>
       <c r="J399" s="9"/>
@@ -8512,7 +8532,7 @@
       <c r="D400" s="7"/>
       <c r="E400" s="8"/>
       <c r="F400" s="9"/>
-      <c r="G400" s="11"/>
+      <c r="G400" s="10"/>
       <c r="H400" s="9"/>
       <c r="I400" s="10"/>
       <c r="J400" s="9"/>
@@ -8524,7 +8544,7 @@
       <c r="D401" s="7"/>
       <c r="E401" s="8"/>
       <c r="F401" s="9"/>
-      <c r="G401" s="11"/>
+      <c r="G401" s="10"/>
       <c r="H401" s="9"/>
       <c r="I401" s="10"/>
       <c r="J401" s="9"/>
@@ -8536,7 +8556,7 @@
       <c r="D402" s="7"/>
       <c r="E402" s="8"/>
       <c r="F402" s="9"/>
-      <c r="G402" s="11"/>
+      <c r="G402" s="10"/>
       <c r="H402" s="9"/>
       <c r="I402" s="10"/>
       <c r="J402" s="9"/>
@@ -8548,7 +8568,7 @@
       <c r="D403" s="7"/>
       <c r="E403" s="8"/>
       <c r="F403" s="9"/>
-      <c r="G403" s="11"/>
+      <c r="G403" s="10"/>
       <c r="H403" s="9"/>
       <c r="I403" s="10"/>
       <c r="J403" s="9"/>
@@ -8560,7 +8580,7 @@
       <c r="D404" s="7"/>
       <c r="E404" s="8"/>
       <c r="F404" s="9"/>
-      <c r="G404" s="11"/>
+      <c r="G404" s="10"/>
       <c r="H404" s="9"/>
       <c r="I404" s="10"/>
       <c r="J404" s="9"/>
@@ -8572,7 +8592,7 @@
       <c r="D405" s="7"/>
       <c r="E405" s="8"/>
       <c r="F405" s="9"/>
-      <c r="G405" s="11"/>
+      <c r="G405" s="10"/>
       <c r="H405" s="9"/>
       <c r="I405" s="10"/>
       <c r="J405" s="9"/>
@@ -8584,7 +8604,7 @@
       <c r="D406" s="7"/>
       <c r="E406" s="8"/>
       <c r="F406" s="9"/>
-      <c r="G406" s="11"/>
+      <c r="G406" s="10"/>
       <c r="H406" s="9"/>
       <c r="I406" s="10"/>
       <c r="J406" s="9"/>
@@ -8596,7 +8616,7 @@
       <c r="D407" s="7"/>
       <c r="E407" s="8"/>
       <c r="F407" s="9"/>
-      <c r="G407" s="11"/>
+      <c r="G407" s="10"/>
       <c r="H407" s="9"/>
       <c r="I407" s="10"/>
       <c r="J407" s="9"/>
@@ -8608,7 +8628,7 @@
       <c r="D408" s="7"/>
       <c r="E408" s="8"/>
       <c r="F408" s="9"/>
-      <c r="G408" s="11"/>
+      <c r="G408" s="10"/>
       <c r="H408" s="9"/>
       <c r="I408" s="10"/>
       <c r="J408" s="9"/>
@@ -8620,7 +8640,7 @@
       <c r="D409" s="7"/>
       <c r="E409" s="8"/>
       <c r="F409" s="9"/>
-      <c r="G409" s="11"/>
+      <c r="G409" s="10"/>
       <c r="H409" s="9"/>
       <c r="I409" s="10"/>
       <c r="J409" s="9"/>
@@ -8632,7 +8652,7 @@
       <c r="D410" s="7"/>
       <c r="E410" s="8"/>
       <c r="F410" s="9"/>
-      <c r="G410" s="11"/>
+      <c r="G410" s="10"/>
       <c r="H410" s="9"/>
       <c r="I410" s="10"/>
       <c r="J410" s="9"/>
@@ -8644,7 +8664,7 @@
       <c r="D411" s="7"/>
       <c r="E411" s="8"/>
       <c r="F411" s="9"/>
-      <c r="G411" s="11"/>
+      <c r="G411" s="10"/>
       <c r="H411" s="9"/>
       <c r="I411" s="10"/>
       <c r="J411" s="9"/>
@@ -8656,7 +8676,7 @@
       <c r="D412" s="7"/>
       <c r="E412" s="8"/>
       <c r="F412" s="9"/>
-      <c r="G412" s="11"/>
+      <c r="G412" s="10"/>
       <c r="H412" s="9"/>
       <c r="I412" s="10"/>
       <c r="J412" s="9"/>
@@ -8668,7 +8688,7 @@
       <c r="D413" s="7"/>
       <c r="E413" s="8"/>
       <c r="F413" s="9"/>
-      <c r="G413" s="11"/>
+      <c r="G413" s="10"/>
       <c r="H413" s="9"/>
       <c r="I413" s="10"/>
       <c r="J413" s="9"/>
@@ -8680,7 +8700,7 @@
       <c r="D414" s="7"/>
       <c r="E414" s="8"/>
       <c r="F414" s="9"/>
-      <c r="G414" s="11"/>
+      <c r="G414" s="10"/>
       <c r="H414" s="9"/>
       <c r="I414" s="10"/>
       <c r="J414" s="9"/>
@@ -8692,7 +8712,7 @@
       <c r="D415" s="7"/>
       <c r="E415" s="8"/>
       <c r="F415" s="9"/>
-      <c r="G415" s="11"/>
+      <c r="G415" s="10"/>
       <c r="H415" s="9"/>
       <c r="I415" s="10"/>
       <c r="J415" s="9"/>
@@ -8704,7 +8724,7 @@
       <c r="D416" s="7"/>
       <c r="E416" s="8"/>
       <c r="F416" s="9"/>
-      <c r="G416" s="11"/>
+      <c r="G416" s="10"/>
       <c r="H416" s="9"/>
       <c r="I416" s="10"/>
       <c r="J416" s="9"/>
@@ -8716,7 +8736,7 @@
       <c r="D417" s="7"/>
       <c r="E417" s="8"/>
       <c r="F417" s="9"/>
-      <c r="G417" s="11"/>
+      <c r="G417" s="10"/>
       <c r="H417" s="9"/>
       <c r="I417" s="10"/>
       <c r="J417" s="9"/>
@@ -8728,7 +8748,7 @@
       <c r="D418" s="7"/>
       <c r="E418" s="8"/>
       <c r="F418" s="9"/>
-      <c r="G418" s="11"/>
+      <c r="G418" s="10"/>
       <c r="H418" s="9"/>
       <c r="I418" s="10"/>
       <c r="J418" s="9"/>
@@ -8740,7 +8760,7 @@
       <c r="D419" s="7"/>
       <c r="E419" s="8"/>
       <c r="F419" s="9"/>
-      <c r="G419" s="11"/>
+      <c r="G419" s="10"/>
       <c r="H419" s="9"/>
       <c r="I419" s="10"/>
       <c r="J419" s="9"/>
@@ -8752,7 +8772,7 @@
       <c r="D420" s="7"/>
       <c r="E420" s="8"/>
       <c r="F420" s="9"/>
-      <c r="G420" s="11"/>
+      <c r="G420" s="10"/>
       <c r="H420" s="9"/>
       <c r="I420" s="10"/>
       <c r="J420" s="9"/>
@@ -8764,7 +8784,7 @@
       <c r="D421" s="7"/>
       <c r="E421" s="8"/>
       <c r="F421" s="9"/>
-      <c r="G421" s="11"/>
+      <c r="G421" s="10"/>
       <c r="H421" s="9"/>
       <c r="I421" s="10"/>
       <c r="J421" s="9"/>
@@ -8776,7 +8796,7 @@
       <c r="D422" s="7"/>
       <c r="E422" s="8"/>
       <c r="F422" s="9"/>
-      <c r="G422" s="11"/>
+      <c r="G422" s="10"/>
       <c r="H422" s="9"/>
       <c r="I422" s="10"/>
       <c r="J422" s="9"/>
@@ -8788,7 +8808,7 @@
       <c r="D423" s="7"/>
       <c r="E423" s="8"/>
       <c r="F423" s="9"/>
-      <c r="G423" s="11"/>
+      <c r="G423" s="10"/>
       <c r="H423" s="9"/>
       <c r="I423" s="10"/>
       <c r="J423" s="9"/>
@@ -8800,7 +8820,7 @@
       <c r="D424" s="7"/>
       <c r="E424" s="8"/>
       <c r="F424" s="9"/>
-      <c r="G424" s="11"/>
+      <c r="G424" s="10"/>
       <c r="H424" s="9"/>
       <c r="I424" s="10"/>
       <c r="J424" s="9"/>
@@ -8812,7 +8832,7 @@
       <c r="D425" s="7"/>
       <c r="E425" s="8"/>
       <c r="F425" s="9"/>
-      <c r="G425" s="11"/>
+      <c r="G425" s="10"/>
       <c r="H425" s="9"/>
       <c r="I425" s="10"/>
       <c r="J425" s="9"/>
@@ -8824,7 +8844,7 @@
       <c r="D426" s="7"/>
       <c r="E426" s="8"/>
       <c r="F426" s="9"/>
-      <c r="G426" s="11"/>
+      <c r="G426" s="10"/>
       <c r="H426" s="9"/>
       <c r="I426" s="10"/>
       <c r="J426" s="9"/>
@@ -8836,7 +8856,7 @@
       <c r="D427" s="7"/>
       <c r="E427" s="8"/>
       <c r="F427" s="9"/>
-      <c r="G427" s="11"/>
+      <c r="G427" s="10"/>
       <c r="H427" s="9"/>
       <c r="I427" s="10"/>
       <c r="J427" s="9"/>
@@ -8848,7 +8868,7 @@
       <c r="D428" s="7"/>
       <c r="E428" s="8"/>
       <c r="F428" s="9"/>
-      <c r="G428" s="11"/>
+      <c r="G428" s="10"/>
       <c r="H428" s="9"/>
       <c r="I428" s="10"/>
       <c r="J428" s="9"/>
@@ -8860,7 +8880,7 @@
       <c r="D429" s="7"/>
       <c r="E429" s="8"/>
       <c r="F429" s="9"/>
-      <c r="G429" s="11"/>
+      <c r="G429" s="10"/>
       <c r="H429" s="9"/>
       <c r="I429" s="10"/>
       <c r="J429" s="9"/>
@@ -8872,7 +8892,7 @@
       <c r="D430" s="7"/>
       <c r="E430" s="8"/>
       <c r="F430" s="9"/>
-      <c r="G430" s="11"/>
+      <c r="G430" s="10"/>
       <c r="H430" s="9"/>
       <c r="I430" s="10"/>
       <c r="J430" s="9"/>
@@ -8884,7 +8904,7 @@
       <c r="D431" s="7"/>
       <c r="E431" s="8"/>
       <c r="F431" s="9"/>
-      <c r="G431" s="11"/>
+      <c r="G431" s="10"/>
       <c r="H431" s="9"/>
       <c r="I431" s="10"/>
       <c r="J431" s="9"/>
@@ -8896,7 +8916,7 @@
       <c r="D432" s="7"/>
       <c r="E432" s="8"/>
       <c r="F432" s="9"/>
-      <c r="G432" s="11"/>
+      <c r="G432" s="10"/>
       <c r="H432" s="9"/>
       <c r="I432" s="10"/>
       <c r="J432" s="9"/>
@@ -8908,7 +8928,7 @@
       <c r="D433" s="7"/>
       <c r="E433" s="8"/>
       <c r="F433" s="9"/>
-      <c r="G433" s="11"/>
+      <c r="G433" s="10"/>
       <c r="H433" s="9"/>
       <c r="I433" s="10"/>
       <c r="J433" s="9"/>
@@ -8920,7 +8940,7 @@
       <c r="D434" s="7"/>
       <c r="E434" s="8"/>
       <c r="F434" s="9"/>
-      <c r="G434" s="11"/>
+      <c r="G434" s="10"/>
       <c r="H434" s="9"/>
       <c r="I434" s="10"/>
       <c r="J434" s="9"/>
@@ -8932,7 +8952,7 @@
       <c r="D435" s="7"/>
       <c r="E435" s="8"/>
       <c r="F435" s="9"/>
-      <c r="G435" s="11"/>
+      <c r="G435" s="10"/>
       <c r="H435" s="9"/>
       <c r="I435" s="10"/>
       <c r="J435" s="9"/>
@@ -8944,7 +8964,7 @@
       <c r="D436" s="7"/>
       <c r="E436" s="8"/>
       <c r="F436" s="9"/>
-      <c r="G436" s="11"/>
+      <c r="G436" s="10"/>
       <c r="H436" s="9"/>
       <c r="I436" s="10"/>
       <c r="J436" s="9"/>
@@ -8956,7 +8976,7 @@
       <c r="D437" s="7"/>
       <c r="E437" s="8"/>
       <c r="F437" s="9"/>
-      <c r="G437" s="11"/>
+      <c r="G437" s="10"/>
       <c r="H437" s="9"/>
       <c r="I437" s="10"/>
       <c r="J437" s="9"/>
@@ -8968,7 +8988,7 @@
       <c r="D438" s="7"/>
       <c r="E438" s="8"/>
       <c r="F438" s="9"/>
-      <c r="G438" s="11"/>
+      <c r="G438" s="10"/>
       <c r="H438" s="9"/>
       <c r="I438" s="10"/>
       <c r="J438" s="9"/>
@@ -8980,7 +9000,7 @@
       <c r="D439" s="7"/>
       <c r="E439" s="8"/>
       <c r="F439" s="9"/>
-      <c r="G439" s="11"/>
+      <c r="G439" s="10"/>
       <c r="H439" s="9"/>
       <c r="I439" s="10"/>
       <c r="J439" s="9"/>
@@ -8992,7 +9012,7 @@
       <c r="D440" s="7"/>
       <c r="E440" s="8"/>
       <c r="F440" s="9"/>
-      <c r="G440" s="11"/>
+      <c r="G440" s="10"/>
       <c r="H440" s="9"/>
       <c r="I440" s="10"/>
       <c r="J440" s="9"/>
@@ -9004,7 +9024,7 @@
       <c r="D441" s="7"/>
       <c r="E441" s="8"/>
       <c r="F441" s="9"/>
-      <c r="G441" s="11"/>
+      <c r="G441" s="10"/>
       <c r="H441" s="9"/>
       <c r="I441" s="10"/>
       <c r="J441" s="9"/>
@@ -9016,7 +9036,7 @@
       <c r="D442" s="7"/>
       <c r="E442" s="8"/>
       <c r="F442" s="9"/>
-      <c r="G442" s="11"/>
+      <c r="G442" s="10"/>
       <c r="H442" s="9"/>
       <c r="I442" s="10"/>
       <c r="J442" s="9"/>
@@ -9028,7 +9048,7 @@
       <c r="D443" s="7"/>
       <c r="E443" s="8"/>
       <c r="F443" s="9"/>
-      <c r="G443" s="11"/>
+      <c r="G443" s="10"/>
       <c r="H443" s="9"/>
       <c r="I443" s="10"/>
       <c r="J443" s="9"/>
@@ -9040,7 +9060,7 @@
       <c r="D444" s="7"/>
       <c r="E444" s="8"/>
       <c r="F444" s="9"/>
-      <c r="G444" s="11"/>
+      <c r="G444" s="10"/>
       <c r="H444" s="9"/>
       <c r="I444" s="10"/>
       <c r="J444" s="9"/>
@@ -9052,7 +9072,7 @@
       <c r="D445" s="7"/>
       <c r="E445" s="8"/>
       <c r="F445" s="9"/>
-      <c r="G445" s="11"/>
+      <c r="G445" s="10"/>
       <c r="H445" s="9"/>
       <c r="I445" s="10"/>
       <c r="J445" s="9"/>
@@ -9064,7 +9084,7 @@
       <c r="D446" s="7"/>
       <c r="E446" s="8"/>
       <c r="F446" s="9"/>
-      <c r="G446" s="11"/>
+      <c r="G446" s="10"/>
       <c r="H446" s="9"/>
       <c r="I446" s="10"/>
       <c r="J446" s="9"/>
@@ -9076,7 +9096,7 @@
       <c r="D447" s="7"/>
       <c r="E447" s="8"/>
       <c r="F447" s="9"/>
-      <c r="G447" s="11"/>
+      <c r="G447" s="10"/>
       <c r="H447" s="9"/>
       <c r="I447" s="10"/>
       <c r="J447" s="9"/>
@@ -9088,7 +9108,7 @@
       <c r="D448" s="7"/>
       <c r="E448" s="8"/>
       <c r="F448" s="9"/>
-      <c r="G448" s="11"/>
+      <c r="G448" s="10"/>
       <c r="H448" s="9"/>
       <c r="I448" s="10"/>
       <c r="J448" s="9"/>
@@ -9100,7 +9120,7 @@
       <c r="D449" s="7"/>
       <c r="E449" s="8"/>
       <c r="F449" s="9"/>
-      <c r="G449" s="11"/>
+      <c r="G449" s="10"/>
       <c r="H449" s="9"/>
       <c r="I449" s="10"/>
       <c r="J449" s="9"/>
@@ -9112,7 +9132,7 @@
       <c r="D450" s="7"/>
       <c r="E450" s="8"/>
       <c r="F450" s="9"/>
-      <c r="G450" s="11"/>
+      <c r="G450" s="10"/>
       <c r="H450" s="9"/>
       <c r="I450" s="10"/>
       <c r="J450" s="9"/>
@@ -9124,7 +9144,7 @@
       <c r="D451" s="7"/>
       <c r="E451" s="8"/>
       <c r="F451" s="9"/>
-      <c r="G451" s="11"/>
+      <c r="G451" s="10"/>
       <c r="H451" s="9"/>
       <c r="I451" s="10"/>
       <c r="J451" s="9"/>
@@ -9136,7 +9156,7 @@
       <c r="D452" s="7"/>
       <c r="E452" s="8"/>
       <c r="F452" s="9"/>
-      <c r="G452" s="11"/>
+      <c r="G452" s="10"/>
       <c r="H452" s="9"/>
       <c r="I452" s="10"/>
       <c r="J452" s="9"/>
@@ -9148,7 +9168,7 @@
       <c r="D453" s="7"/>
       <c r="E453" s="8"/>
       <c r="F453" s="9"/>
-      <c r="G453" s="11"/>
+      <c r="G453" s="10"/>
       <c r="H453" s="9"/>
       <c r="I453" s="10"/>
       <c r="J453" s="9"/>
@@ -9160,7 +9180,7 @@
       <c r="D454" s="7"/>
       <c r="E454" s="8"/>
       <c r="F454" s="9"/>
-      <c r="G454" s="11"/>
+      <c r="G454" s="10"/>
       <c r="H454" s="9"/>
       <c r="I454" s="10"/>
       <c r="J454" s="9"/>
@@ -9172,7 +9192,7 @@
       <c r="D455" s="7"/>
       <c r="E455" s="8"/>
       <c r="F455" s="9"/>
-      <c r="G455" s="11"/>
+      <c r="G455" s="10"/>
       <c r="H455" s="9"/>
       <c r="I455" s="10"/>
       <c r="J455" s="9"/>
@@ -9184,11 +9204,23 @@
       <c r="D456" s="7"/>
       <c r="E456" s="8"/>
       <c r="F456" s="9"/>
-      <c r="G456" s="11"/>
+      <c r="G456" s="10"/>
       <c r="H456" s="9"/>
       <c r="I456" s="10"/>
       <c r="J456" s="9"/>
       <c r="K456" s="10"/>
+    </row>
+    <row r="457" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B457" s="5"/>
+      <c r="C457" s="6"/>
+      <c r="D457" s="7"/>
+      <c r="E457" s="8"/>
+      <c r="F457" s="9"/>
+      <c r="G457" s="10"/>
+      <c r="H457" s="9"/>
+      <c r="I457" s="10"/>
+      <c r="J457" s="9"/>
+      <c r="K457" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Documentation\survey\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\magpie\Documentation\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1900110A-2B9B-4196-95B8-74367F81696A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A6B987-1BBF-4DED-94E7-BD612A51CA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
@@ -1568,13 +1568,13 @@
     <t>Automatic response</t>
   </si>
   <si>
-    <t>Responded advising I send to the Corporate dept</t>
-  </si>
-  <si>
     <t>Galway County Council - Corporate</t>
   </si>
   <si>
     <t>corpserv@galwaycoco.ie</t>
+  </si>
+  <si>
+    <t>Responded advising I send to the Corporate dept + has filled it out themselves</t>
   </si>
 </sst>
 </file>
@@ -2260,7 +2260,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
+      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5036,7 +5036,7 @@
       <c r="J116" s="33"/>
       <c r="K116" s="34"/>
     </row>
-    <row r="117" spans="2:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B117" s="29" t="s">
         <v>466</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>1</v>
       </c>
       <c r="G117" s="34" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H117" s="12"/>
       <c r="I117" s="13"/>
@@ -5128,10 +5128,10 @@
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B121" s="29" t="s">
+        <v>490</v>
+      </c>
+      <c r="C121" s="30" t="s">
         <v>491</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>492</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="32" t="s">

--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\magpie\Documentation\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A6B987-1BBF-4DED-94E7-BD612A51CA4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B77453-BA4E-406D-8088-8724A56CB266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
@@ -308,9 +308,6 @@
     <t>Mailbox not found</t>
   </si>
   <si>
-    <t>Bounced, unauthorized sender (me)</t>
-  </si>
-  <si>
     <t>Office Public Works - General</t>
   </si>
   <si>
@@ -1575,6 +1572,9 @@
   </si>
   <si>
     <t>Responded advising I send to the Corporate dept + has filled it out themselves</t>
+  </si>
+  <si>
+    <t>Bounced, un-authorized sender (me)</t>
   </si>
 </sst>
 </file>
@@ -2258,9 +2258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
   <dimension ref="B1:K457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2271,11 +2271,11 @@
     <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.36328125" customWidth="1"/>
     <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
     <col min="10" max="10" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.90625" customWidth="1"/>
+    <col min="11" max="11" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.35">
@@ -2327,7 +2327,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H2" s="19" t="b">
         <v>1</v>
@@ -2355,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" s="22" t="b">
         <v>1</v>
@@ -2383,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="24" t="b">
         <v>1</v>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H5" s="22" t="b">
         <v>1</v>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H6" s="22" t="b">
         <v>1</v>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H7" s="22" t="b">
         <v>1</v>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" s="22" t="b">
         <v>1</v>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K8" s="23"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="15" t="s">
         <v>20</v>
       </c>
@@ -2523,13 +2523,13 @@
         <v>1</v>
       </c>
       <c r="G9" s="23" t="s">
-        <v>70</v>
+        <v>492</v>
       </c>
       <c r="H9" s="22" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>70</v>
+        <v>492</v>
       </c>
       <c r="J9" s="22" t="b">
         <v>0</v>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H10" s="22" t="b">
         <v>1</v>
@@ -2611,7 +2611,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="22" t="b">
         <v>1</v>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" s="22" t="b">
         <v>1</v>
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="22" t="b">
         <v>1</v>
@@ -2695,7 +2695,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="22" t="b">
         <v>1</v>
@@ -2723,7 +2723,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="22" t="b">
         <v>1</v>
@@ -2751,7 +2751,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" s="22" t="b">
         <v>1</v>
@@ -2779,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" s="22" t="b">
         <v>1</v>
@@ -2807,7 +2807,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="22" t="b">
         <v>1</v>
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="22" t="b">
         <v>1</v>
@@ -2863,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H21" s="26" t="b">
         <v>1</v>
@@ -2876,22 +2876,22 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>72</v>
-      </c>
       <c r="D22" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F22" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H22" s="26" t="b">
         <v>1</v>
@@ -2902,22 +2902,22 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="D23" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>77</v>
-      </c>
       <c r="E23" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H23" s="26" t="b">
         <v>1</v>
@@ -2928,22 +2928,22 @@
     </row>
     <row r="24" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>79</v>
-      </c>
       <c r="E24" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F24" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="13"/>
@@ -2952,22 +2952,22 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="D25" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>82</v>
-      </c>
       <c r="E25" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" s="26" t="b">
         <v>1</v>
@@ -2978,22 +2978,22 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F26" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H26" s="26" t="b">
         <v>1</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="D27" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>88</v>
-      </c>
       <c r="E27" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F27" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H27" s="26" t="b">
         <v>1</v>
@@ -3030,22 +3030,22 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="D28" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>91</v>
-      </c>
       <c r="E28" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F28" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H28" s="26" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="D29" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F29" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H29" s="26" t="b">
         <v>1</v>
@@ -3082,22 +3082,22 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F30" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H30" s="26" t="b">
         <v>1</v>
@@ -3108,22 +3108,22 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H31" s="26" t="b">
         <v>1</v>
@@ -3134,22 +3134,22 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="D32" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>98</v>
-      </c>
       <c r="E32" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F32" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H32" s="26" t="b">
         <v>1</v>
@@ -3160,22 +3160,22 @@
     </row>
     <row r="33" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="D33" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D33" s="17" t="s">
-        <v>101</v>
-      </c>
       <c r="E33" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F33" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G33" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H33" s="12"/>
       <c r="I33" s="13"/>
@@ -3184,22 +3184,22 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="D34" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>104</v>
-      </c>
       <c r="E34" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F34" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H34" s="26" t="b">
         <v>1</v>
@@ -3208,24 +3208,24 @@
       <c r="J34" s="26"/>
       <c r="K34" s="27"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="D35" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="17" t="s">
-        <v>107</v>
-      </c>
       <c r="E35" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F35" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H35" s="26" t="b">
         <v>1</v>
@@ -3236,22 +3236,22 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>110</v>
-      </c>
       <c r="E36" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F36" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H36" s="26" t="b">
         <v>1</v>
@@ -3262,22 +3262,22 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="D37" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="D37" s="17" t="s">
-        <v>113</v>
-      </c>
       <c r="E37" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F37" s="26" t="b">
         <v>1</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H37" s="26" t="b">
         <v>1</v>
@@ -3288,16 +3288,16 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="D38" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="31" t="s">
-        <v>119</v>
-      </c>
       <c r="E38" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F38" s="33" t="b">
         <v>1</v>
@@ -3310,16 +3310,16 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F39" s="33" t="b">
         <v>1</v>
@@ -3332,16 +3332,16 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F40" s="33" t="b">
         <v>1</v>
@@ -3354,16 +3354,16 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F41" s="33" t="b">
         <v>1</v>
@@ -3376,16 +3376,16 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F42" s="33" t="b">
         <v>1</v>
@@ -3398,16 +3398,16 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>133</v>
-      </c>
       <c r="E43" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F43" s="33" t="b">
         <v>1</v>
@@ -3420,16 +3420,16 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="D44" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="D44" s="31" t="s">
-        <v>172</v>
-      </c>
       <c r="E44" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F44" s="33" t="b">
         <v>1</v>
@@ -3442,16 +3442,16 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="D45" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="D45" s="31" t="s">
-        <v>175</v>
-      </c>
       <c r="E45" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F45" s="33" t="b">
         <v>1</v>
@@ -3466,16 +3466,16 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="C46" s="30" t="s">
+      <c r="D46" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="D46" s="31" t="s">
-        <v>178</v>
-      </c>
       <c r="E46" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F46" s="33" t="b">
         <v>1</v>
@@ -3488,16 +3488,16 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="D47" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="D47" s="31" t="s">
-        <v>181</v>
-      </c>
       <c r="E47" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F47" s="33" t="b">
         <v>1</v>
@@ -3510,16 +3510,16 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B48" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="D48" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="C48" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>184</v>
-      </c>
       <c r="E48" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F48" s="33" t="b">
         <v>1</v>
@@ -3532,16 +3532,16 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="D49" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="D49" s="31" t="s">
-        <v>187</v>
-      </c>
       <c r="E49" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F49" s="33" t="b">
         <v>1</v>
@@ -3554,16 +3554,16 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="D50" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="30" t="s">
-        <v>188</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>190</v>
-      </c>
       <c r="E50" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F50" s="33" t="b">
         <v>1</v>
@@ -3576,16 +3576,16 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="C51" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="D51" s="31" t="s">
-        <v>261</v>
-      </c>
       <c r="E51" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F51" s="33" t="b">
         <v>1</v>
@@ -3598,16 +3598,16 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="D52" s="31" t="s">
         <v>263</v>
       </c>
-      <c r="C52" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>264</v>
-      </c>
       <c r="E52" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F52" s="33" t="b">
         <v>1</v>
@@ -3618,24 +3618,24 @@
       <c r="J52" s="33"/>
       <c r="K52" s="34"/>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B53" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D53" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="C53" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="D53" s="31" t="s">
-        <v>267</v>
-      </c>
       <c r="E53" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F53" s="33" t="b">
         <v>1</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H53" s="33"/>
       <c r="I53" s="34"/>
@@ -3644,14 +3644,14 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="C54" s="30" t="s">
         <v>268</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>269</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F54" s="33" t="b">
         <v>1</v>
@@ -3664,22 +3664,22 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C55" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="D55" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="D55" s="31" t="s">
-        <v>308</v>
-      </c>
       <c r="E55" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F55" s="33" t="b">
         <v>1</v>
       </c>
       <c r="G55" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H55" s="33"/>
       <c r="I55" s="34"/>
@@ -3688,16 +3688,16 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B56" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="C56" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="C56" s="30" t="s">
-        <v>311</v>
-      </c>
       <c r="D56" s="31" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F56" s="33" t="b">
         <v>1</v>
@@ -3710,16 +3710,16 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B57" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="C57" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="C57" s="30" t="s">
+      <c r="D57" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="D57" s="31" t="s">
-        <v>314</v>
-      </c>
       <c r="E57" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F57" s="33" t="b">
         <v>1</v>
@@ -3732,16 +3732,16 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B58" s="29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F58" s="33" t="b">
         <v>1</v>
@@ -3754,16 +3754,16 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" s="29" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F59" s="33" t="b">
         <v>1</v>
@@ -3776,16 +3776,16 @@
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60" s="29" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F60" s="33" t="b">
         <v>1</v>
@@ -3798,16 +3798,16 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="C61" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="C61" s="30" t="s">
-        <v>325</v>
-      </c>
       <c r="D61" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F61" s="33" t="b">
         <v>1</v>
@@ -3820,16 +3820,16 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F62" s="33" t="b">
         <v>1</v>
@@ -3842,16 +3842,16 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F63" s="33" t="b">
         <v>1</v>
@@ -3864,16 +3864,16 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F64" s="33" t="b">
         <v>1</v>
@@ -3886,16 +3886,16 @@
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B65" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C65" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="C65" s="30" t="s">
+      <c r="D65" s="31" t="s">
         <v>334</v>
       </c>
-      <c r="D65" s="31" t="s">
-        <v>335</v>
-      </c>
       <c r="E65" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F65" s="33" t="b">
         <v>1</v>
@@ -3908,14 +3908,14 @@
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B66" s="29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F66" s="33" t="b">
         <v>1</v>
@@ -3928,16 +3928,16 @@
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B67" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="C67" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="C67" s="30" t="s">
+      <c r="D67" s="31" t="s">
         <v>339</v>
       </c>
-      <c r="D67" s="31" t="s">
-        <v>340</v>
-      </c>
       <c r="E67" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F67" s="33" t="b">
         <v>1</v>
@@ -3950,16 +3950,16 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C68" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="D68" s="31" t="s">
         <v>341</v>
       </c>
-      <c r="D68" s="31" t="s">
-        <v>342</v>
-      </c>
       <c r="E68" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F68" s="33" t="b">
         <v>1</v>
@@ -3972,16 +3972,16 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="D69" s="31" t="s">
         <v>344</v>
       </c>
-      <c r="C69" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>345</v>
-      </c>
       <c r="E69" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F69" s="33" t="b">
         <v>1</v>
@@ -3992,24 +3992,24 @@
       <c r="J69" s="33"/>
       <c r="K69" s="34"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B70" s="29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F70" s="33" t="b">
         <v>1</v>
       </c>
       <c r="G70" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H70" s="33"/>
       <c r="I70" s="34"/>
@@ -4018,16 +4018,16 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="29" t="s">
+        <v>349</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="D71" s="31" t="s">
         <v>350</v>
       </c>
-      <c r="C71" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="D71" s="31" t="s">
-        <v>351</v>
-      </c>
       <c r="E71" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F71" s="33" t="b">
         <v>1</v>
@@ -4040,14 +4040,14 @@
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B72" s="29" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F72" s="33" t="b">
         <v>1</v>
@@ -4060,16 +4060,16 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="29" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F73" s="33" t="b">
         <v>1</v>
@@ -4082,16 +4082,16 @@
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B74" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F74" s="33" t="b">
         <v>1</v>
@@ -4104,16 +4104,16 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C75" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="D75" s="31" t="s">
         <v>357</v>
       </c>
-      <c r="D75" s="31" t="s">
-        <v>358</v>
-      </c>
       <c r="E75" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F75" s="33" t="b">
         <v>1</v>
@@ -4126,16 +4126,16 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C76" s="30" t="s">
+        <v>358</v>
+      </c>
+      <c r="D76" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="D76" s="31" t="s">
-        <v>360</v>
-      </c>
       <c r="E76" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F76" s="33" t="b">
         <v>1</v>
@@ -4148,16 +4148,16 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B77" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C77" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="D77" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="D77" s="31" t="s">
-        <v>362</v>
-      </c>
       <c r="E77" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F77" s="33" t="b">
         <v>1</v>
@@ -4170,16 +4170,16 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78" s="29" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C78" s="30" t="s">
+        <v>362</v>
+      </c>
+      <c r="D78" s="31" t="s">
         <v>363</v>
       </c>
-      <c r="D78" s="31" t="s">
-        <v>364</v>
-      </c>
       <c r="E78" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F78" s="33" t="b">
         <v>1</v>
@@ -4192,16 +4192,16 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B79" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="C79" s="30" t="s">
         <v>366</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="D79" s="31" t="s">
         <v>367</v>
       </c>
-      <c r="D79" s="31" t="s">
-        <v>368</v>
-      </c>
       <c r="E79" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F79" s="33" t="b">
         <v>1</v>
@@ -4214,16 +4214,16 @@
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="C80" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="C80" s="30" t="s">
+      <c r="D80" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="D80" s="31" t="s">
-        <v>371</v>
-      </c>
       <c r="E80" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F80" s="33" t="b">
         <v>1</v>
@@ -4236,16 +4236,16 @@
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="C81" s="30" t="s">
         <v>372</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="D81" s="31" t="s">
         <v>373</v>
       </c>
-      <c r="D81" s="31" t="s">
-        <v>374</v>
-      </c>
       <c r="E81" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F81" s="33" t="b">
         <v>1</v>
@@ -4258,22 +4258,22 @@
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="D82" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="C82" s="30" t="s">
-        <v>375</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>377</v>
-      </c>
       <c r="E82" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F82" s="33" t="b">
         <v>1</v>
       </c>
       <c r="G82" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H82" s="33"/>
       <c r="I82" s="34"/>
@@ -4282,16 +4282,16 @@
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B83" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>377</v>
+      </c>
+      <c r="D83" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="C83" s="30" t="s">
-        <v>378</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>380</v>
-      </c>
       <c r="E83" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F83" s="33" t="b">
         <v>1</v>
@@ -4304,16 +4304,16 @@
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B84" s="29" t="s">
+        <v>381</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="D84" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="C84" s="30" t="s">
-        <v>381</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>383</v>
-      </c>
       <c r="E84" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F84" s="33" t="b">
         <v>1</v>
@@ -4326,16 +4326,16 @@
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B85" s="29" t="s">
+        <v>384</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>383</v>
+      </c>
+      <c r="D85" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="C85" s="30" t="s">
-        <v>384</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>386</v>
-      </c>
       <c r="E85" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F85" s="33" t="b">
         <v>1</v>
@@ -4348,16 +4348,16 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B86" s="29" t="s">
+        <v>386</v>
+      </c>
+      <c r="C86" s="30" t="s">
         <v>387</v>
       </c>
-      <c r="C86" s="30" t="s">
+      <c r="D86" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="D86" s="31" t="s">
-        <v>389</v>
-      </c>
       <c r="E86" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F86" s="33" t="b">
         <v>1</v>
@@ -4370,16 +4370,16 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B87" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>389</v>
+      </c>
+      <c r="D87" s="31" t="s">
         <v>391</v>
       </c>
-      <c r="C87" s="30" t="s">
-        <v>390</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>392</v>
-      </c>
       <c r="E87" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F87" s="33" t="b">
         <v>1</v>
@@ -4392,22 +4392,22 @@
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B88" s="29" t="s">
+        <v>393</v>
+      </c>
+      <c r="C88" s="30" t="s">
+        <v>392</v>
+      </c>
+      <c r="D88" s="31" t="s">
         <v>394</v>
       </c>
-      <c r="C88" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>395</v>
-      </c>
       <c r="E88" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F88" s="33" t="b">
         <v>1</v>
       </c>
       <c r="G88" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H88" s="33"/>
       <c r="I88" s="34"/>
@@ -4416,16 +4416,16 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B89" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>395</v>
+      </c>
+      <c r="D89" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="C89" s="30" t="s">
-        <v>396</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>398</v>
-      </c>
       <c r="E89" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F89" s="33" t="b">
         <v>1</v>
@@ -4438,16 +4438,16 @@
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B90" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="D90" s="31" t="s">
         <v>400</v>
       </c>
-      <c r="C90" s="35" t="s">
-        <v>399</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>401</v>
-      </c>
       <c r="E90" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F90" s="33" t="b">
         <v>1</v>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B91" s="29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C91" s="30" t="s">
         <v>402</v>
       </c>
-      <c r="C91" s="30" t="s">
+      <c r="D91" s="31" t="s">
         <v>403</v>
       </c>
-      <c r="D91" s="31" t="s">
-        <v>404</v>
-      </c>
       <c r="E91" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F91" s="33" t="b">
         <v>1</v>
@@ -4482,16 +4482,16 @@
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B92" s="29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F92" s="33" t="b">
         <v>1</v>
@@ -4504,16 +4504,16 @@
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B93" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>406</v>
+      </c>
+      <c r="D93" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="C93" s="36" t="s">
-        <v>407</v>
-      </c>
-      <c r="D93" s="31" t="s">
-        <v>409</v>
-      </c>
       <c r="E93" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F93" s="33" t="b">
         <v>1</v>
@@ -4526,16 +4526,16 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B94" s="29" t="s">
+        <v>410</v>
+      </c>
+      <c r="C94" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="D94" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="C94" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="D94" s="31" t="s">
-        <v>412</v>
-      </c>
       <c r="E94" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F94" s="33" t="b">
         <v>1</v>
@@ -4548,16 +4548,16 @@
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B95" s="29" t="s">
+        <v>413</v>
+      </c>
+      <c r="C95" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="D95" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="C95" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>415</v>
-      </c>
       <c r="E95" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F95" s="33" t="b">
         <v>1</v>
@@ -4570,22 +4570,22 @@
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B96" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F96" s="33" t="b">
         <v>1</v>
       </c>
       <c r="G96" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H96" s="33"/>
       <c r="I96" s="34"/>
@@ -4594,16 +4594,16 @@
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B97" s="29" t="s">
+        <v>417</v>
+      </c>
+      <c r="C97" s="30" t="s">
         <v>418</v>
       </c>
-      <c r="C97" s="30" t="s">
+      <c r="D97" s="31" t="s">
         <v>419</v>
       </c>
-      <c r="D97" s="31" t="s">
-        <v>420</v>
-      </c>
       <c r="E97" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F97" s="33" t="b">
         <v>1</v>
@@ -4616,14 +4616,14 @@
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B98" s="29" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F98" s="33" t="b">
         <v>1</v>
@@ -4634,24 +4634,24 @@
       <c r="J98" s="33"/>
       <c r="K98" s="34"/>
     </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B99" s="29" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F99" s="33" t="b">
         <v>1</v>
       </c>
       <c r="G99" s="34" t="s">
-        <v>70</v>
+        <v>492</v>
       </c>
       <c r="H99" s="33"/>
       <c r="I99" s="34"/>
@@ -4660,16 +4660,16 @@
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B100" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="C100" s="30" t="s">
+        <v>424</v>
+      </c>
+      <c r="D100" s="31" t="s">
         <v>426</v>
       </c>
-      <c r="C100" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="D100" s="31" t="s">
-        <v>427</v>
-      </c>
       <c r="E100" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F100" s="33" t="b">
         <v>1</v>
@@ -4682,16 +4682,16 @@
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B101" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="C101" s="30" t="s">
         <v>428</v>
       </c>
-      <c r="C101" s="30" t="s">
+      <c r="D101" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="D101" s="31" t="s">
-        <v>430</v>
-      </c>
       <c r="E101" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F101" s="33" t="b">
         <v>1</v>
@@ -4704,16 +4704,16 @@
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B102" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F102" s="33" t="b">
         <v>1</v>
@@ -4726,16 +4726,16 @@
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B103" s="29" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E103" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F103" s="33" t="b">
         <v>1</v>
@@ -4746,24 +4746,24 @@
       <c r="J103" s="33"/>
       <c r="K103" s="34"/>
     </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:11" ht="29" x14ac:dyDescent="0.35">
       <c r="B104" s="29" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F104" s="33" t="b">
         <v>1</v>
       </c>
       <c r="G104" s="34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H104" s="33"/>
       <c r="I104" s="34"/>
@@ -4772,16 +4772,16 @@
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B105" s="29" t="s">
+        <v>436</v>
+      </c>
+      <c r="C105" s="30" t="s">
         <v>437</v>
       </c>
-      <c r="C105" s="30" t="s">
+      <c r="D105" s="31" t="s">
         <v>438</v>
       </c>
-      <c r="D105" s="31" t="s">
-        <v>439</v>
-      </c>
       <c r="E105" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F105" s="33" t="b">
         <v>1</v>
@@ -4794,16 +4794,16 @@
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B106" s="29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F106" s="33" t="b">
         <v>1</v>
@@ -4816,22 +4816,22 @@
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B107" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="C107" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="D107" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="C107" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="D107" s="31" t="s">
-        <v>444</v>
-      </c>
       <c r="E107" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F107" s="33" t="b">
         <v>1</v>
       </c>
       <c r="G107" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H107" s="33"/>
       <c r="I107" s="34"/>
@@ -4840,16 +4840,16 @@
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B108" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="C108" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="D108" s="31" t="s">
         <v>446</v>
       </c>
-      <c r="C108" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="D108" s="31" t="s">
-        <v>447</v>
-      </c>
       <c r="E108" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F108" s="33" t="b">
         <v>1</v>
@@ -4862,16 +4862,16 @@
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B109" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C109" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="D109" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="D109" s="31" t="s">
-        <v>449</v>
-      </c>
       <c r="E109" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F109" s="33" t="b">
         <v>1</v>
@@ -4884,16 +4884,16 @@
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B110" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F110" s="33" t="b">
         <v>1</v>
@@ -4906,16 +4906,16 @@
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B111" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C111" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="D111" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="D111" s="31" t="s">
-        <v>452</v>
-      </c>
       <c r="E111" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F111" s="33" t="b">
         <v>1</v>
@@ -4928,16 +4928,16 @@
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B112" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C112" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D112" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="D112" s="31" t="s">
-        <v>454</v>
-      </c>
       <c r="E112" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F112" s="33" t="b">
         <v>1</v>
@@ -4950,16 +4950,16 @@
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B113" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C113" s="30" t="s">
+        <v>454</v>
+      </c>
+      <c r="D113" s="31" t="s">
         <v>455</v>
       </c>
-      <c r="D113" s="31" t="s">
-        <v>456</v>
-      </c>
       <c r="E113" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F113" s="33" t="b">
         <v>1</v>
@@ -4972,16 +4972,16 @@
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B114" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C114" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="D114" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="D114" s="31" t="s">
-        <v>458</v>
-      </c>
       <c r="E114" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F114" s="33" t="b">
         <v>1</v>
@@ -4994,16 +4994,16 @@
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B115" s="29" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C115" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="D115" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="D115" s="31" t="s">
-        <v>460</v>
-      </c>
       <c r="E115" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F115" s="33" t="b">
         <v>1</v>
@@ -5016,16 +5016,16 @@
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B116" s="29" t="s">
+        <v>460</v>
+      </c>
+      <c r="C116" s="30" t="s">
         <v>461</v>
       </c>
-      <c r="C116" s="30" t="s">
+      <c r="D116" s="31" t="s">
         <v>462</v>
       </c>
-      <c r="D116" s="31" t="s">
-        <v>463</v>
-      </c>
       <c r="E116" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F116" s="33" t="b">
         <v>1</v>
@@ -5038,22 +5038,22 @@
     </row>
     <row r="117" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B117" s="29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C117" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="D117" s="31" t="s">
         <v>464</v>
       </c>
-      <c r="D117" s="31" t="s">
-        <v>465</v>
-      </c>
       <c r="E117" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F117" s="33" t="b">
         <v>1</v>
       </c>
       <c r="G117" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H117" s="12"/>
       <c r="I117" s="13"/>
@@ -5062,16 +5062,16 @@
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B118" s="29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F118" s="33" t="b">
         <v>1</v>
@@ -5084,16 +5084,16 @@
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B119" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>468</v>
+      </c>
+      <c r="D119" s="31" t="s">
         <v>470</v>
       </c>
-      <c r="C119" s="30" t="s">
-        <v>469</v>
-      </c>
-      <c r="D119" s="31" t="s">
-        <v>471</v>
-      </c>
       <c r="E119" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F119" s="33" t="b">
         <v>1</v>
@@ -5106,16 +5106,16 @@
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B120" s="29" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C120" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="D120" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="D120" s="31" t="s">
-        <v>473</v>
-      </c>
       <c r="E120" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F120" s="33" t="b">
         <v>1</v>
@@ -5128,14 +5128,14 @@
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B121" s="29" t="s">
+        <v>489</v>
+      </c>
+      <c r="C121" s="30" t="s">
         <v>490</v>
-      </c>
-      <c r="C121" s="30" t="s">
-        <v>491</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F121" s="33" t="b">
         <v>1</v>
@@ -5152,16 +5152,16 @@
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B122" s="29" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C122" s="30" t="s">
+        <v>474</v>
+      </c>
+      <c r="D122" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="D122" s="31" t="s">
-        <v>476</v>
-      </c>
       <c r="E122" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F122" s="33" t="b">
         <v>1</v>
@@ -5174,16 +5174,16 @@
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B123" s="29" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E123" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F123" s="33" t="b">
         <v>1</v>
@@ -5196,16 +5196,16 @@
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B124" s="29" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C124" s="30" t="s">
+        <v>477</v>
+      </c>
+      <c r="D124" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="D124" s="31" t="s">
-        <v>479</v>
-      </c>
       <c r="E124" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F124" s="33" t="b">
         <v>1</v>
@@ -5218,16 +5218,16 @@
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B125" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="C125" s="30" t="s">
         <v>483</v>
       </c>
-      <c r="C125" s="30" t="s">
+      <c r="D125" s="31" t="s">
         <v>484</v>
       </c>
-      <c r="D125" s="31" t="s">
-        <v>485</v>
-      </c>
       <c r="E125" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F125" s="33" t="b">
         <v>1</v>
@@ -9278,7 +9278,7 @@
         <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>67</v>
@@ -9301,16 +9301,16 @@
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="E2" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="11"/>
@@ -9321,16 +9321,16 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="11"/>
@@ -9341,16 +9341,16 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B4" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="11"/>
@@ -9361,16 +9361,16 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E5" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="11"/>
@@ -9381,16 +9381,16 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="E6" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="11"/>
@@ -9401,16 +9401,16 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>150</v>
-      </c>
       <c r="E7" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="11"/>
@@ -9421,16 +9421,16 @@
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="11"/>
@@ -9441,16 +9441,16 @@
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="E9" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="11"/>
@@ -9461,16 +9461,16 @@
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="E10" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="11"/>
@@ -9481,16 +9481,16 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>162</v>
-      </c>
       <c r="E11" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="11"/>
@@ -9501,16 +9501,16 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="E12" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="11"/>
@@ -9521,16 +9521,16 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="E13" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F13" s="9"/>
       <c r="G13" s="11"/>
@@ -9541,16 +9541,16 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="E14" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="11"/>
@@ -9561,16 +9561,16 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>194</v>
-      </c>
       <c r="E15" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="11"/>
@@ -9581,16 +9581,16 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="E16" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="11"/>
@@ -9601,16 +9601,16 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>198</v>
-      </c>
       <c r="E17" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="11"/>
@@ -9621,16 +9621,16 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>200</v>
-      </c>
       <c r="E18" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="11"/>
@@ -9641,16 +9641,16 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>202</v>
-      </c>
       <c r="E19" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="11"/>
@@ -9661,16 +9661,16 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="E20" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="11"/>
@@ -9681,16 +9681,16 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C21" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="E21" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F21" s="9"/>
       <c r="G21" s="11"/>
@@ -9701,16 +9701,16 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C22" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="E22" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F22" s="9"/>
       <c r="G22" s="11"/>
@@ -9721,16 +9721,16 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C23" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>210</v>
-      </c>
       <c r="E23" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F23" s="9"/>
       <c r="G23" s="11"/>
@@ -9741,16 +9741,16 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>212</v>
-      </c>
       <c r="E24" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="11"/>
@@ -9761,16 +9761,16 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C25" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="E25" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F25" s="9"/>
       <c r="G25" s="11"/>
@@ -9781,16 +9781,16 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="E26" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F26" s="9"/>
       <c r="G26" s="11"/>
@@ -9801,16 +9801,16 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C27" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>218</v>
-      </c>
       <c r="E27" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F27" s="9"/>
       <c r="G27" s="11"/>
@@ -9821,16 +9821,16 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C28" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>220</v>
-      </c>
       <c r="E28" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="11"/>
@@ -9841,16 +9841,16 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C29" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>222</v>
-      </c>
       <c r="E29" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="11"/>
@@ -9861,16 +9861,16 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C30" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>224</v>
-      </c>
       <c r="E30" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="11"/>
@@ -9881,16 +9881,16 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C31" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="E31" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="11"/>
@@ -9901,16 +9901,16 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C32" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="E32" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="11"/>
@@ -9921,16 +9921,16 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C33" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="E33" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="11"/>
@@ -9941,16 +9941,16 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C34" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="E34" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="11"/>
@@ -9961,16 +9961,16 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C35" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>234</v>
-      </c>
       <c r="E35" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F35" s="9"/>
       <c r="G35" s="11"/>
@@ -9981,16 +9981,16 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C36" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="E36" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="11"/>
@@ -10001,16 +10001,16 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C37" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="E37" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="11"/>
@@ -10021,16 +10021,16 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C38" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="E38" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="11"/>
@@ -10041,16 +10041,16 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="E39" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="11"/>
@@ -10061,16 +10061,16 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C40" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="E40" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="11"/>
@@ -10081,16 +10081,16 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="E41" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="11"/>
@@ -10101,16 +10101,16 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C42" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>248</v>
-      </c>
       <c r="E42" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="11"/>
@@ -10121,16 +10121,16 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C43" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="E43" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="11"/>
@@ -10141,16 +10141,16 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C44" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="E44" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="11"/>
@@ -10161,16 +10161,16 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C45" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="E45" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="11"/>
@@ -10181,16 +10181,16 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C46" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="E46" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="11"/>
@@ -10201,16 +10201,16 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C47" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="E47" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="11"/>

--- a/Documentation/survey/survey_follow-up.xlsx
+++ b/Documentation/survey/survey_follow-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\magpie\Documentation\survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B77453-BA4E-406D-8088-8724A56CB266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1498319-8608-4B3D-8FCD-46B3F4AE10C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{9E281738-3280-4B48-A456-7F255B337402}"/>
   </bookViews>
@@ -63,7 +63,7 @@
           </rPr>
           <t xml:space="preserve">
 sent on Monday 28 &amp; Tuesday 29/10/2024 (blue) and Thursday 31/10/2024 (green)
-</t>
+and Friday 01/11/2024 (orange)</t>
         </r>
       </text>
     </comment>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="551">
   <si>
     <t>O'Mahony Pike Dublin</t>
   </si>
@@ -1575,6 +1575,180 @@
   </si>
   <si>
     <t>Bounced, un-authorized sender (me)</t>
+  </si>
+  <si>
+    <t>info@olivercrampton.com</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>+35314960473</t>
+  </si>
+  <si>
+    <t>info@flynnmc.com</t>
+  </si>
+  <si>
+    <t>Oliver Crampton &amp; Sons Construction Dublin</t>
+  </si>
+  <si>
+    <t>Flynn Dublin/Limerick</t>
+  </si>
+  <si>
+    <t>+35318503000</t>
+  </si>
+  <si>
+    <t>info@kmlynskey.com</t>
+  </si>
+  <si>
+    <t>KM Lynskey</t>
+  </si>
+  <si>
+    <t>+35318853807</t>
+  </si>
+  <si>
+    <t>businessdevelopment@collen.com</t>
+  </si>
+  <si>
+    <t>Collen</t>
+  </si>
+  <si>
+    <t>+35318745411</t>
+  </si>
+  <si>
+    <t>info@timothybowen.ie</t>
+  </si>
+  <si>
+    <t>Timothy Bowen Building &amp; Maintenance Cork</t>
+  </si>
+  <si>
+    <t>+353857311152</t>
+  </si>
+  <si>
+    <t>info@evansandkelliher.com</t>
+  </si>
+  <si>
+    <t>Evans &amp; Kelliher Construction Limited (Kerry)</t>
+  </si>
+  <si>
+    <t>+353669765722</t>
+  </si>
+  <si>
+    <t>McAvoy Group</t>
+  </si>
+  <si>
+    <t>info@mcavoygroup.com</t>
+  </si>
+  <si>
+    <t>+35312640530</t>
+  </si>
+  <si>
+    <t>Metal Frame Construction</t>
+  </si>
+  <si>
+    <t>office@metalframeconstruction.ie</t>
+  </si>
+  <si>
+    <t>+35346902 6911</t>
+  </si>
+  <si>
+    <t>M &amp; P Building and Civil Engineering Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">michelle@mpconstruction.ie </t>
+  </si>
+  <si>
+    <t>+35312570900</t>
+  </si>
+  <si>
+    <t>SBC Southside Building and Carpentry</t>
+  </si>
+  <si>
+    <t>john@sbcltd.ie</t>
+  </si>
+  <si>
+    <t>+3531890907224</t>
+  </si>
+  <si>
+    <t>M.J Clarke &amp; Sons Ltd</t>
+  </si>
+  <si>
+    <t>rclarke@mjclarkes.com</t>
+  </si>
+  <si>
+    <t>+353872421588</t>
+  </si>
+  <si>
+    <t>Duffy Contractors</t>
+  </si>
+  <si>
+    <t>info@duffycontractors.com</t>
+  </si>
+  <si>
+    <t>+353906481341</t>
+  </si>
+  <si>
+    <t>Stewart Construction</t>
+  </si>
+  <si>
+    <t>info@stewart.ie</t>
+  </si>
+  <si>
+    <t>+35319011290</t>
+  </si>
+  <si>
+    <t>info@glenman.ie</t>
+  </si>
+  <si>
+    <t>Glenman Corporation</t>
+  </si>
+  <si>
+    <t>+35391780100</t>
+  </si>
+  <si>
+    <t>Callanan &amp; Walsh Construction</t>
+  </si>
+  <si>
+    <t>al@callananwalsh.com</t>
+  </si>
+  <si>
+    <t>+353872362080</t>
+  </si>
+  <si>
+    <t>info@clearydoyle.com</t>
+  </si>
+  <si>
+    <t>Cleary Doyle</t>
+  </si>
+  <si>
+    <t>+353539126000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midland Construction </t>
+  </si>
+  <si>
+    <t>info@midland.ie</t>
+  </si>
+  <si>
+    <t>+353469247200</t>
+  </si>
+  <si>
+    <t>Timlin Construction Ltd</t>
+  </si>
+  <si>
+    <t>info@timlin.ie</t>
+  </si>
+  <si>
+    <t>+353879190750</t>
+  </si>
+  <si>
+    <t>McGarrell Reilly Group</t>
+  </si>
+  <si>
+    <t>info@mcgarrellreilly.ie</t>
+  </si>
+  <si>
+    <t>+35314161300</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1793,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1647,6 +1821,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1767,7 +1947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1904,6 +2084,30 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2258,9 +2462,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6180B8A4-96E2-4E8A-B127-17749B1D4710}">
   <dimension ref="B1:K457"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G139" sqref="G139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2268,8 +2472,8 @@
     <col min="1" max="1" width="4.54296875" customWidth="1"/>
     <col min="2" max="2" width="46.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.36328125" customWidth="1"/>
     <col min="8" max="8" width="9.08984375" bestFit="1" customWidth="1"/>
@@ -5036,7 +5240,7 @@
       <c r="J116" s="33"/>
       <c r="K116" s="34"/>
     </row>
-    <row r="117" spans="2:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:11" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B117" s="29" t="s">
         <v>465</v>
       </c>
@@ -5239,232 +5443,422 @@
       <c r="K125" s="34"/>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B126" s="5"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="9"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="9"/>
-      <c r="K126" s="10"/>
+      <c r="B126" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="C126" s="38" t="s">
+        <v>493</v>
+      </c>
+      <c r="D126" s="39" t="s">
+        <v>495</v>
+      </c>
+      <c r="E126" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F126" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G126" s="42"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="42"/>
+      <c r="J126" s="41"/>
+      <c r="K126" s="42"/>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B127" s="5"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="9"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="9"/>
-      <c r="K127" s="10"/>
+      <c r="B127" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="C127" s="38" t="s">
+        <v>496</v>
+      </c>
+      <c r="D127" s="39" t="s">
+        <v>499</v>
+      </c>
+      <c r="E127" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F127" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G127" s="42"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="42"/>
+      <c r="J127" s="41"/>
+      <c r="K127" s="42"/>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B128" s="5"/>
-      <c r="C128" s="6"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="9"/>
-      <c r="K128" s="10"/>
+      <c r="B128" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="C128" s="38" t="s">
+        <v>500</v>
+      </c>
+      <c r="D128" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="E128" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F128" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" s="42"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="42"/>
+      <c r="J128" s="41"/>
+      <c r="K128" s="42"/>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B129" s="5"/>
-      <c r="C129" s="6"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="9"/>
-      <c r="K129" s="10"/>
+      <c r="B129" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="C129" s="38" t="s">
+        <v>503</v>
+      </c>
+      <c r="D129" s="39" t="s">
+        <v>505</v>
+      </c>
+      <c r="E129" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F129" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" s="42"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="42"/>
+      <c r="J129" s="41"/>
+      <c r="K129" s="42"/>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B130" s="5"/>
-      <c r="C130" s="6"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="9"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="9"/>
-      <c r="K130" s="10"/>
+      <c r="B130" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="C130" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="D130" s="39" t="s">
+        <v>508</v>
+      </c>
+      <c r="E130" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F130" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" s="42"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="42"/>
+      <c r="J130" s="41"/>
+      <c r="K130" s="42"/>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B131" s="5"/>
-      <c r="C131" s="6"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="8"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="9"/>
-      <c r="K131" s="10"/>
+      <c r="B131" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="C131" s="38" t="s">
+        <v>509</v>
+      </c>
+      <c r="D131" s="39" t="s">
+        <v>511</v>
+      </c>
+      <c r="E131" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F131" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G131" s="42"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="42"/>
+      <c r="J131" s="41"/>
+      <c r="K131" s="42"/>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B132" s="5"/>
-      <c r="C132" s="6"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="10"/>
+      <c r="B132" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="C132" s="38" t="s">
+        <v>513</v>
+      </c>
+      <c r="D132" s="39" t="s">
+        <v>514</v>
+      </c>
+      <c r="E132" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F132" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" s="42"/>
+      <c r="H132" s="41"/>
+      <c r="I132" s="42"/>
+      <c r="J132" s="41"/>
+      <c r="K132" s="42"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B133" s="5"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="10"/>
-      <c r="H133" s="9"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="9"/>
-      <c r="K133" s="10"/>
+      <c r="B133" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="C133" s="38" t="s">
+        <v>516</v>
+      </c>
+      <c r="D133" s="39" t="s">
+        <v>517</v>
+      </c>
+      <c r="E133" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F133" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" s="42"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="42"/>
+      <c r="J133" s="41"/>
+      <c r="K133" s="42"/>
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B134" s="5"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="10"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="9"/>
-      <c r="K134" s="10"/>
+      <c r="B134" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="C134" s="43" t="s">
+        <v>519</v>
+      </c>
+      <c r="D134" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="E134" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F134" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" s="42"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="42"/>
+      <c r="J134" s="41"/>
+      <c r="K134" s="42"/>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B135" s="5"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="10"/>
-      <c r="H135" s="9"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="9"/>
-      <c r="K135" s="10"/>
+      <c r="B135" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="C135" s="38" t="s">
+        <v>522</v>
+      </c>
+      <c r="D135" s="39" t="s">
+        <v>523</v>
+      </c>
+      <c r="E135" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F135" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" s="42"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="42"/>
+      <c r="J135" s="41"/>
+      <c r="K135" s="42"/>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B136" s="5"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="8"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="10"/>
-      <c r="H136" s="9"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="10"/>
+      <c r="B136" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>525</v>
+      </c>
+      <c r="D136" s="39" t="s">
+        <v>526</v>
+      </c>
+      <c r="E136" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F136" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" s="42"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="42"/>
+      <c r="J136" s="41"/>
+      <c r="K136" s="42"/>
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B137" s="5"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="10"/>
-      <c r="H137" s="9"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="9"/>
-      <c r="K137" s="10"/>
+      <c r="B137" s="37" t="s">
+        <v>527</v>
+      </c>
+      <c r="C137" s="38" t="s">
+        <v>528</v>
+      </c>
+      <c r="D137" s="39" t="s">
+        <v>529</v>
+      </c>
+      <c r="E137" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F137" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" s="42"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="42"/>
+      <c r="J137" s="41"/>
+      <c r="K137" s="42"/>
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B138" s="5"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="10"/>
-      <c r="H138" s="9"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="9"/>
-      <c r="K138" s="10"/>
+      <c r="B138" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="C138" s="38" t="s">
+        <v>531</v>
+      </c>
+      <c r="D138" s="39" t="s">
+        <v>532</v>
+      </c>
+      <c r="E138" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F138" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" s="42"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="42"/>
+      <c r="J138" s="41"/>
+      <c r="K138" s="42"/>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B139" s="5"/>
-      <c r="C139" s="6"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="10"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="9"/>
-      <c r="K139" s="10"/>
+      <c r="B139" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="C139" s="38" t="s">
+        <v>533</v>
+      </c>
+      <c r="D139" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="E139" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F139" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" s="42"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="42"/>
+      <c r="J139" s="41"/>
+      <c r="K139" s="42"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B140" s="5"/>
-      <c r="C140" s="6"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="10"/>
-      <c r="H140" s="9"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="9"/>
-      <c r="K140" s="10"/>
+      <c r="B140" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="C140" s="38" t="s">
+        <v>537</v>
+      </c>
+      <c r="D140" s="39" t="s">
+        <v>538</v>
+      </c>
+      <c r="E140" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F140" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" s="42"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="42"/>
+      <c r="J140" s="41"/>
+      <c r="K140" s="42"/>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B141" s="5"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="10"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="10"/>
+      <c r="B141" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="C141" s="38" t="s">
+        <v>539</v>
+      </c>
+      <c r="D141" s="39" t="s">
+        <v>541</v>
+      </c>
+      <c r="E141" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F141" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G141" s="42"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="42"/>
+      <c r="J141" s="41"/>
+      <c r="K141" s="42"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B142" s="5"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="10"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="9"/>
-      <c r="K142" s="10"/>
+      <c r="B142" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="C142" s="38" t="s">
+        <v>543</v>
+      </c>
+      <c r="D142" s="39" t="s">
+        <v>544</v>
+      </c>
+      <c r="E142" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F142" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G142" s="42"/>
+      <c r="H142" s="41"/>
+      <c r="I142" s="42"/>
+      <c r="J142" s="41"/>
+      <c r="K142" s="42"/>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B143" s="5"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="10"/>
-      <c r="H143" s="9"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="9"/>
-      <c r="K143" s="10"/>
+      <c r="B143" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="C143" s="38" t="s">
+        <v>546</v>
+      </c>
+      <c r="D143" s="39" t="s">
+        <v>547</v>
+      </c>
+      <c r="E143" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F143" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" s="42"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="42"/>
+      <c r="J143" s="41"/>
+      <c r="K143" s="42"/>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B144" s="5"/>
-      <c r="C144" s="6"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="10"/>
-      <c r="H144" s="9"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="9"/>
-      <c r="K144" s="10"/>
+      <c r="B144" s="37" t="s">
+        <v>548</v>
+      </c>
+      <c r="C144" s="38" t="s">
+        <v>549</v>
+      </c>
+      <c r="D144" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="E144" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="F144" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" s="42"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="42"/>
+      <c r="J144" s="41"/>
+      <c r="K144" s="42"/>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B145" s="5"/>
@@ -9237,9 +9631,12 @@
     <hyperlink ref="C22" r:id="rId11" xr:uid="{736BB623-6FC1-439A-9179-EF09E3959C88}"/>
     <hyperlink ref="C90" r:id="rId12" xr:uid="{AE090718-B16E-42A8-BF06-B70C01DF190C}"/>
     <hyperlink ref="C93" r:id="rId13" display="http://www.cavanarts.ie/Default.aspx?StructureID_str=1" xr:uid="{DD237C2F-EA33-4F9E-989D-6E00007CDF42}"/>
+    <hyperlink ref="C129" r:id="rId14" xr:uid="{2E6CA00A-4F9D-463A-80EC-52A948E90899}"/>
+    <hyperlink ref="C134" r:id="rId15" display="mailto:michelle@mpconstruction.ie" xr:uid="{AD980F68-81C6-4200-AAB9-E5DEFDBD6C7C}"/>
+    <hyperlink ref="C140" r:id="rId16" xr:uid="{6E357000-395A-4B34-AEB0-DD7C5897DCCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId14"/>
+  <legacyDrawing r:id="rId17"/>
 </worksheet>
 </file>
 
